--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECCCA48-FF10-453B-A73B-608D43470FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602C7D0-D4B8-47EB-A232-119202007CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
-    <sheet name="نمودارها" sheetId="9" r:id="rId2"/>
-    <sheet name="فرضیات" sheetId="3" r:id="rId3"/>
-    <sheet name="سرور" sheetId="6" r:id="rId4"/>
-    <sheet name="تجهیزات اداری" sheetId="8" r:id="rId5"/>
-    <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId6"/>
-    <sheet name="بازاریابی" sheetId="4" r:id="rId7"/>
-    <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId8"/>
+    <sheet name="فرضیات" sheetId="3" r:id="rId2"/>
+    <sheet name="سرور" sheetId="6" r:id="rId3"/>
+    <sheet name="تجهیزات اداری" sheetId="8" r:id="rId4"/>
+    <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId5"/>
+    <sheet name="بازاریابی" sheetId="4" r:id="rId6"/>
+    <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -31,9 +30,9 @@
     <definedName name="d_spacePricePerStaff">فرضیات!$B$6</definedName>
     <definedName name="d_ssdCost">فرضیات!$B$14</definedName>
     <definedName name="d_ssdDollarCost">فرضیات!$B$12</definedName>
-    <definedName name="d_staff1400">'حقوق و دستمزد'!$C$13</definedName>
-    <definedName name="d_staff1401">'حقوق و دستمزد'!$D$13</definedName>
-    <definedName name="d_staffTotal">'حقوق و دستمزد'!$E$13</definedName>
+    <definedName name="d_staff1400">'حقوق و دستمزد'!$C$12</definedName>
+    <definedName name="d_staff1401">'حقوق و دستمزد'!$D$12</definedName>
+    <definedName name="d_staffTotal">'حقوق و دستمزد'!$E$12</definedName>
     <definedName name="d_systemPerPerson">فرضیات!$B$8</definedName>
     <definedName name="d_toman2dollar">فرضیات!$B$7</definedName>
     <definedName name="d_unpredictedPercent">فرضیات!$B$16</definedName>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -118,9 +117,6 @@
     <t>جمع</t>
   </si>
   <si>
-    <t>تولید محتوا</t>
-  </si>
-  <si>
     <t>تبلیغات چاپی</t>
   </si>
   <si>
@@ -146,9 +142,6 @@
   </si>
   <si>
     <t>نمایشگاه‌ها</t>
-  </si>
-  <si>
-    <t>تبلیغات دیجیتال</t>
   </si>
   <si>
     <t>تبلیغات در موتورهای جستجو</t>
@@ -253,7 +246,7 @@
     <t>اجاره سروهای بکاپ</t>
   </si>
   <si>
-    <t>سرمایه درگردش</t>
+    <t>دیجیتال مارکتینگ</t>
   </si>
 </sst>
 </file>
@@ -303,7 +296,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +309,14 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -363,6 +362,30 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top style="thin">
         <color theme="1"/>
       </top>
@@ -376,9 +399,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -408,7 +430,19 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -416,7 +450,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="89">
     <dxf>
       <font>
         <b val="0"/>
@@ -434,22 +468,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -468,22 +487,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -502,22 +506,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -539,20 +527,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -568,48 +542,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -632,21 +565,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -666,21 +584,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -696,22 +599,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -747,6 +634,34 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -762,84 +677,46 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -868,59 +745,118 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -943,21 +879,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -976,21 +913,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1009,19 +947,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1049,165 +990,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1226,6 +1013,283 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -1236,69 +1300,192 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1317,7 +1504,64 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1385,20 +1629,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1434,90 +1680,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1533,76 +1695,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1741,7 +1847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{00000001-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1763,7 +1869,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{00000003-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1785,7 +1891,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{00000005-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1805,7 +1911,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{00000007-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1827,7 +1933,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{00000009-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1849,7 +1955,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{0000000B-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1871,7 +1977,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-D3F4-4200-8C2D-D9F41352106B}"/>
+                <c16:uniqueId val="{0000000D-D420-4EBC-8D57-F653FDCA5AAD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1895,7 +2001,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-D3F4-4200-8C2D-D9F41352106B}"/>
+                  <c16:uniqueId val="{0000000D-D420-4EBC-8D57-F653FDCA5AAD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1993,29 +2099,29 @@
                   <c:v>4932000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200000000</c:v>
+                  <c:v>750000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14837190000</c:v>
+                  <c:v>9328980000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3300000000</c:v>
+                  <c:v>3800000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500000000</c:v>
+                  <c:v>990000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3124800000</c:v>
+                  <c:v>2354400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2889399000</c:v>
+                  <c:v>2215538000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-D3F4-4200-8C2D-D9F41352106B}"/>
+              <c16:uniqueId val="{0000000E-D420-4EBC-8D57-F653FDCA5AAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2085,9 +2191,1132 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR"/>
+              <a:t>هزینه‌ها</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0"/>
+              <a:t> در سال به تفکیک نوع</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>سرمایه ثابت</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2112000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3570000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-289B-4F13-A388-1094D36E4D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>سرمایه در گردش</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$12:$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$14:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3356980000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15331938000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-289B-4F13-A388-1094D36E4D80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="734323552"/>
+        <c:axId val="734329792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="734323552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734329792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="734329792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="_(\I\R\T\ * #,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="734323552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR"/>
+              <a:t>نمودار</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0"/>
+              <a:t> هزینه‌ها به تفکیک عنوان در دوسال آینده</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>سرور</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>تجهیزات اداری</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>حقوق و دستمزد</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>بازاریابی</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>فضای کاری</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>هزینه‌های مصرفی</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>پیش‌بینی نشده</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1872000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1121400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>698400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497180000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7130-4159-B0CF-9E77F74F74F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>سرور</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>تجهیزات اداری</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>حقوق و دستمزد</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>بازاریابی</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>فضای کاری</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>هزینه‌های مصرفی</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>پیش‌بینی نشده</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3060000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8207580000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1656000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1718358000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7130-4159-B0CF-9E77F74F74F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="818187696"/>
+        <c:axId val="818181872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="818187696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818181872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="818181872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(\I\R\T\ * #,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818187696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
   <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2610,27 +3839,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF7A14D-5F07-423D-A9F0-CDD041903E93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3ADA3B-7138-4F29-BCCA-6715A0D58C21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,24 +4885,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D087EE6-19EE-4831-90CC-0A503131B8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1704975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706812E9-3E97-44C9-83B6-92812A1D8208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84" totalsRowDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="10">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="82">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2676,27 +4983,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B16" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B16" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <autoFilter ref="A1:B16" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="74">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2705,31 +5012,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="71">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="65">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="61">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2738,34 +5045,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D7" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
-  <autoFilter ref="A1:D6" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+  <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="57" totalsRowDxfId="3">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="56" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A23:F28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A23:F28" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="28" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="27">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="49" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="48">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="47">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="25">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="46">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2774,16 +5081,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="24" dataDxfId="23" totalsRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="8">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="41" totalsRowDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="4" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2792,16 +5099,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3109,402 +5416,347 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="25.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="19">
         <f>SUM(tbl_servers[1400])</f>
         <v>1872000000</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <f>SUM(tbl_servers[1401])</f>
         <v>3060000000</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
         <v>4932000000</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.1551753968086915</v>
+        <v>0.20237235216170354</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A4" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="19">
         <f>SUM(tbl_office12[1400])</f>
-        <v>300000000</v>
-      </c>
-      <c r="E3" s="20">
+        <v>240000000</v>
+      </c>
+      <c r="E3" s="19">
         <f>SUM(tbl_office12[1401])</f>
-        <v>900000000</v>
-      </c>
-      <c r="F3" s="20">
+        <v>510000000</v>
+      </c>
+      <c r="F3" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1200000000</v>
-      </c>
-      <c r="G3" s="26">
+        <v>750000000</v>
+      </c>
+      <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>3.7755570999681624E-2</v>
+        <v>3.0774384452813802E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="20">
-        <f>'حقوق و دستمزد'!C16</f>
-        <v>2474200000</v>
-      </c>
-      <c r="E4" s="20">
-        <f>'حقوق و دستمزد'!D16</f>
-        <v>12362990000</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="19">
+        <f>'حقوق و دستمزد'!C15</f>
+        <v>1121400000</v>
+      </c>
+      <c r="E4" s="19">
+        <f>'حقوق و دستمزد'!D15</f>
+        <v>8207580000</v>
+      </c>
+      <c r="F4" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>14837190000</v>
-      </c>
-      <c r="G4" s="26">
+        <v>9328980000</v>
+      </c>
+      <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.46682215040063851</v>
+        <v>0.38279148943014785</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="19">
         <f>SUM(tbl_marketing[1400])</f>
         <v>800000000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <f>SUM(tbl_marketing[1401])</f>
-        <v>2500000000</v>
-      </c>
-      <c r="F5" s="20">
+        <v>3000000000</v>
+      </c>
+      <c r="F5" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>3300000000</v>
-      </c>
-      <c r="G5" s="26">
+        <v>3800000000</v>
+      </c>
+      <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.10382782024912447</v>
+        <v>0.15592354789425658</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f>ROW(A5)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1400])*12</f>
-        <v>300000000</v>
-      </c>
-      <c r="E6" s="20">
+        <v>240000000</v>
+      </c>
+      <c r="E6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1401])*12</f>
-        <v>1200000000</v>
-      </c>
-      <c r="F6" s="20">
+        <v>750000000</v>
+      </c>
+      <c r="F6" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1500000000</v>
-      </c>
-      <c r="G6" s="26">
+        <v>990000000</v>
+      </c>
+      <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>4.7194463749602032E-2</v>
+        <v>4.0622187477714213E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f>ROW(A6)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
-        <v>784800000</v>
-      </c>
-      <c r="E7" s="20">
+        <v>698400000</v>
+      </c>
+      <c r="E7" s="19">
         <f>SUM(tbl_office[1401])</f>
-        <v>2340000000</v>
-      </c>
-      <c r="F7" s="20">
+        <v>1656000000</v>
+      </c>
+      <c r="F7" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>3124800000</v>
-      </c>
-      <c r="G7" s="26">
+        <v>2354400000</v>
+      </c>
+      <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>9.8315506883170964E-2</v>
+        <v>9.660694767427308E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f>ROW(A7)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
-        <v>653100000</v>
-      </c>
-      <c r="E8" s="20">
+        <v>497180000</v>
+      </c>
+      <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>2236299000</v>
-      </c>
-      <c r="F8" s="20">
+        <v>1718358000</v>
+      </c>
+      <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2889399000</v>
-      </c>
-      <c r="G8" s="26">
+        <v>2215538000</v>
+      </c>
+      <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="1">
+      <c r="D9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1400])</f>
-        <v>7184100000</v>
-      </c>
-      <c r="E9" s="1">
+        <v>5468980000</v>
+      </c>
+      <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>24599289000</v>
-      </c>
-      <c r="F9" s="27">
+        <v>18901938000</v>
+      </c>
+      <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>31783389000</v>
-      </c>
-      <c r="G9" s="22">
+        <v>24370918000</v>
+      </c>
+      <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4"/>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1400</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1401</v>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>61</v>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="31">
+        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B13)</f>
+        <v>2112000000</v>
+      </c>
+      <c r="E13" s="31">
+        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B13)</f>
+        <v>3570000000</v>
+      </c>
+      <c r="F13" s="32">
+        <f>SUM(D13:E13)</f>
+        <v>5682000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="33">
+        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B14)</f>
+        <v>3356980000</v>
+      </c>
+      <c r="E14" s="33">
+        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
+        <v>15331938000</v>
+      </c>
+      <c r="F14" s="34">
+        <f>SUM(D14:E14)</f>
+        <v>18688918000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F15" s="5"/>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="31" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="32" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="33" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="47" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BD046-16B8-476D-9BC0-F91811096B23}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:AI49"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="35" width="9.140625" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" x14ac:dyDescent="0.25"/>
-    <row r="2" x14ac:dyDescent="0.25"/>
-    <row r="3" x14ac:dyDescent="0.25"/>
-    <row r="4" x14ac:dyDescent="0.25"/>
-    <row r="5" x14ac:dyDescent="0.25"/>
-    <row r="6" x14ac:dyDescent="0.25"/>
-    <row r="7" x14ac:dyDescent="0.25"/>
-    <row r="8" x14ac:dyDescent="0.25"/>
-    <row r="9" x14ac:dyDescent="0.25"/>
-    <row r="10" x14ac:dyDescent="0.25"/>
-    <row r="11" x14ac:dyDescent="0.25"/>
-    <row r="12" x14ac:dyDescent="0.25"/>
-    <row r="13" x14ac:dyDescent="0.25"/>
-    <row r="14" x14ac:dyDescent="0.25"/>
-    <row r="15" x14ac:dyDescent="0.25"/>
-    <row r="16" x14ac:dyDescent="0.25"/>
-    <row r="17" x14ac:dyDescent="0.25"/>
-    <row r="18" x14ac:dyDescent="0.25"/>
-    <row r="19" x14ac:dyDescent="0.25"/>
-    <row r="20" x14ac:dyDescent="0.25"/>
-    <row r="21" x14ac:dyDescent="0.25"/>
-    <row r="22" x14ac:dyDescent="0.25"/>
-    <row r="23" x14ac:dyDescent="0.25"/>
-    <row r="24" x14ac:dyDescent="0.25"/>
-    <row r="25" x14ac:dyDescent="0.25"/>
-    <row r="26" x14ac:dyDescent="0.25"/>
-    <row r="27" x14ac:dyDescent="0.25"/>
-    <row r="28" x14ac:dyDescent="0.25"/>
-    <row r="29" x14ac:dyDescent="0.25"/>
-    <row r="30" x14ac:dyDescent="0.25"/>
-    <row r="31" x14ac:dyDescent="0.25"/>
-    <row r="32" x14ac:dyDescent="0.25"/>
-    <row r="33" x14ac:dyDescent="0.25"/>
-    <row r="34" x14ac:dyDescent="0.25"/>
-    <row r="35" x14ac:dyDescent="0.25"/>
-    <row r="36" x14ac:dyDescent="0.25"/>
-    <row r="37" x14ac:dyDescent="0.25"/>
-    <row r="38" x14ac:dyDescent="0.25"/>
-    <row r="39" x14ac:dyDescent="0.25"/>
-    <row r="40" x14ac:dyDescent="0.25"/>
-    <row r="41" x14ac:dyDescent="0.25"/>
-    <row r="42" x14ac:dyDescent="0.25"/>
-    <row r="43" x14ac:dyDescent="0.25"/>
-    <row r="44" x14ac:dyDescent="0.25"/>
-    <row r="45" x14ac:dyDescent="0.25"/>
-    <row r="46" x14ac:dyDescent="0.25"/>
-    <row r="47" x14ac:dyDescent="0.25"/>
-    <row r="48" x14ac:dyDescent="0.25"/>
-    <row r="49" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1657EB13-C35B-48C0-80F5-7A9C0C4B5FB2}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -3512,145 +5764,145 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>0.45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>17.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>250000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="13">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="12">
         <f>B5*B4</f>
         <v>2500000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="12">
         <v>30000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="13">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="20">
         <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="20">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="12">
         <f>d_serverDollarCost*d_toman2dollar</f>
         <v>300000000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="12">
         <f>d_ssdDollarCost*d_toman2dollar * 12</f>
         <v>150000000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="12">
         <v>3000000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="22">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="21">
         <v>0.1</v>
       </c>
     </row>
@@ -3663,7 +5915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8994-2F22-4065-A86F-17DCD909CF75}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3676,107 +5928,107 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_serverCost</f>
         <v>1200000000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_serverCost</f>
         <v>1800000000</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
         <v>3000000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="12">
         <f>tbl_serverCount[1400]*d_ssdCost</f>
         <v>600000000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_ssdCost</f>
         <v>900000000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
         <v>1500000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f>ROW(A3)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
         <v>72000000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
         <v>360000000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
         <v>432000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1400])</f>
         <v>1872000000</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1401])</f>
         <v>3060000000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <f>SUBTOTAL(109,tbl_servers[جمع])</f>
         <v>4932000000</v>
       </c>
@@ -3785,31 +6037,31 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>10</v>
       </c>
     </row>
@@ -3832,7 +6084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55B3C6-E5B9-4E14-BB33-008413A11776}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3845,49 +6097,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="21.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12">
         <f>d_staff1400*d_systemPerPerson</f>
-        <v>300000000</v>
-      </c>
-      <c r="D2" s="13">
+        <v>240000000</v>
+      </c>
+      <c r="D2" s="12">
         <f>d_staff1401 * d_systemPerPerson</f>
-        <v>900000000</v>
-      </c>
-      <c r="E2" s="13">
+        <v>510000000</v>
+      </c>
+      <c r="E2" s="12">
         <f>SUM(tbl_office12[[#This Row],[1400]:[1401]])</f>
-        <v>1200000000</v>
+        <v>750000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -3915,7 +6167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A173546-818B-4745-A0F6-8DA8FD10C50D}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -3923,361 +6175,325 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A4" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <f>ROW(A4)</f>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="A5" s="1" t="e">
+        <f>ROW(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
+      <c r="D5" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <f>ROW(A4)</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1400])</f>
-        <v>10</v>
-      </c>
-      <c r="D7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1401])</f>
-        <v>40</v>
-      </c>
-    </row>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1401</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8">
-        <v>1400</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1401</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="24">
+        <f>SUM(tbl_salaryData[1400])</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="24">
+        <f>SUM(tbl_salaryData[1401])-C12</f>
+        <v>17</v>
+      </c>
+      <c r="E12" s="11">
+        <f>SUM(C12:D12)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="25">
-        <f>SUM(tbl_salaryData[1400])</f>
-        <v>10</v>
-      </c>
-      <c r="D13" s="25">
-        <f>SUM(tbl_salaryData[1401])-C13</f>
-        <v>30</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="11">
+        <f>C2*C$23+C3*C$24+C4*C$25+C5*C$26</f>
+        <v>126000000</v>
+      </c>
+      <c r="D13" s="11">
+        <f>D2*D$23+D3*D$24+D4*D$25+D5*D$26</f>
+        <v>461100000</v>
+      </c>
+      <c r="E13" s="11">
         <f>SUM(C13:D13)</f>
-        <v>40</v>
+        <v>587100000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="12">
-        <f>C2*C$24+C3*C$25+C4*C$26+C6*C$28</f>
-        <v>139000000</v>
-      </c>
-      <c r="D14" s="12">
-        <f>D2*D$24+D3*D$25+D4*D$26+D6*D$28</f>
-        <v>694550000</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11">
+        <f>C13*d_year1400Remain</f>
+        <v>756000000</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" ref="C14:D14" si="1">D13*12</f>
+        <v>5533200000</v>
       </c>
       <c r="E14" s="12">
-        <f>SUM(C14:D14)</f>
-        <v>833550000</v>
+        <f t="shared" ref="E14:E15" si="2">SUM(C14:D14)</f>
+        <v>6289200000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="12">
-        <f t="shared" ref="C15:D15" si="1">C14*12</f>
-        <v>1668000000</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="1"/>
-        <v>8334600000</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" ref="E15:E16" si="2">SUM(C15:D15)</f>
-        <v>10002600000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="str">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="str">
         <f>"مجموع پرداختی در یک‌سال (" &amp; d_AnnualSalary &amp; ")"</f>
         <v>مجموع پرداختی در یک‌سال (17.8)</v>
       </c>
-      <c r="C16" s="16">
-        <f>ROUND(C14*d_AnnualSalary,0)</f>
-        <v>2474200000</v>
-      </c>
-      <c r="D16" s="16">
-        <f>ROUND(D14*d_AnnualSalary,0)</f>
-        <v>12362990000</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="C15" s="15">
+        <f>ROUND(C13*d_AnnualSalary,0) / 12 * d_year1400Remain</f>
+        <v>1121400000</v>
+      </c>
+      <c r="D15" s="15">
+        <f>ROUND(D13*d_AnnualSalary,0)</f>
+        <v>8207580000</v>
+      </c>
+      <c r="E15" s="16">
         <f t="shared" si="2"/>
-        <v>14837190000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4"/>
+        <v>9328980000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C17" s="17"/>
+    </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C18" s="18"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C19" s="19"/>
-    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C23" s="19">
         <v>20000000</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
         <v>29000000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
         <v>356000000</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
         <v>516200000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C24" s="19">
         <v>8000000</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
         <v>11600000</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
         <v>142400000</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
         <v>206480000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C25" s="19">
         <v>12000000</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
         <v>17400000</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
         <v>213600000</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
         <v>309720000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20">
-        <v>10000000</v>
-      </c>
-      <c r="D27" s="13">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="19">
+        <v>6000000</v>
+      </c>
+      <c r="D26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>14500000</v>
-      </c>
-      <c r="E27" s="13">
+        <v>8700000</v>
+      </c>
+      <c r="E26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
-        <v>178000000</v>
-      </c>
-      <c r="F27" s="13">
+        <v>106800000</v>
+      </c>
+      <c r="F26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>258100000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="20">
-        <v>7000000</v>
-      </c>
-      <c r="D28" s="13">
-        <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>10150000</v>
-      </c>
-      <c r="E28" s="13">
-        <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
-        <v>124600000</v>
-      </c>
-      <c r="F28" s="13">
-        <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>180670000</v>
-      </c>
-    </row>
+        <v>154860000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4"/>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -4290,7 +6506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CDBBA6-9518-4069-91BC-82470ED3FE95}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -4298,221 +6514,221 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
-    <col min="3" max="5" width="28.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="28.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="19">
         <v>50000000</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>200000000</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>250000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A10" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="19">
         <v>100000000</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>500000000</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>600000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="20">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="19">
         <v>200000000</v>
       </c>
-      <c r="D4" s="20">
-        <v>800000000</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="D4" s="19">
+        <v>1000000000</v>
+      </c>
+      <c r="E4" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>1000000000</v>
+        <v>1200000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="20">
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="19">
         <v>80000000</v>
       </c>
-      <c r="D5" s="20">
-        <v>200000000</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="19">
+        <v>500000000</v>
+      </c>
+      <c r="E5" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>280000000</v>
+        <v>580000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="19">
         <v>40000000</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>100000000</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>140000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="19">
         <v>10000000</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>50000000</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>60000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="19">
         <v>50000000</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>100000000</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>150000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="19">
         <v>70000000</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>50000000</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>120000000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="19">
         <v>200000000</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>500000000</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
         <v>700000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1400])</f>
         <v>800000000</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1401])</f>
-        <v>2500000000</v>
-      </c>
-      <c r="E11" s="13">
+        <v>3000000000</v>
+      </c>
+      <c r="E11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[جمع])</f>
-        <v>3300000000</v>
+        <v>3800000000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -4531,7 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22E024-D9BB-4824-99A8-D3706E564428}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -4544,205 +6760,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="24.5703125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" hidden="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
         <v>72000000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
         <v>360000000</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
         <v>432000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A9" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="12">
         <v>200000000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>80000000</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
         <v>280000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="12">
         <v>10000000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>50000000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
         <v>60000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="12">
         <f>d_staff1400*d_systemPerPerson</f>
-        <v>300000000</v>
-      </c>
-      <c r="D5" s="13">
+        <v>240000000</v>
+      </c>
+      <c r="D5" s="12">
         <f>d_staff1401 * d_systemPerPerson</f>
-        <v>900000000</v>
-      </c>
-      <c r="E5" s="13">
+        <v>510000000</v>
+      </c>
+      <c r="E5" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>1200000000</v>
+        <v>750000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="12">
         <f>d_staff1400*d_usagePerPersonPerMonth * d_year1400Remain</f>
-        <v>60000000</v>
-      </c>
-      <c r="D6" s="13">
+        <v>48000000</v>
+      </c>
+      <c r="D6" s="12">
         <f>d_staffTotal * d_usagePerPersonPerMonth * 12</f>
-        <v>480000000</v>
-      </c>
-      <c r="E6" s="13">
+        <v>300000000</v>
+      </c>
+      <c r="E6" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>540000000</v>
+        <v>348000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="12">
         <v>2000000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>50000000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
         <v>52000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="12">
         <v>10000000</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>30000000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
         <v>40000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12">
         <f>SUM(C2:C8) * 20%</f>
-        <v>130800000</v>
-      </c>
-      <c r="D9" s="13">
+        <v>116400000</v>
+      </c>
+      <c r="D9" s="12">
         <f>SUM(D2:D8) * 20%</f>
-        <v>390000000</v>
-      </c>
-      <c r="E9" s="13">
+        <v>276000000</v>
+      </c>
+      <c r="E9" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>520800000</v>
+        <v>392400000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <f>SUBTOTAL(109,tbl_office[1400])</f>
-        <v>784800000</v>
-      </c>
-      <c r="D10" s="13">
+        <v>698400000</v>
+      </c>
+      <c r="D10" s="12">
         <f>SUBTOTAL(109,tbl_office[1401])</f>
-        <v>2340000000</v>
-      </c>
-      <c r="E10" s="13">
+        <v>1656000000</v>
+      </c>
+      <c r="E10" s="12">
         <f>SUBTOTAL(109,tbl_office[جمع])</f>
-        <v>3124800000</v>
+        <v>2354400000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8602C7D0-D4B8-47EB-A232-119202007CFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076F4F2-FE9B-42C7-95D3-2ED11354ADBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
-    <sheet name="فرضیات" sheetId="3" r:id="rId2"/>
-    <sheet name="سرور" sheetId="6" r:id="rId3"/>
-    <sheet name="تجهیزات اداری" sheetId="8" r:id="rId4"/>
-    <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId5"/>
-    <sheet name="بازاریابی" sheetId="4" r:id="rId6"/>
-    <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId7"/>
+    <sheet name="نمودار هزینه‌ها" sheetId="11" r:id="rId2"/>
+    <sheet name="فرضیات" sheetId="3" r:id="rId3"/>
+    <sheet name="سرور" sheetId="6" r:id="rId4"/>
+    <sheet name="تجهیزات اداری" sheetId="8" r:id="rId5"/>
+    <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId6"/>
+    <sheet name="بازاریابی" sheetId="4" r:id="rId7"/>
+    <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -450,7 +451,50 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="86">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -693,93 +737,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1808,6 +1765,503 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fa-IR"/>
+              <a:t>نمودار</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0"/>
+              <a:t> هزینه‌ها به تفکیک عنوان در دوسال آینده</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>سرور</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>تجهیزات اداری</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>حقوق و دستمزد</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>بازاریابی</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>فضای کاری</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>هزینه‌های مصرفی</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>پیش‌بینی نشده</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1872000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>240000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1121400000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>698400000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>497180000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B054-4308-8052-C5AD6D710E4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1401</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>سرور</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>تجهیزات اداری</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>حقوق و دستمزد</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>بازاریابی</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>فضای کاری</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>هزینه‌های مصرفی</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>پیش‌بینی نشده</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'خلاصه هزینه‌ها'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3060000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8207580000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>750000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1656000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1718358000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B054-4308-8052-C5AD6D710E4D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="818187696"/>
+        <c:axId val="818181872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="818187696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818181872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="818181872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(\I\R\T\ * #,##0_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="818187696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1847,7 +2301,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{00000001-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1869,7 +2323,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{00000003-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1891,7 +2345,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{00000005-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1911,7 +2365,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{00000007-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1933,7 +2387,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{00000009-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1955,7 +2409,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{0000000B-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1977,7 +2431,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                <c16:uniqueId val="{0000000D-3348-45DE-81AD-19D093C6D179}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2001,7 +2455,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-D420-4EBC-8D57-F653FDCA5AAD}"/>
+                  <c16:uniqueId val="{0000000D-3348-45DE-81AD-19D093C6D179}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2121,7 +2575,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-D420-4EBC-8D57-F653FDCA5AAD}"/>
+              <c16:uniqueId val="{0000000E-3348-45DE-81AD-19D093C6D179}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2191,7 +2645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2387,7 +2841,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-289B-4F13-A388-1094D36E4D80}"/>
+              <c16:uniqueId val="{00000000-3EB3-45A4-A867-FB7DE27C7BA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2506,7 +2960,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-289B-4F13-A388-1094D36E4D80}"/>
+              <c16:uniqueId val="{00000001-3EB3-45A4-A867-FB7DE27C7BA3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2771,262 +3225,160 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fa-IR"/>
-              <a:t>نمودار</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> هزینه‌ها به تفکیک عنوان در دوسال آینده</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9FDC-4318-91B2-C238F9451B24}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9FDC-4318-91B2-C238F9451B24}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:strRef>
-              <c:f>'خلاصه هزینه‌ها'!$D$1</c:f>
+              <c:f>'خلاصه هزینه‌ها'!$D$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1400</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>سرور</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>تجهیزات اداری</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>حقوق و دستمزد</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>بازاریابی</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>فضای کاری</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>هزینه‌های مصرفی</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>پیش‌بینی نشده</c:v>
+                  <c:v>1401</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'خلاصه هزینه‌ها'!$D$2:$D$8</c:f>
+              <c:f>'خلاصه هزینه‌ها'!$D$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1872000000</c:v>
+                  <c:v>5468980000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1121400000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>698400000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>497180000</c:v>
+                  <c:v>18901938000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7130-4159-B0CF-9E77F74F74F7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'خلاصه هزینه‌ها'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1401</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'خلاصه هزینه‌ها'!$C$2:$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>سرور</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>تجهیزات اداری</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>حقوق و دستمزد</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>بازاریابی</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>فضای کاری</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>هزینه‌های مصرفی</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>پیش‌بینی نشده</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'خلاصه هزینه‌ها'!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3060000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>510000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8207580000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3000000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>750000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1656000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1718358000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7130-4159-B0CF-9E77F74F74F7}"/>
+              <c16:uniqueId val="{00000004-9FDC-4318-91B2-C238F9451B24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3037,151 +3389,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="818187696"/>
-        <c:axId val="818181872"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="818187696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="818181872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="818181872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(\I\R\T\ * #,##0_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="818187696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="billions"/>
-          <c:dispUnitsLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3204,7 +3415,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -3212,9 +3423,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3252,10 +3463,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-          <a:cs typeface="IRANSansX" pitchFamily="2" charset="-78"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3269,18 +3477,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
-  <a:schemeClr val="accent5"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3320,7 +3516,528 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="25">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3839,7 +4556,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4342,8 +5059,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4400,7 +5117,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4451,6 +5168,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4461,12 +5185,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4504,7 +5235,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4547,22 +5278,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4667,8 +5399,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4800,19 +5532,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4849,23 +5582,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B3ADA3B-7138-4F29-BCCA-6715A0D58C21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3A0DEE-D42F-4C34-A106-C4306B78BCF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4887,27 +5620,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D087EE6-19EE-4831-90CC-0A503131B8EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DDB63B-DAF4-4BBD-BC0E-1F0EF00E8F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4924,26 +5659,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1704975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706812E9-3E97-44C9-83B6-92812A1D8208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36EDDCC7-E880-46D9-B464-3E854B0834C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4957,24 +5694,62 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75443569-2626-4AF0-8ED8-2FFB214AEA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="12" totalsRowDxfId="13">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4983,27 +5758,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B16" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B16" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A1:B16" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="86"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="85"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="81" dataDxfId="80">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="80" totalsRowDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="74">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="71">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5012,31 +5787,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="71">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="68">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="62">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="58">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5045,34 +5820,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56" totalsRowDxfId="55">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="57" totalsRowDxfId="3">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="54" totalsRowDxfId="6">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="56" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="53" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="49" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="48">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="46" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="45">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="44">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="46">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="43">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5081,16 +5856,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="11">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="41" totalsRowDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="38" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="8" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5099,16 +5874,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5419,7 +6194,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -5749,14 +6524,134 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3603962-EF5C-474D-9511-4229C995700E}">
+  <dimension ref="A1:A100"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" x14ac:dyDescent="0.25"/>
+    <row r="80" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
+    <row r="89" x14ac:dyDescent="0.25"/>
+    <row r="90" x14ac:dyDescent="0.25"/>
+    <row r="91" x14ac:dyDescent="0.25"/>
+    <row r="92" x14ac:dyDescent="0.25"/>
+    <row r="93" x14ac:dyDescent="0.25"/>
+    <row r="94" x14ac:dyDescent="0.25"/>
+    <row r="95" x14ac:dyDescent="0.25"/>
+    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="97" x14ac:dyDescent="0.25"/>
+    <row r="98" x14ac:dyDescent="0.25"/>
+    <row r="99" x14ac:dyDescent="0.25"/>
+    <row r="100" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1657EB13-C35B-48C0-80F5-7A9C0C4B5FB2}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -5915,7 +6810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8994-2F22-4065-A86F-17DCD909CF75}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6084,7 +6979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55B3C6-E5B9-4E14-BB33-008413A11776}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6167,7 +7062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A173546-818B-4745-A0F6-8DA8FD10C50D}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -6506,7 +7401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CDBBA6-9518-4069-91BC-82470ED3FE95}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -6747,7 +7642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF22E024-D9BB-4824-99A8-D3706E564428}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076F4F2-FE9B-42C7-95D3-2ED11354ADBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1767FE80-6CD7-4466-9A7F-9CE06185B3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,14 @@
     <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId6"/>
     <sheet name="بازاریابی" sheetId="4" r:id="rId7"/>
     <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId8"/>
+    <sheet name="جزئیات منابع درآمد" sheetId="12" r:id="rId9"/>
+    <sheet name="پیش‌بینی درآمد" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
     <definedName name="d_coloCost">فرضیات!$B$15</definedName>
+    <definedName name="d_customerAvgRevenue">'جزئیات منابع درآمد'!$C$18</definedName>
+    <definedName name="d_customerConvertRate">'جزئیات منابع درآمد'!$C$17</definedName>
     <definedName name="d_salaryYOY">فرضیات!$B$2</definedName>
     <definedName name="d_serverCost">فرضیات!$B$13</definedName>
     <definedName name="d_serverDollarCost">فرضیات!$B$11</definedName>
@@ -39,6 +43,7 @@
     <definedName name="d_unpredictedPercent">فرضیات!$B$16</definedName>
     <definedName name="d_usagePerPersonPerMonth">فرضیات!$B$9</definedName>
     <definedName name="d_year1400Remain">فرضیات!$B$10</definedName>
+    <definedName name="s_activeUser">فرضیات!$B$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>#</t>
   </si>
@@ -248,20 +253,139 @@
   </si>
   <si>
     <t>دیجیتال مارکتینگ</t>
+  </si>
+  <si>
+    <t>پک پیامک</t>
+  </si>
+  <si>
+    <t>فرضیات بخش درآمد</t>
+  </si>
+  <si>
+    <t>درصد کاربران فعال نسبت به کل</t>
+  </si>
+  <si>
+    <t>درصد خرید</t>
+  </si>
+  <si>
+    <t>حذف برندینگ جیبرس</t>
+  </si>
+  <si>
+    <t>مدل پرداخت</t>
+  </si>
+  <si>
+    <t>یک‌بار</t>
+  </si>
+  <si>
+    <t>ماهیانه</t>
+  </si>
+  <si>
+    <t>دیزاین سفارشی</t>
+  </si>
+  <si>
+    <t>مشتری سازمانی</t>
+  </si>
+  <si>
+    <t>پشتیبانی ویژه</t>
+  </si>
+  <si>
+    <t>مدیریت ارتباط با مشتریان حرفه‌ای</t>
+  </si>
+  <si>
+    <t>گزارشات فروش پیشرفته</t>
+  </si>
+  <si>
+    <t>دستیار فروش اینستاگرام</t>
+  </si>
+  <si>
+    <t>ربات سفارش‌گیر تلگرام</t>
+  </si>
+  <si>
+    <t>سود</t>
+  </si>
+  <si>
+    <t>مبلغ پرداختی</t>
+  </si>
+  <si>
+    <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>طراحی دیزاین اختصاصی</t>
+  </si>
+  <si>
+    <t>پنل پیامک</t>
+  </si>
+  <si>
+    <t>درآمد ماهیانه</t>
+  </si>
+  <si>
+    <t>درآمد سالیانه</t>
+  </si>
+  <si>
+    <t>مصرفی</t>
+  </si>
+  <si>
+    <t>کل بیزینس‌ها</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>پنل ادمین روی دامنه اختصاصی</t>
+  </si>
+  <si>
+    <t>درصد از کل درآمد</t>
+  </si>
+  <si>
+    <t>سود به ازای هر بیزینس</t>
+  </si>
+  <si>
+    <t>تعداد بیزینس</t>
+  </si>
+  <si>
+    <t>تعداد بیزینس‌هایی که پرداخت دارند</t>
+  </si>
+  <si>
+    <t>میانگین درآمد از هر مشتری</t>
+  </si>
+  <si>
+    <t>نرخ تبدیل مشتریان رایگان به پولی</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    <numFmt numFmtId="168" formatCode="[$-3000401]0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +420,26 @@
       <name val="IRANSansX"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="IRANSansX"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="IRANSansX"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +458,18 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -400,7 +554,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,6 +598,33 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -451,50 +632,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
+  <dxfs count="130">
     <dxf>
       <font>
         <b val="0"/>
@@ -516,6 +654,25 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -550,6 +707,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -568,6 +726,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -586,7 +745,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -605,7 +764,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -624,7 +783,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -661,48 +820,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -721,103 +839,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -836,22 +858,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -874,21 +881,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -904,22 +896,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -938,20 +914,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -960,6 +923,1062 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1920,10 +2939,10 @@
                   <c:v>240000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>698400000</c:v>
+                  <c:v>422400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>497180000</c:v>
+                  <c:v>469580000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,10 +3028,10 @@
                   <c:v>750000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1656000000</c:v>
+                  <c:v>1164000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1718358000</c:v>
+                  <c:v>1669158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,10 +3584,10 @@
                   <c:v>990000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2354400000</c:v>
+                  <c:v>1586400000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2215538000</c:v>
+                  <c:v>2138738000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,10 +3969,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3356980000</c:v>
+                  <c:v>3053380000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15331938000</c:v>
+                  <c:v>14790738000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,10 +4387,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5468980000</c:v>
+                  <c:v>5165380000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18901938000</c:v>
+                  <c:v>18360738000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5736,20 +6755,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="14" dataDxfId="12" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="63" dataDxfId="61" totalsRowDxfId="62">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="51" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="50" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="49" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5757,28 +6776,100 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:R12" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="17">
+      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="34" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="33" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="32" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="30" totalsRowDxfId="12">
+      <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="27" totalsRowDxfId="9" dataCellStyle="Percent">
+      <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="26" totalsRowDxfId="8">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="25" totalsRowDxfId="7">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="24" totalsRowDxfId="6">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="23" totalsRowDxfId="5">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="22" totalsRowDxfId="4">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="21" totalsRowDxfId="3">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="20" totalsRowDxfId="2">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="19" totalsRowDxfId="1">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="18" totalsRowDxfId="0">
+      <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="37" dataDxfId="41">
+  <autoFilter ref="A22:D31" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="40" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="39">
+      <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="36">
+      <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="38">
+      <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B16" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
-  <autoFilter ref="A1:B16" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B18" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
+  <autoFilter ref="A1:B18" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="127"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="71">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="115">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5787,31 +6878,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="112">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="111"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="110"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="106">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="102">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5820,34 +6911,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="57" dataDxfId="56" totalsRowDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="101" dataDxfId="100" totalsRowDxfId="99">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="54" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="98" totalsRowDxfId="55">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="53" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="97" totalsRowDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="48"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="46" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="45">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="90" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="89">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="88">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="87">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5856,16 +6947,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="39" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="60">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="38" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="7" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="82" totalsRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="58" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="57" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="56" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5874,16 +6965,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="48">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="75" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="44">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6193,8 +7284,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6256,7 +7347,7 @@
       </c>
       <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.20237235216170354</v>
+        <v>0.20963934636390075</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -6284,7 +7375,7 @@
       </c>
       <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>3.0774384452813802E-2</v>
+        <v>3.187946264657858E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -6312,7 +7403,7 @@
       </c>
       <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.38279148943014785</v>
+        <v>0.39653715925423816</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -6340,7 +7431,7 @@
       </c>
       <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.15592354789425658</v>
+        <v>0.1615226107426648</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -6368,7 +7459,7 @@
       </c>
       <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>4.0622187477714213E-2</v>
+        <v>4.2080890693483725E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -6384,19 +7475,19 @@
       </c>
       <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
-        <v>698400000</v>
+        <v>422400000</v>
       </c>
       <c r="E7" s="19">
         <f>SUM(tbl_office[1401])</f>
-        <v>1656000000</v>
+        <v>1164000000</v>
       </c>
       <c r="F7" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2354400000</v>
+        <v>1586400000</v>
       </c>
       <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>9.660694767427308E-2</v>
+        <v>6.7431439390043021E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -6412,15 +7503,15 @@
       </c>
       <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
-        <v>497180000</v>
+        <v>469580000</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>1718358000</v>
+        <v>1669158000</v>
       </c>
       <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2215538000</v>
+        <v>2138738000</v>
       </c>
       <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
@@ -6433,19 +7524,19 @@
       </c>
       <c r="D9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1400])</f>
-        <v>5468980000</v>
+        <v>5165380000</v>
       </c>
       <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>18901938000</v>
+        <v>18360738000</v>
       </c>
       <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>24370918000</v>
+        <v>23526118000</v>
       </c>
       <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4"/>
@@ -6493,34 +7584,34 @@
       <c r="C14" s="28"/>
       <c r="D14" s="33">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B14)</f>
-        <v>3356980000</v>
+        <v>3053380000</v>
       </c>
       <c r="E14" s="33">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
-        <v>15331938000</v>
+        <v>14790738000</v>
       </c>
       <c r="F14" s="34">
         <f>SUM(D14:E14)</f>
-        <v>18688918000</v>
+        <v>17844118000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="18" x14ac:dyDescent="0.4"/>
+    <row r="19" x14ac:dyDescent="0.4"/>
+    <row r="20" x14ac:dyDescent="0.4"/>
+    <row r="21" x14ac:dyDescent="0.4"/>
+    <row r="22" x14ac:dyDescent="0.4"/>
+    <row r="23" x14ac:dyDescent="0.4"/>
+    <row r="24" x14ac:dyDescent="0.4"/>
+    <row r="25" x14ac:dyDescent="0.4"/>
+    <row r="26" x14ac:dyDescent="0.4"/>
+    <row r="27" x14ac:dyDescent="0.4"/>
+    <row r="28" x14ac:dyDescent="0.4"/>
+    <row r="29" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6530,12 +7621,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3603962-EF5C-474D-9511-4229C995700E}">
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6544,84 +7647,84 @@
     <col min="19" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" x14ac:dyDescent="0.25"/>
+    <row r="2" x14ac:dyDescent="0.25"/>
+    <row r="3" x14ac:dyDescent="0.25"/>
+    <row r="4" x14ac:dyDescent="0.25"/>
+    <row r="5" x14ac:dyDescent="0.25"/>
+    <row r="6" x14ac:dyDescent="0.25"/>
+    <row r="7" x14ac:dyDescent="0.25"/>
+    <row r="8" x14ac:dyDescent="0.25"/>
+    <row r="9" x14ac:dyDescent="0.25"/>
+    <row r="10" x14ac:dyDescent="0.25"/>
+    <row r="11" x14ac:dyDescent="0.25"/>
+    <row r="12" x14ac:dyDescent="0.25"/>
+    <row r="13" x14ac:dyDescent="0.25"/>
+    <row r="14" x14ac:dyDescent="0.25"/>
+    <row r="15" x14ac:dyDescent="0.25"/>
+    <row r="16" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
+    <row r="22" x14ac:dyDescent="0.25"/>
+    <row r="23" x14ac:dyDescent="0.25"/>
+    <row r="24" x14ac:dyDescent="0.25"/>
+    <row r="25" x14ac:dyDescent="0.25"/>
+    <row r="26" x14ac:dyDescent="0.25"/>
+    <row r="27" x14ac:dyDescent="0.25"/>
+    <row r="28" x14ac:dyDescent="0.25"/>
+    <row r="29" x14ac:dyDescent="0.25"/>
+    <row r="30" x14ac:dyDescent="0.25"/>
+    <row r="31" x14ac:dyDescent="0.25"/>
+    <row r="32" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+    <row r="40" x14ac:dyDescent="0.25"/>
+    <row r="41" x14ac:dyDescent="0.25"/>
+    <row r="42" x14ac:dyDescent="0.25"/>
+    <row r="43" x14ac:dyDescent="0.25"/>
+    <row r="44" x14ac:dyDescent="0.25"/>
+    <row r="45" x14ac:dyDescent="0.25"/>
+    <row r="46" x14ac:dyDescent="0.25"/>
+    <row r="47" x14ac:dyDescent="0.25"/>
+    <row r="48" x14ac:dyDescent="0.25"/>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" x14ac:dyDescent="0.25"/>
+    <row r="51" x14ac:dyDescent="0.25"/>
+    <row r="52" x14ac:dyDescent="0.25"/>
+    <row r="53" x14ac:dyDescent="0.25"/>
+    <row r="54" x14ac:dyDescent="0.25"/>
+    <row r="55" x14ac:dyDescent="0.25"/>
+    <row r="56" x14ac:dyDescent="0.25"/>
+    <row r="57" x14ac:dyDescent="0.25"/>
+    <row r="58" x14ac:dyDescent="0.25"/>
+    <row r="59" x14ac:dyDescent="0.25"/>
+    <row r="60" x14ac:dyDescent="0.25"/>
+    <row r="61" x14ac:dyDescent="0.25"/>
+    <row r="62" x14ac:dyDescent="0.25"/>
+    <row r="63" x14ac:dyDescent="0.25"/>
+    <row r="64" x14ac:dyDescent="0.25"/>
+    <row r="65" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
+    <row r="73" x14ac:dyDescent="0.25"/>
+    <row r="74" x14ac:dyDescent="0.25"/>
+    <row r="75" x14ac:dyDescent="0.25"/>
+    <row r="76" x14ac:dyDescent="0.25"/>
+    <row r="77" x14ac:dyDescent="0.25"/>
+    <row r="78" x14ac:dyDescent="0.25"/>
     <row r="79" x14ac:dyDescent="0.25"/>
     <row r="80" x14ac:dyDescent="0.25"/>
     <row r="81" x14ac:dyDescent="0.25"/>
@@ -6656,10 +7759,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -6801,7 +7904,54 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="37"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="21"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="21"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="21"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="21"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -6987,7 +8137,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7650,7 +8800,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7731,11 +8881,11 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="12">
-        <v>50000000</v>
+        <v>100000000</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>60000000</v>
+        <v>110000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -7744,19 +8894,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C5" s="12">
-        <f>d_staff1400*d_systemPerPerson</f>
-        <v>240000000</v>
+        <v>10000000</v>
       </c>
       <c r="D5" s="12">
-        <f>d_staff1401 * d_systemPerPerson</f>
-        <v>510000000</v>
+        <v>50000000</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>750000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -7828,15 +8976,15 @@
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8) * 20%</f>
-        <v>116400000</v>
+        <v>70400000</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D2:D8) * 20%</f>
-        <v>276000000</v>
+        <v>194000000</v>
       </c>
       <c r="E9" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>392400000</v>
+        <v>264400000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -7845,15 +8993,15 @@
       </c>
       <c r="C10" s="12">
         <f>SUBTOTAL(109,tbl_office[1400])</f>
-        <v>698400000</v>
+        <v>422400000</v>
       </c>
       <c r="D10" s="12">
         <f>SUBTOTAL(109,tbl_office[1401])</f>
-        <v>1656000000</v>
+        <v>1164000000</v>
       </c>
       <c r="E10" s="12">
         <f>SUBTOTAL(109,tbl_office[جمع])</f>
-        <v>2354400000</v>
+        <v>1586400000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -7874,4 +9022,1101 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114F6E58-11BF-4A5C-A2ED-6325C015977B}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="12.5703125" style="23" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E2" s="12">
+        <v>16000</v>
+      </c>
+      <c r="F2" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>34000</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0.04</v>
+      </c>
+      <c r="H2" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>1360</v>
+      </c>
+      <c r="I2" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>7.5435068987034601E-2</v>
+      </c>
+      <c r="J2" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>27200</v>
+      </c>
+      <c r="K2" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="L2" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>40</v>
+      </c>
+      <c r="M2" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>80</v>
+      </c>
+      <c r="N2" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>200</v>
+      </c>
+      <c r="O2" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>400</v>
+      </c>
+      <c r="P2" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>800</v>
+      </c>
+      <c r="Q2" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2000</v>
+      </c>
+      <c r="R2" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A12" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>100000</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>5000</v>
+      </c>
+      <c r="I3" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>0.34666851556541634</v>
+      </c>
+      <c r="J3" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>125000</v>
+      </c>
+      <c r="K3" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>25</v>
+      </c>
+      <c r="L3" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="M3" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>250</v>
+      </c>
+      <c r="O3" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>500</v>
+      </c>
+      <c r="P3" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2500</v>
+      </c>
+      <c r="R3" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>50000</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0.06</v>
+      </c>
+      <c r="H4" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>3000</v>
+      </c>
+      <c r="I4" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>0.24960133120709976</v>
+      </c>
+      <c r="J4" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>90000</v>
+      </c>
+      <c r="K4" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>30</v>
+      </c>
+      <c r="L4" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>60</v>
+      </c>
+      <c r="M4" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>120</v>
+      </c>
+      <c r="N4" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>300</v>
+      </c>
+      <c r="O4" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>600</v>
+      </c>
+      <c r="P4" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1200</v>
+      </c>
+      <c r="Q4" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>3000</v>
+      </c>
+      <c r="R4" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>5000000</v>
+      </c>
+      <c r="G5" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="H5" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>6.9333703113083267E-3</v>
+      </c>
+      <c r="J5" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>2500</v>
+      </c>
+      <c r="K5" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="O5" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="P5" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="R5" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5000000</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>5000000</v>
+      </c>
+      <c r="G6" s="43">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>2500</v>
+      </c>
+      <c r="I6" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>1.7333425778270817E-3</v>
+      </c>
+      <c r="J6" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>625</v>
+      </c>
+      <c r="K6" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="O6" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="P6" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="Q6" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>25</v>
+      </c>
+      <c r="R6" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>100000</v>
+      </c>
+      <c r="G7" s="39">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>500</v>
+      </c>
+      <c r="I7" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>3.4666851556541633E-3</v>
+      </c>
+      <c r="J7" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>1250</v>
+      </c>
+      <c r="K7" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="M7" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="N7" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>25</v>
+      </c>
+      <c r="O7" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="P7" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="Q7" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>250</v>
+      </c>
+      <c r="R7" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="12">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>50000</v>
+      </c>
+      <c r="G8" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>1000</v>
+      </c>
+      <c r="I8" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>2.7733481245233307E-2</v>
+      </c>
+      <c r="J8" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>10000</v>
+      </c>
+      <c r="K8" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="L8" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>40</v>
+      </c>
+      <c r="N8" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="O8" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>200</v>
+      </c>
+      <c r="P8" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>400</v>
+      </c>
+      <c r="Q8" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1000</v>
+      </c>
+      <c r="R8" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="12">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>200000</v>
+      </c>
+      <c r="G9" s="38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>1000</v>
+      </c>
+      <c r="I9" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>6.9333703113083267E-3</v>
+      </c>
+      <c r="J9" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>2500</v>
+      </c>
+      <c r="K9" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="L9" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="M9" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="N9" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>25</v>
+      </c>
+      <c r="O9" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="P9" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="Q9" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>250</v>
+      </c>
+      <c r="R9" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>400000</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>8000</v>
+      </c>
+      <c r="I10" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>0.22186784996186645</v>
+      </c>
+      <c r="J10" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>80000</v>
+      </c>
+      <c r="K10" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="L10" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="M10" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>40</v>
+      </c>
+      <c r="N10" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="O10" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>200</v>
+      </c>
+      <c r="P10" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>400</v>
+      </c>
+      <c r="Q10" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1000</v>
+      </c>
+      <c r="R10" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>100000</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="H11" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>5.5466962490466613E-2</v>
+      </c>
+      <c r="J11" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>20000</v>
+      </c>
+      <c r="K11" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="M11" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>40</v>
+      </c>
+      <c r="N11" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+      <c r="O11" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>200</v>
+      </c>
+      <c r="P11" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>400</v>
+      </c>
+      <c r="Q11" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1000</v>
+      </c>
+      <c r="R11" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>3000000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>3000</v>
+      </c>
+      <c r="I12" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>4.1600221867849965E-3</v>
+      </c>
+      <c r="J12" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>1500</v>
+      </c>
+      <c r="K12" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2</v>
+      </c>
+      <c r="N12" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="P12" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q12" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="R12" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="46">
+        <f>SUBTOTAL(101,tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="H13" s="45">
+        <f>SUBTOTAL(109,tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="26">
+        <v>1</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="52">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="53">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A22" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <v>500</v>
+      </c>
+      <c r="B23" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>10.113636363636363</v>
+      </c>
+      <c r="C23" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>16180000</v>
+      </c>
+      <c r="D23" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>194160000</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>20.227272727272727</v>
+      </c>
+      <c r="C24" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>32360000</v>
+      </c>
+      <c r="D24" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>388320000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>40.454545454545453</v>
+      </c>
+      <c r="C25" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>64720000</v>
+      </c>
+      <c r="D25" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>776640000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B26" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>101.13636363636363</v>
+      </c>
+      <c r="C26" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>161800000</v>
+      </c>
+      <c r="D26" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>1941600000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B27" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>202.27272727272725</v>
+      </c>
+      <c r="C27" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>323600000</v>
+      </c>
+      <c r="D27" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>3883200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>20000</v>
+      </c>
+      <c r="B28" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>404.5454545454545</v>
+      </c>
+      <c r="C28" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>647200000</v>
+      </c>
+      <c r="D28" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>7766400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>50000</v>
+      </c>
+      <c r="B29" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>1011.3636363636363</v>
+      </c>
+      <c r="C29" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>1618000000</v>
+      </c>
+      <c r="D29" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>19416000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>100000</v>
+      </c>
+      <c r="B30" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2022.7272727272725</v>
+      </c>
+      <c r="C30" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>3236000000</v>
+      </c>
+      <c r="D30" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>38832000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B31" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>20227.272727272724</v>
+      </c>
+      <c r="C31" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>32360000000</v>
+      </c>
+      <c r="D31" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>388320000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{378FFBAE-F707-4CFA-9218-A26DCF5F9FF3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{378FFBAE-F707-4CFA-9218-A26DCF5F9FF3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:I12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1767FE80-6CD7-4466-9A7F-9CE06185B3CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC364C0-4277-41B0-AEDF-C8CF95B901C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId8"/>
     <sheet name="جزئیات منابع درآمد" sheetId="12" r:id="rId9"/>
     <sheet name="پیش‌بینی درآمد" sheetId="13" r:id="rId10"/>
+    <sheet name="خلاصه درآمد" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -44,6 +45,8 @@
     <definedName name="d_usagePerPersonPerMonth">فرضیات!$B$9</definedName>
     <definedName name="d_year1400Remain">فرضیات!$B$10</definedName>
     <definedName name="s_activeUser">فرضیات!$B$18</definedName>
+    <definedName name="s_cagr">فرضیات!$B$19</definedName>
+    <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
   <si>
     <t>#</t>
   </si>
@@ -363,6 +366,9 @@
     <t>تعداد بیزینس</t>
   </si>
   <si>
+    <t>درآمد</t>
+  </si>
+  <si>
     <t>تعداد بیزینس‌هایی که پرداخت دارند</t>
   </si>
   <si>
@@ -370,6 +376,72 @@
   </si>
   <si>
     <t>نرخ تبدیل مشتریان رایگان به پولی</t>
+  </si>
+  <si>
+    <t>1400-Q1</t>
+  </si>
+  <si>
+    <t>1400-Q2</t>
+  </si>
+  <si>
+    <t>1400-Q3</t>
+  </si>
+  <si>
+    <t>1400-Q4</t>
+  </si>
+  <si>
+    <t>1401-Q1</t>
+  </si>
+  <si>
+    <t>1401-Q2</t>
+  </si>
+  <si>
+    <t>1401-Q3</t>
+  </si>
+  <si>
+    <t>1401-Q4</t>
+  </si>
+  <si>
+    <t>تعداد کل بیزینس‌ها</t>
+  </si>
+  <si>
+    <t>بیزینس‌هایی که پرداخت می‌کنند</t>
+  </si>
+  <si>
+    <t>میانگین درآمد از هر مشتری در ماه</t>
+  </si>
+  <si>
+    <t>میانگین درآمد از هر مشتری در سه‌ماهه</t>
+  </si>
+  <si>
+    <t>درآمد سه‌ماهه</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1403</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>رشد سالیانه فروش CAGR</t>
+  </si>
+  <si>
+    <t>رشد سالیانه هزینه‌ها</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA Margin</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>1405</t>
   </si>
 </sst>
 </file>
@@ -382,8 +454,8 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    <numFmt numFmtId="168" formatCode="[$-3000401]0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="[$-3000401]0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -554,7 +626,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,11 +670,11 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,11 +683,11 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,8 +695,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -632,7 +706,97 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="152">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -650,7 +814,374 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -689,6 +1220,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -727,6 +1259,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -765,6 +1298,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -802,6 +1336,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -820,7 +1356,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -839,7 +1375,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -858,7 +1395,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -877,7 +1414,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -896,6 +1434,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -914,7 +1453,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -933,202 +1473,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1157,6 +1501,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1172,7 +1535,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.0%"/>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1211,6 +1574,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1229,7 +1593,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1248,7 +1612,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1286,6 +1649,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1322,6 +1686,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1353,12 +1718,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1377,7 +1743,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1396,7 +1761,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1415,7 +1779,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1488,7 +1851,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1507,7 +1869,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1530,6 +1891,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1545,6 +1921,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1563,34 +1955,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
@@ -1601,6 +1965,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -1624,7 +1989,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1643,7 +2021,48 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1662,6 +2081,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1680,6 +2115,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1702,6 +2153,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1717,7 +2183,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1736,7 +2215,169 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1755,6 +2396,21 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1773,48 +2429,21 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1833,635 +2462,19 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2480,79 +2493,174 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2571,7 +2679,64 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2639,20 +2804,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -2688,27 +2855,259 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -6755,20 +7154,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="63" dataDxfId="61" totalsRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150" totalsRowDxfId="149">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="51" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="50" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="49" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="146" totalsRowDxfId="145"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="144" totalsRowDxfId="143"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="142" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="141" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="140" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6777,51 +7176,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:R12" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="34" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="33" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="32" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="30" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="27" totalsRowDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="26" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="25" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="24" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="23" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="22" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="21" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="20" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="33" totalsRowDxfId="32">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="19" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="18" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6830,17 +7229,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="37" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A22:D31" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="40" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="24">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="23">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="22">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6848,28 +7247,88 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="19">
+      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="16">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="15">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="14">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="13">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="12">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="11">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="10">
+      <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H9" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="ردیف" dataDxfId="7">
+      <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="5">
+      <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="4">
+      <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="1">
+      <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B18" totalsRowShown="0" headerRowDxfId="129" dataDxfId="128">
-  <autoFilter ref="A1:B18" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B20" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+  <autoFilter ref="A1:B20" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="134"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="115">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="123">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6878,31 +7337,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="112">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="120">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="110"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="109"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="119"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="118"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="106">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="114">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="102">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="113"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="112"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="111"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="110">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6911,34 +7370,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="101" dataDxfId="100" totalsRowDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="98" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="97" totalsRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="96" totalsRowDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="92"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="90" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="89">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="94" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="93">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="88">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="92">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="87">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="91">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6947,16 +7406,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="86" dataDxfId="85" totalsRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="90" dataDxfId="89" totalsRowDxfId="88">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="60">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="86">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="82" totalsRowDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="58" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="57" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="56" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6965,16 +7424,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="76" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="75" totalsRowDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="44">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7282,10 +7741,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7623,19 +8082,615 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
+    <col min="3" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="4">
+        <v>500</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1700</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>8000</v>
+      </c>
+      <c r="H2" s="4">
+        <v>15000</v>
+      </c>
+      <c r="I2" s="4">
+        <v>30000</v>
+      </c>
+      <c r="J2" s="4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A8" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="D3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="E3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="F3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="G3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="H3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="I3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="J3" s="38">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="4">
+        <f>ROUND(C2*d_customerConvertRate, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="G4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+      <c r="J4" s="4">
+        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>2.0227272727272726E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="D5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="E5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="F5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="G5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="H5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="I5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+      <c r="J5" s="22">
+        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
+        <v>32360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="22">
+        <f>C5*3</f>
+        <v>97080</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" ref="D6:J6" si="1">D5*3</f>
+        <v>97080</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>97080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" ref="C7:J7" si="2">C2*d_customerAvgRevenue</f>
+        <v>16180000</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="2"/>
+        <v>32360000</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="2"/>
+        <v>55012000</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="2"/>
+        <v>129440000</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="2"/>
+        <v>258880000</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="2"/>
+        <v>485400000</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="2"/>
+        <v>970800000</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="2"/>
+        <v>1618000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="16">
+        <f>C7*3</f>
+        <v>48540000</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" ref="D8:J8" si="3">D7*3</f>
+        <v>97080000</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="3"/>
+        <v>165036000</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="3"/>
+        <v>388320000</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="3"/>
+        <v>776640000</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="3"/>
+        <v>1456200000</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="3"/>
+        <v>2912400000</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="3"/>
+        <v>4854000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDCC2BB-F168-40EC-967E-5425F5C717CD}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
+        <v>698976000</v>
+      </c>
+      <c r="D2" s="12">
+        <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
+        <v>9999240000</v>
+      </c>
+      <c r="E2" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
+        <v>19998480000</v>
+      </c>
+      <c r="F2" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
+        <v>39996960000</v>
+      </c>
+      <c r="G2" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
+        <v>79993920000</v>
+      </c>
+      <c r="H2" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
+        <v>159987840000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A9" si="0">ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="12">
+        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>2112000000</v>
+      </c>
+      <c r="D3" s="12">
+        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>3570000000</v>
+      </c>
+      <c r="E3" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
+        <v>4998000000</v>
+      </c>
+      <c r="F3" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
+        <v>6997200000</v>
+      </c>
+      <c r="G3" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
+        <v>9796080000</v>
+      </c>
+      <c r="H3" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
+        <v>13714512000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="12">
+        <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>3053380000</v>
+      </c>
+      <c r="D4" s="12">
+        <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
+        <v>14790738000</v>
+      </c>
+      <c r="E4" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
+        <v>20707033200</v>
+      </c>
+      <c r="F4" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
+        <v>28989846480</v>
+      </c>
+      <c r="G4" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
+        <v>40585785072</v>
+      </c>
+      <c r="H4" s="12">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
+        <v>56820099100.799995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="12">
+        <f>C2-C4</f>
+        <v>-2354404000</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:H5" si="1">D2-D4</f>
+        <v>-4791498000</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="1"/>
+        <v>-708553200</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>11007113520</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>39408134928</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="1"/>
+        <v>103167740899.20001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="38">
+        <f>C5/C2</f>
+        <v>-3.3683617177127685</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6:H6" si="2">D5/D2</f>
+        <v>-0.47918621815257961</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" si="2"/>
+        <v>-3.5430352706805716E-2</v>
+      </c>
+      <c r="F6" s="38">
+        <f t="shared" si="2"/>
+        <v>0.275198753105236</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="2"/>
+        <v>0.4926391271736652</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" si="2"/>
+        <v>0.64484738902156569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="12">
+        <f>C3-C5</f>
+        <v>4466404000</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" ref="D7:G7" si="3">D3-D5</f>
+        <v>8361498000</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="3"/>
+        <v>5706553200</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>-4009913520</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="3"/>
+        <v>-29612054928</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" ref="H7" si="4">H3-H5</f>
+        <v>-89453228899.200012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3603962-EF5C-474D-9511-4229C995700E}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="N26" sqref="N26"/>
@@ -7762,7 +8817,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7919,10 +8974,20 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="21"/>
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="21"/>
+      <c r="A20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B21" s="21"/>
@@ -8388,7 +9453,7 @@
         <v>756000000</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ref="C14:D14" si="1">D13*12</f>
+        <f t="shared" ref="D14" si="1">D13*12</f>
         <v>5533200000</v>
       </c>
       <c r="E14" s="12">
@@ -9026,16 +10091,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114F6E58-11BF-4A5C-A2ED-6325C015977B}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.7109375" style="1" customWidth="1"/>
     <col min="5" max="7" width="22" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -9887,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="52">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
@@ -9899,19 +10964,23 @@
         <v>2</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="53">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
         <v>32360</v>
       </c>
     </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C19" s="53"/>
+      <c r="E19" s="54"/>
+    </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>86</v>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC364C0-4277-41B0-AEDF-C8CF95B901C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371333D-5A4A-4D56-9FDD-6BF1C02E9D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <sheet name="سرور" sheetId="6" r:id="rId4"/>
     <sheet name="تجهیزات اداری" sheetId="8" r:id="rId5"/>
     <sheet name="حقوق و دستمزد" sheetId="2" r:id="rId6"/>
-    <sheet name="بازاریابی" sheetId="4" r:id="rId7"/>
-    <sheet name="هزینه‌های مصرفی" sheetId="5" r:id="rId8"/>
+    <sheet name="بازاریابی و فروش" sheetId="4" r:id="rId7"/>
+    <sheet name="هزینه‌های عمومی و اداری" sheetId="5" r:id="rId8"/>
     <sheet name="جزئیات منابع درآمد" sheetId="12" r:id="rId9"/>
     <sheet name="پیش‌بینی درآمد" sheetId="13" r:id="rId10"/>
-    <sheet name="خلاصه درآمد" sheetId="14" r:id="rId11"/>
+    <sheet name="خلاصه و ارزیابی" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -46,7 +46,10 @@
     <definedName name="d_year1400Remain">فرضیات!$B$10</definedName>
     <definedName name="s_activeUser">فرضیات!$B$18</definedName>
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
+    <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$12</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>#</t>
   </si>
@@ -156,9 +159,6 @@
     <t>تبلیغات در موتورهای جستجو</t>
   </si>
   <si>
-    <t>بازاریابی</t>
-  </si>
-  <si>
     <t>سرور</t>
   </si>
   <si>
@@ -198,9 +198,6 @@
     <t>حسابرسی</t>
   </si>
   <si>
-    <t>هزینه‌های مصرفی</t>
-  </si>
-  <si>
     <t>سرمایه در گردش</t>
   </si>
   <si>
@@ -442,13 +439,79 @@
   </si>
   <si>
     <t>1405</t>
+  </si>
+  <si>
+    <t>هزینه‌های عمومی و اداری</t>
+  </si>
+  <si>
+    <t>بازاریابی و فروش</t>
+  </si>
+  <si>
+    <t>تعداد بیزینس‌ها</t>
+  </si>
+  <si>
+    <t>Merchants</t>
+  </si>
+  <si>
+    <t>Revnue</t>
+  </si>
+  <si>
+    <t>Opex</t>
+  </si>
+  <si>
+    <t>Capex</t>
+  </si>
+  <si>
+    <t>درآمد قبل از بهره، مالیات و استهلاک</t>
+  </si>
+  <si>
+    <t>درصد EBITDA</t>
+  </si>
+  <si>
+    <t>جریان نقدی آزاد</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Exit Revenue Multiple</t>
+  </si>
+  <si>
+    <t>Present FCF</t>
+  </si>
+  <si>
+    <t>سال</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>PV of Terminal Value Exit</t>
+  </si>
+  <si>
+    <t>ExitV Value</t>
+  </si>
+  <si>
+    <t>رشد سالیانه هزینه سرمایه ثابت</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>IRR + CAPEX</t>
+  </si>
+  <si>
+    <t>NVP</t>
+  </si>
+  <si>
+    <t>نرخ تنزیل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -456,6 +519,7 @@
     <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     <numFmt numFmtId="167" formatCode="[$-3000401]0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -626,7 +690,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -699,6 +763,24 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -706,7 +788,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="152">
+  <dxfs count="153">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -721,6 +833,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -736,6 +849,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -751,6 +865,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -766,6 +881,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -781,6 +897,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -796,6 +913,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -814,38 +932,161 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2971,11 +3212,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3001,113 +3238,16 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="IRANSansX"/>
         <charset val="178"/>
         <scheme val="none"/>
@@ -3171,6 +3311,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC80A5A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3302,13 +3447,13 @@
                   <c:v>حقوق و دستمزد</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>بازاریابی</c:v>
+                  <c:v>بازاریابی و فروش</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>فضای کاری</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>هزینه‌های مصرفی</c:v>
+                  <c:v>هزینه‌های عمومی و اداری</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>پیش‌بینی نشده</c:v>
@@ -3391,13 +3536,13 @@
                   <c:v>حقوق و دستمزد</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>بازاریابی</c:v>
+                  <c:v>بازاریابی و فروش</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>فضای کاری</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>هزینه‌های مصرفی</c:v>
+                  <c:v>هزینه‌های عمومی و اداری</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>پیش‌بینی نشده</c:v>
@@ -3947,13 +4092,13 @@
                   <c:v>حقوق و دستمزد</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>بازاریابی</c:v>
+                  <c:v>بازاریابی و فروش</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>فضای کاری</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>هزینه‌های مصرفی</c:v>
+                  <c:v>هزینه‌های عمومی و اداری</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>پیش‌بینی نشده</c:v>
@@ -7154,20 +7299,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150" totalsRowDxfId="149">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="152" dataDxfId="151" totalsRowDxfId="150">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="149" totalsRowDxfId="17">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="146" totalsRowDxfId="145"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="144" totalsRowDxfId="143"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="142" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="141" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="140" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="148" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="147" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="138" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7176,51 +7321,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A1:R12" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="51" totalsRowDxfId="50">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7229,17 +7374,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A22:D31" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="25" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="33" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="32">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="23">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="31">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="30">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7248,33 +7393,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="27">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="16">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="24">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="23">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="22">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="13">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="21">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="12">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="20">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="19">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7283,52 +7428,53 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H9" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="ردیف" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:I9" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="10">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="7">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="6">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="5">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B20" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
-  <autoFilter ref="A1:B20" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+  <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="134"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="143"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="142"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="141" dataDxfId="140">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="131" totalsRowDxfId="130">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="138">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="124"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="123">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="132"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="131">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7337,31 +7483,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="128">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="118"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="126"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="114">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="122">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="113"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="112"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="111"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="110">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="121"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="120"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="119"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="118">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7370,34 +7516,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="109" dataDxfId="108" totalsRowDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="117" dataDxfId="116" totalsRowDxfId="115">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="96"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="94" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="93">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="102" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="101">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="92">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="100">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="91">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="99">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7406,16 +7552,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="90" dataDxfId="89" totalsRowDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7424,16 +7570,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7744,7 +7890,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -7763,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -7778,7 +7924,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -7787,10 +7933,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="19">
         <f>SUM(tbl_servers[1400])</f>
@@ -7815,10 +7961,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="19">
         <f>SUM(tbl_office12[1400])</f>
@@ -7843,10 +7989,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19">
         <f>'حقوق و دستمزد'!C15</f>
@@ -7871,10 +8017,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(tbl_marketing[1400])</f>
@@ -7899,10 +8045,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1400])*12</f>
@@ -7927,10 +8073,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
@@ -7955,10 +8101,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
@@ -8003,7 +8149,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="29" t="s">
@@ -8019,7 +8165,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="27"/>
       <c r="D13" s="31">
@@ -8038,7 +8184,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="33">
@@ -8072,11 +8218,98 @@
     <row r="28" x14ac:dyDescent="0.4"/>
     <row r="29" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{186E6B78-3059-4976-B40D-3F43B72838CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E8">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A41741EC-04FA-4302-9DC1-B05F42D966EB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F8">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{34EFEE2B-6C06-4952-9F5A-4A980C6CC3EB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{186E6B78-3059-4976-B40D-3F43B72838CA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A41741EC-04FA-4302-9DC1-B05F42D966EB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{34EFEE2B-6C06-4952-9F5A-4A980C6CC3EB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8084,8 +8317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C4C132-3265-4B20-AEC4-A2AE2B54AA52}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -8098,34 +8331,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -8134,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
@@ -8167,7 +8400,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
@@ -8208,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4">
         <f>ROUND(C2*d_customerConvertRate, 0)</f>
@@ -8249,7 +8482,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
@@ -8290,7 +8523,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="22">
         <f>C5*3</f>
@@ -8331,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" ref="C7:J7" si="2">C2*d_customerAvgRevenue</f>
@@ -8372,7 +8605,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="16">
         <f>C7*3</f>
@@ -8418,272 +8651,493 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDCC2BB-F168-40EC-967E-5425F5C717CD}">
-  <dimension ref="A1:H9"/>
+  <sheetPr>
+    <tabColor rgb="FFC80A5A"/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="25.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="56"/>
+    <col min="2" max="2" width="32.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="25.7109375" style="56" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="I1" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="B2" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58">
+        <v>1</v>
+      </c>
+      <c r="E2" s="58">
+        <v>2</v>
+      </c>
+      <c r="F2" s="58">
+        <v>3</v>
+      </c>
+      <c r="G2" s="58">
+        <v>4</v>
+      </c>
+      <c r="H2" s="58">
+        <v>5</v>
+      </c>
+      <c r="I2" s="58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="58">
+        <f>'پیش‌بینی درآمد'!F2</f>
+        <v>4000</v>
+      </c>
+      <c r="E3" s="58">
+        <f>'پیش‌بینی درآمد'!J2</f>
+        <v>50000</v>
+      </c>
+      <c r="F3" s="58">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
+        <v>100000</v>
+      </c>
+      <c r="G3" s="58">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
+        <v>200000</v>
+      </c>
+      <c r="H3" s="58">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
+        <v>400000</v>
+      </c>
+      <c r="I3" s="58">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="61">
         <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
         <v>698976000</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E4" s="61">
         <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
         <v>9999240000</v>
       </c>
-      <c r="E2" s="12">
+      <c r="F4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
         <v>19998480000</v>
       </c>
-      <c r="F2" s="12">
+      <c r="G4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
         <v>39996960000</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
         <v>79993920000</v>
       </c>
-      <c r="H2" s="12">
+      <c r="I4" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
         <v>159987840000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A9" si="0">ROW(A2)</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <f t="shared" ref="A5:A9" si="0">ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="61">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>2112000000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E5" s="61">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>3570000000</v>
       </c>
-      <c r="E3" s="12">
-        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
-        <v>4998000000</v>
-      </c>
-      <c r="F3" s="12">
-        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
-        <v>6997200000</v>
-      </c>
-      <c r="G3" s="12">
-        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
-        <v>9796080000</v>
-      </c>
-      <c r="H3" s="12">
-        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
-        <v>13714512000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="F5" s="61">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>4284000000</v>
+      </c>
+      <c r="G5" s="61">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>5140800000</v>
+      </c>
+      <c r="H5" s="61">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>6168960000</v>
+      </c>
+      <c r="I5" s="61">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
+        <v>7402752000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="61">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>3053380000</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E6" s="61">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>14790738000</v>
       </c>
-      <c r="E4" s="12">
+      <c r="F6" s="61">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
         <v>20707033200</v>
       </c>
-      <c r="F4" s="12">
+      <c r="G6" s="61">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
         <v>28989846480</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H6" s="61">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
         <v>40585785072</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I6" s="61">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
         <v>56820099100.799995</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="12">
-        <f>C2-C4</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="61">
+        <f>D4-D6</f>
         <v>-2354404000</v>
       </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:H5" si="1">D2-D4</f>
+      <c r="E7" s="61">
+        <f t="shared" ref="E7:I7" si="1">E4-E6</f>
         <v>-4791498000</v>
       </c>
-      <c r="E5" s="12">
+      <c r="F7" s="61">
         <f t="shared" si="1"/>
         <v>-708553200</v>
       </c>
-      <c r="F5" s="12">
+      <c r="G7" s="61">
         <f t="shared" si="1"/>
         <v>11007113520</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H7" s="61">
         <f t="shared" si="1"/>
         <v>39408134928</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I7" s="61">
         <f t="shared" si="1"/>
         <v>103167740899.20001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="38">
-        <f>C5/C2</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="59">
+        <f>D7/D4</f>
         <v>-3.3683617177127685</v>
       </c>
-      <c r="D6" s="38">
-        <f t="shared" ref="D6:H6" si="2">D5/D2</f>
+      <c r="E8" s="59">
+        <f t="shared" ref="E8:I8" si="2">E7/E4</f>
         <v>-0.47918621815257961</v>
       </c>
-      <c r="E6" s="38">
+      <c r="F8" s="59">
         <f t="shared" si="2"/>
         <v>-3.5430352706805716E-2</v>
       </c>
-      <c r="F6" s="38">
+      <c r="G8" s="59">
         <f t="shared" si="2"/>
         <v>0.275198753105236</v>
       </c>
-      <c r="G6" s="38">
+      <c r="H8" s="59">
         <f t="shared" si="2"/>
         <v>0.4926391271736652</v>
       </c>
-      <c r="H6" s="38">
+      <c r="I8" s="59">
         <f t="shared" si="2"/>
         <v>0.64484738902156569</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="12">
-        <f>C3-C5</f>
-        <v>4466404000</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" ref="D7:G7" si="3">D3-D5</f>
-        <v>8361498000</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="3"/>
-        <v>5706553200</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="3"/>
-        <v>-4009913520</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="3"/>
-        <v>-29612054928</v>
-      </c>
-      <c r="H7" s="12">
-        <f t="shared" ref="H7" si="4">H3-H5</f>
-        <v>-89453228899.200012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="61">
+        <f>D7-D5</f>
+        <v>-4466404000</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" ref="E9:I9" si="3">E7-E5</f>
+        <v>-8361498000</v>
+      </c>
+      <c r="F9" s="61">
+        <f t="shared" si="3"/>
+        <v>-4992553200</v>
+      </c>
+      <c r="G9" s="61">
+        <f t="shared" si="3"/>
+        <v>5866313520</v>
+      </c>
+      <c r="H9" s="61">
+        <f t="shared" si="3"/>
+        <v>33239174928</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="3"/>
+        <v>95764988899.200012</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="61">
+        <f>D9/(1+v_DiscountRate)^D2</f>
+        <v>-3435695384.6153846</v>
+      </c>
+      <c r="E14" s="61">
+        <f>E9/(1+v_DiscountRate)^E2</f>
+        <v>-4947631952.6627216</v>
+      </c>
+      <c r="F14" s="61">
+        <f>F9/(1+v_DiscountRate)^F2</f>
+        <v>-2272441147.0186615</v>
+      </c>
+      <c r="G14" s="61">
+        <f>G9/(1+v_DiscountRate)^G2</f>
+        <v>2053959427.1909244</v>
+      </c>
+      <c r="H14" s="61">
+        <f>H9/(1+v_DiscountRate)^H2</f>
+        <v>8952276215.2801132</v>
+      </c>
+      <c r="I14" s="61">
+        <f>I9/(1+v_DiscountRate)^I2</f>
+        <v>19840227549.75388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61">
+        <f>I4*v_ExitRevenueMultiple/(1+v_DiscountRate)^I2</f>
+        <v>82864186256.385925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61">
+        <f>SUM(D14:I14) + I15</f>
+        <v>103054880964.31407</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="59" t="str">
+        <f>IFERROR(IRR($D$7:E7), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="F18" s="59" t="str">
+        <f>IFERROR(IRR($D$7:F7), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G18" s="59">
+        <f>IFERROR(IRR($D$7:G7), "-")</f>
+        <v>0.16293778108476609</v>
+      </c>
+      <c r="H18" s="59">
+        <f>IFERROR(IRR($D$7:H7), "-")</f>
+        <v>0.84430031823165308</v>
+      </c>
+      <c r="I18" s="59">
+        <f>IFERROR(IRR($D$7:I7), "-")</f>
+        <v>1.2049834474701493</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="59" t="str">
+        <f>IFERROR(IRR($D$9:E9), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="F19" s="59" t="str">
+        <f>IFERROR(IRR($D$9:F9), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="G19" s="59">
+        <f>IFERROR(IRR($D$9:G9), "-")</f>
+        <v>-0.45839466641757631</v>
+      </c>
+      <c r="H19" s="59">
+        <f>IFERROR(IRR($D$9:H9), "-")</f>
+        <v>0.31446431528808261</v>
+      </c>
+      <c r="I19" s="59">
+        <f>IFERROR(IRR($D$9:I9), "-")</f>
+        <v>0.73236742988304848</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="61">
+        <f>NPV(v_DiscountRate,D9)</f>
+        <v>-3435695384.6153846</v>
+      </c>
+      <c r="E20" s="61">
+        <f>NPV(v_DiscountRate,D9,E9)</f>
+        <v>-8383327337.2781057</v>
+      </c>
+      <c r="F20" s="61">
+        <f>NPV(v_DiscountRate,D9,E9,F9)</f>
+        <v>-10655768484.296768</v>
+      </c>
+      <c r="G20" s="61">
+        <f>NPV(v_DiscountRate,D9,E9,F9,G9)</f>
+        <v>-8601809057.1058426</v>
+      </c>
+      <c r="H20" s="61">
+        <f>NPV(v_DiscountRate,D9,E9,F9,G9,H9)</f>
+        <v>350467158.17426974</v>
+      </c>
+      <c r="I20" s="61">
+        <f>NPV(v_DiscountRate,D9,E9,F9,G9,H9,I9)</f>
+        <v>20190694707.92815</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -8870,7 +9324,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="12">
         <f>B5*B4</f>
@@ -8887,7 +9341,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="12">
         <v>30000000</v>
@@ -8895,7 +9349,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="12">
         <v>1000000</v>
@@ -8903,7 +9357,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
@@ -8911,7 +9365,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="20">
         <v>12000</v>
@@ -8919,7 +9373,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="20">
         <v>500</v>
@@ -8927,7 +9381,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" s="12">
         <f>d_serverDollarCost*d_toman2dollar</f>
@@ -8936,7 +9390,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="12">
         <f>d_ssdDollarCost*d_toman2dollar * 12</f>
@@ -8945,7 +9399,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12">
         <v>3000000</v>
@@ -8953,7 +9407,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="21">
         <v>0.1</v>
@@ -8961,13 +9415,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="21">
         <v>0.4</v>
@@ -8975,7 +9429,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="21">
         <v>1</v>
@@ -8983,14 +9437,19 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="21">
         <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="21"/>
+      <c r="A21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B22" s="21"/>
@@ -9028,7 +9487,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92D8994-2F22-4065-A86F-17DCD909CF75}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -9048,7 +9507,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -9069,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_serverCost</f>
@@ -9090,7 +9549,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="12">
         <f>tbl_serverCount[1400]*d_ssdCost</f>
@@ -9111,7 +9570,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
@@ -9148,7 +9607,7 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -9166,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -9197,7 +9656,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55B3C6-E5B9-4E14-BB33-008413A11776}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -9216,7 +9675,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -9237,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="12">
         <f>d_staff1400*d_systemPerPerson</f>
@@ -9410,7 +9869,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="24">
         <f>SUM(tbl_salaryData[1400])</f>
@@ -9716,7 +10175,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="19">
         <v>80000000</v>
@@ -9879,7 +10338,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -9900,7 +10359,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
@@ -9921,7 +10380,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12">
         <v>200000000</v>
@@ -9940,7 +10399,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12">
         <v>10000000</v>
@@ -9959,7 +10418,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12">
         <v>10000000</v>
@@ -9978,7 +10437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12">
         <f>d_staff1400*d_usagePerPersonPerMonth * d_year1400Remain</f>
@@ -9999,7 +10458,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="12">
         <v>2000000</v>
@@ -10018,7 +10477,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12">
         <v>10000000</v>
@@ -10037,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8) * 20%</f>
@@ -10091,10 +10550,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114F6E58-11BF-4A5C-A2ED-6325C015977B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -10118,58 +10580,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="P1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="Q1" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -10178,10 +10640,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="12">
         <v>50000</v>
@@ -10247,10 +10709,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" s="12">
         <v>100000</v>
@@ -10314,10 +10776,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="12">
         <v>50000</v>
@@ -10381,10 +10843,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="12">
         <v>5000000</v>
@@ -10448,10 +10910,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12">
         <v>5000000</v>
@@ -10515,10 +10977,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="12">
         <v>100000</v>
@@ -10582,10 +11044,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="12">
         <v>50000</v>
@@ -10649,10 +11111,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12">
         <v>200000</v>
@@ -10716,10 +11178,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="12">
         <v>400000</v>
@@ -10783,10 +11245,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12">
         <v>100000</v>
@@ -10850,10 +11312,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="12">
         <v>3000000</v>
@@ -10938,7 +11400,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2</v>
@@ -10952,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="52">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
@@ -10964,7 +11426,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" s="53">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
@@ -10977,16 +11439,16 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>103</v>
-      </c>
       <c r="C22" s="47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P22" s="40"/>
       <c r="Q22" s="40"/>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371333D-5A4A-4D56-9FDD-6BF1C02E9D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAED49D-CA53-43DB-A36C-D65B8BA28B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="جزئیات منابع درآمد" sheetId="12" r:id="rId9"/>
     <sheet name="پیش‌بینی درآمد" sheetId="13" r:id="rId10"/>
     <sheet name="خلاصه و ارزیابی" sheetId="14" r:id="rId11"/>
+    <sheet name="مراحل سرمایه‌گذاری" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
@@ -50,6 +51,12 @@
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
     <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$12</definedName>
     <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$13</definedName>
+    <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
+    <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
+    <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
+    <definedName name="v_seriD">'مراحل سرمایه‌گذاری'!$K$6</definedName>
+    <definedName name="v_seriE">'مراحل سرمایه‌گذاری'!$L$7</definedName>
+    <definedName name="v_seriF">'مراحل سرمایه‌گذاری'!$M$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="180">
   <si>
     <t>#</t>
   </si>
@@ -505,13 +512,109 @@
   </si>
   <si>
     <t>نرخ تنزیل</t>
+  </si>
+  <si>
+    <t>خالص ارزش فعلی کل سرمایه‌گذاری</t>
+  </si>
+  <si>
+    <t>Series A</t>
+  </si>
+  <si>
+    <t>Series B</t>
+  </si>
+  <si>
+    <t>Series C</t>
+  </si>
+  <si>
+    <t>Series E</t>
+  </si>
+  <si>
+    <t>Series F</t>
+  </si>
+  <si>
+    <t>موسسان</t>
+  </si>
+  <si>
+    <t>سهام کارکنان</t>
+  </si>
+  <si>
+    <t>نوع سهام‌دار</t>
+  </si>
+  <si>
+    <t>جواد ادیب</t>
+  </si>
+  <si>
+    <t>رضا محیطی</t>
+  </si>
+  <si>
+    <t>سارا ترکمنی</t>
+  </si>
+  <si>
+    <t>حسن صالحی</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>سرمایه‌گذاران</t>
+  </si>
+  <si>
+    <t>دوم</t>
+  </si>
+  <si>
+    <t>سوم</t>
+  </si>
+  <si>
+    <t>چهارم</t>
+  </si>
+  <si>
+    <t>پنجم</t>
+  </si>
+  <si>
+    <t>اشتراک بین کارکنان</t>
+  </si>
+  <si>
+    <t>نام به تفکیک</t>
+  </si>
+  <si>
+    <t>اول (حسینی)</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Start 1394</t>
+  </si>
+  <si>
+    <t>سرمایه ثبتی شرکت</t>
+  </si>
+  <si>
+    <t>Angel Out 1397/2/22</t>
+  </si>
+  <si>
+    <t>Seed Angel 1395</t>
+  </si>
+  <si>
+    <t>1397/5/1</t>
+  </si>
+  <si>
+    <t>ششم</t>
+  </si>
+  <si>
+    <t>جمع سهام</t>
+  </si>
+  <si>
+    <t>Series D</t>
+  </si>
+  <si>
+    <t>هفتم</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -520,6 +623,7 @@
     <numFmt numFmtId="167" formatCode="[$-3000401]0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="174" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -575,7 +679,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +710,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -679,6 +795,15 @@
       </right>
       <top style="thin">
         <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="slantDashDot">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -690,7 +815,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -781,6 +906,42 @@
     <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -788,7 +949,1114 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="153">
+  <dxfs count="210">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -7299,20 +8567,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="152" dataDxfId="151" totalsRowDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208" totalsRowDxfId="207">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="149" totalsRowDxfId="17">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="74">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="148" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="147" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="13" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="12" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="204" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="69" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="203" totalsRowDxfId="68" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7321,51 +8589,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A1:R12" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="127">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="110" totalsRowDxfId="109">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="108" totalsRowDxfId="107">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="106" totalsRowDxfId="105">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="104" totalsRowDxfId="103">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="102" totalsRowDxfId="101">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="100" totalsRowDxfId="99">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="96" totalsRowDxfId="95">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="94" totalsRowDxfId="93">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7374,17 +8642,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A22:D31" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="33" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="90" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="89">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="88">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="87">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7393,33 +8661,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="84">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="81">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="80">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="79">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="78">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="77">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="76">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="75">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7428,53 +8696,121 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:I9" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="67">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="64">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="63">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="62">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="54" dataDxfId="55" totalsRowDxfId="56">
+  <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="24" totalsRowDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="10" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="9" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="8" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="6" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="5" dataCellStyle="Percent">
+      <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="51" dataDxfId="52">
+  <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="50" totalsRowDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="36" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="35" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="34" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="33" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="32" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="31" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="30" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="29" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="28" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="27" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="26" dataCellStyle="Percent">
+      <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
   <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="143"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="142"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="200"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="199"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="141" dataDxfId="140">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="198" dataDxfId="197">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="139" totalsRowDxfId="138">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="196" totalsRowDxfId="195">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="137" totalsRowDxfId="136"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="135" totalsRowDxfId="134"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="133" totalsRowDxfId="132"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="131">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="188">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7483,31 +8819,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="128">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="185">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="127"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="126"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="125"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="183"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="122">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="179">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="121"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="118">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="176"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="175">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7516,34 +8852,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="117" dataDxfId="116" totalsRowDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="174" dataDxfId="173" totalsRowDxfId="172">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="171" totalsRowDxfId="170">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="104"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="102" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="101">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="161"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="160"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="159" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="158">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="100">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="157">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="99">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="156">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7552,16 +8888,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" totalsRowDxfId="96">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="152" totalsRowDxfId="151">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="150" totalsRowDxfId="149"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7570,16 +8906,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="140" totalsRowDxfId="139">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8318,7 +9654,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -8656,8 +9992,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -9030,11 +10366,26 @@
       <c r="C15" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="61">
+        <f>D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <v>1344184615.3846154</v>
+      </c>
+      <c r="E15" s="61">
+        <f>E4*v_ExitRevenueMultiple/(1+v_DiscountRate)^E2</f>
+        <v>14791775147.928993</v>
+      </c>
+      <c r="F15" s="61">
+        <f>F4*v_ExitRevenueMultiple/(1+v_DiscountRate)^F2</f>
+        <v>22756577150.659985</v>
+      </c>
+      <c r="G15" s="61">
+        <f>G4*v_ExitRevenueMultiple/(1+v_DiscountRate)^G2</f>
+        <v>35010118693.323059</v>
+      </c>
+      <c r="H15" s="61">
+        <f>H4*v_ExitRevenueMultiple/(1+v_DiscountRate)^H2</f>
+        <v>53861721066.650856</v>
+      </c>
       <c r="I15" s="61">
         <f>I4*v_ExitRevenueMultiple/(1+v_DiscountRate)^I2</f>
         <v>82864186256.385925</v>
@@ -9044,17 +10395,32 @@
       <c r="C16" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="D16" s="61">
+        <f>SUM($D$14:D14) + D15</f>
+        <v>-2091510769.2307692</v>
+      </c>
+      <c r="E16" s="61">
+        <f>SUM($D$14:E14) + E15</f>
+        <v>6408447810.6508865</v>
+      </c>
+      <c r="F16" s="61">
+        <f>SUM($D$14:F14) + F15</f>
+        <v>12100808666.363216</v>
+      </c>
+      <c r="G16" s="61">
+        <f>SUM($D$14:G14) + G15</f>
+        <v>26408309636.217216</v>
+      </c>
+      <c r="H16" s="61">
+        <f>SUM($D$14:H14) + H15</f>
+        <v>54212188224.825127</v>
+      </c>
       <c r="I16" s="61">
-        <f>SUM(D14:I14) + I15</f>
+        <f>SUM($D$14:I14) + I15</f>
         <v>103054880964.31407</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="56" t="s">
         <v>144</v>
       </c>
@@ -9079,7 +10445,7 @@
         <v>1.2049834474701493</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
         <v>145</v>
       </c>
@@ -9104,7 +10470,10 @@
         <v>0.73236742988304848</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>148</v>
+      </c>
       <c r="C20" s="56" t="s">
         <v>146</v>
       </c>
@@ -9137,6 +10506,1015 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C17DC-A059-427A-B1E3-F4E95301E578}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="57" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="57" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="25.7109375" style="57" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="57" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="57" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="63">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F2" s="63">
+        <v>8.6E-3</v>
+      </c>
+      <c r="G2" s="63">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="I2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>1.12E-4</v>
+      </c>
+      <c r="J2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>9.5199999999999997E-5</v>
+      </c>
+      <c r="K2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>8.0919999999999991E-5</v>
+      </c>
+      <c r="L2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>7.2827999999999988E-5</v>
+      </c>
+      <c r="M2" s="67">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>6.5545199999999997E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="J3" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K3" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>0.11560000000000001</v>
+      </c>
+      <c r="L3" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.10404000000000001</v>
+      </c>
+      <c r="M3" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>9.3636000000000011E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="I4" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>0.17</v>
+      </c>
+      <c r="K4" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>0.14450000000000002</v>
+      </c>
+      <c r="L4" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.13005000000000003</v>
+      </c>
+      <c r="M4" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>0.11704500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="I5" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="J5" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="K5" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>0.1275</v>
+      </c>
+      <c r="L5" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.11475</v>
+      </c>
+      <c r="M5" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>0.10327500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="I6" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="J6" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="K6" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M6" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>0.12150000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="I7" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="J7" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="K7" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="L7" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H8" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="K8" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="L8" s="63" t="str">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="M8" s="68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="72">
+        <v>0.9</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="73">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="73">
+        <v>0.75139999999999996</v>
+      </c>
+      <c r="G9" s="73">
+        <v>0.6593</v>
+      </c>
+      <c r="H9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>0.46150999999999998</v>
+      </c>
+      <c r="I9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>0.36920799999999998</v>
+      </c>
+      <c r="J9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>0.31382679999999996</v>
+      </c>
+      <c r="K9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>0.26675277999999997</v>
+      </c>
+      <c r="L9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.24007750199999997</v>
+      </c>
+      <c r="M9" s="73">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>0.21606975179999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="62">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>0.21</v>
+      </c>
+      <c r="I10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="K10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>0.12138</v>
+      </c>
+      <c r="L10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>0.10924200000000001</v>
+      </c>
+      <c r="M10" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>9.8317800000000011E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="63">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0.04</v>
+      </c>
+      <c r="H11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="I11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>2.24E-2</v>
+      </c>
+      <c r="J11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>1.9039999999999998E-2</v>
+      </c>
+      <c r="K11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>1.6183999999999997E-2</v>
+      </c>
+      <c r="L11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>1.4565599999999998E-2</v>
+      </c>
+      <c r="M11" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>1.3109039999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="62">
+        <v>0.15</v>
+      </c>
+      <c r="E12" s="63">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="F12" s="63">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="G12" s="63">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="I12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>2.8000000000000003E-4</v>
+      </c>
+      <c r="J12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="K12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>2.0230000000000001E-4</v>
+      </c>
+      <c r="L12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>1.8207000000000002E-4</v>
+      </c>
+      <c r="M12" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>1.6386300000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="69">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="J13" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K13" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
+        <v>5.7800000000000004E-2</v>
+      </c>
+      <c r="L13" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
+        <v>5.2020000000000004E-2</v>
+      </c>
+      <c r="M13" s="63">
+        <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
+        <v>4.6818000000000005E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Start 1394])</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Seed Angel 1395])</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Angel Out 1397/2/22])</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[1397/5/1])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[1399])</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series A])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series B])</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series C])</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series D])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L14" s="64">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series E])</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="70">
+        <f>SUBTOTAL(109,tbl_fundraisingSteps[Series F])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="66">
+        <v>10000000</v>
+      </c>
+      <c r="D16" s="66">
+        <v>10000000</v>
+      </c>
+      <c r="E16" s="66">
+        <v>1000000</v>
+      </c>
+      <c r="F16" s="66">
+        <v>7000000</v>
+      </c>
+      <c r="G16" s="66">
+        <v>300000000</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>8.6E-3</v>
+      </c>
+      <c r="G24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.20014000000000001</v>
+      </c>
+      <c r="I24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.36011200000000004</v>
+      </c>
+      <c r="J24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.45609520000000003</v>
+      </c>
+      <c r="K24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.53768092000000001</v>
+      </c>
+      <c r="L24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.58391282800000011</v>
+      </c>
+      <c r="M24" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.62552154520000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="F25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="G25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="H25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.69985999999999993</v>
+      </c>
+      <c r="I25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.55988799999999994</v>
+      </c>
+      <c r="J25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.47590480000000002</v>
+      </c>
+      <c r="K25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.40451907999999992</v>
+      </c>
+      <c r="L25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.36406717199999994</v>
+      </c>
+      <c r="M25" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.3276604548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="J26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>5.7800000000000004E-2</v>
+      </c>
+      <c r="L26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>5.2020000000000004E-2</v>
+      </c>
+      <c r="M26" s="63">
+        <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
+        <v>4.6818000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="70">
+        <f>SUBTOTAL(109,Table13[Start 1394])</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="70">
+        <f>SUBTOTAL(109,Table13[Seed Angel 1395])</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="70">
+        <f>SUBTOTAL(109,Table13[Angel Out 1397/2/22])</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="70">
+        <f>SUBTOTAL(109,Table13[1397/5/1])</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="70">
+        <f>SUBTOTAL(109,Table13[1399])</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="70">
+        <f>SUBTOTAL(109,Table13[Series A])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I27" s="70">
+        <f>SUBTOTAL(109,Table13[Series B])</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="70">
+        <f>SUBTOTAL(109,Table13[Series C])</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="70">
+        <f>SUBTOTAL(109,Table13[Series D])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L27" s="70">
+        <f>SUBTOTAL(109,Table13[Series E])</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="70">
+        <f>SUBTOTAL(109,Table13[Series F])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAED49D-CA53-43DB-A36C-D65B8BA28B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D423E40-BD33-4BB2-8ED4-90C59E608637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="11" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="خلاصه هزینه‌ها" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,8 @@
   <definedNames>
     <definedName name="d_AnnualSalary">فرضیات!$B$3</definedName>
     <definedName name="d_coloCost">فرضیات!$B$15</definedName>
-    <definedName name="d_customerAvgRevenue">'جزئیات منابع درآمد'!$C$18</definedName>
-    <definedName name="d_customerConvertRate">'جزئیات منابع درآمد'!$C$17</definedName>
+    <definedName name="d_customerAvgRevenue">'جزئیات منابع درآمد'!$C$19</definedName>
+    <definedName name="d_customerConvertRate">'جزئیات منابع درآمد'!$C$18</definedName>
     <definedName name="d_salaryYOY">فرضیات!$B$2</definedName>
     <definedName name="d_serverCost">فرضیات!$B$13</definedName>
     <definedName name="d_serverDollarCost">فرضیات!$B$11</definedName>
@@ -49,8 +49,8 @@
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
     <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
-    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$12</definedName>
-    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$13</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$13</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$14</definedName>
     <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
     <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
     <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
   <si>
     <t>#</t>
   </si>
@@ -608,13 +608,37 @@
   </si>
   <si>
     <t>هفتم</t>
+  </si>
+  <si>
+    <t>مرکز فروش دامنه</t>
+  </si>
+  <si>
+    <t>g/sec</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>200g sound</t>
+  </si>
+  <si>
+    <t>4t video</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>30day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -622,6 +646,7 @@
     <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     <numFmt numFmtId="167" formatCode="[$-3000401]0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
@@ -815,7 +840,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,6 +922,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +970,18 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -967,6 +1007,343 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -987,6 +1364,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1007,6 +1404,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1027,6 +1444,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1047,6 +1484,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1067,6 +1524,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1087,6 +1564,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1107,6 +1604,25 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1127,6 +1643,25 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1147,6 +1682,26 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1167,6 +1722,25 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1225,6 +1799,63 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1245,6 +1876,244 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1345,6 +2214,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1364,6 +2234,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1403,6 +2274,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1422,6 +2294,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1441,6 +2314,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1479,7 +2353,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1499,7 +2372,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1519,7 +2391,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1539,8 +2410,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1559,8 +2429,136 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1579,8 +2577,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1599,8 +2596,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1619,8 +2630,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1639,8 +2649,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1659,8 +2668,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1679,8 +2687,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1699,7 +2706,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1718,7 +2724,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1737,8 +2742,181 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1757,8 +2935,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1777,8 +2954,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1797,8 +2973,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1817,8 +2992,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1837,8 +3011,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1851,14 +3023,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1877,8 +3047,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1897,8 +3067,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1917,8 +3087,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1937,8 +3107,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1957,7 +3127,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1976,7 +3147,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1995,7 +3167,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2014,974 +3187,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3010,6 +3217,26 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="0.0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3025,11 +3252,11 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3044,8 +3271,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3102,192 +3327,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -8570,17 +8610,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208" totalsRowDxfId="207">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="74">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="92">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="204" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="71" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="70" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="69" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="204" totalsRowDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="89" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="88" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="87" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="203" totalsRowDxfId="68" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="203" totalsRowDxfId="86" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8589,51 +8629,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R13" totalsRowCount="1" headerRowDxfId="130" dataDxfId="129">
-  <autoFilter ref="A1:R12" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="130" dataDxfId="129">
+  <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="127">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="17">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="127" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="126" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="125" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="124" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="123" totalsRowDxfId="12">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="122" totalsRowDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="120" totalsRowDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="110" totalsRowDxfId="109">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="119" totalsRowDxfId="8">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="118" totalsRowDxfId="7">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="117" totalsRowDxfId="6">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="116" totalsRowDxfId="5">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="115" totalsRowDxfId="4">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="114" totalsRowDxfId="3">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="113" totalsRowDxfId="2">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="112" totalsRowDxfId="1">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="111" totalsRowDxfId="0">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8642,17 +8682,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A22:D31" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
-  <autoFilter ref="A22:D31" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D32" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
+  <autoFilter ref="A23:D32" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="90" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="89">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="108" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="107">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="88">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="106">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="87">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="105">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8661,33 +8701,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="84">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="102">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="81">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="101"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="100"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="99">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="80">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="98">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="79">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="78">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="96">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="95">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="76">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="94">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="75">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="93">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8696,92 +8736,92 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A1:I9" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I10" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:I10" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="67">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="85">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="64">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="82">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="81">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="80">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="79"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="54" dataDxfId="55" totalsRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="72" dataDxfId="73" totalsRowDxfId="74">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="10" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="9" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="7" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="3" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="2" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="51" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="69" dataDxfId="70">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="53" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="50" totalsRowDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="36" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="68" totalsRowDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="54" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="35" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="53" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="34" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="52" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="33" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="51" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="32" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="50" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="31" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="49" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="30" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="48" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="29" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="47" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="46" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="27" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="45" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="44" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9654,7 +9694,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -9740,35 +9780,35 @@
       </c>
       <c r="C3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="D3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="E3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="F3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="G3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="H3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="I3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="J3" s="38">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9781,35 +9821,35 @@
       </c>
       <c r="C4" s="4">
         <f>ROUND(C2*d_customerConvertRate, 0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="E4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="F4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="G4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="H4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="I4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="J4" s="4">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -9822,35 +9862,35 @@
       </c>
       <c r="C5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="D5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="E5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="F5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="G5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="H5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="I5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
       <c r="J5" s="22">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
+        <v>32860</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -9863,35 +9903,35 @@
       </c>
       <c r="C6" s="22">
         <f>C5*3</f>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:J6" si="1">D5*3</f>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>97080</v>
+        <v>98580</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -9904,35 +9944,35 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" ref="C7:J7" si="2">C2*d_customerAvgRevenue</f>
-        <v>16180000</v>
+        <v>16430000</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="2"/>
-        <v>32360000</v>
+        <v>32860000</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="2"/>
-        <v>55012000</v>
+        <v>55862000</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>129440000</v>
+        <v>131440000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="2"/>
-        <v>258880000</v>
+        <v>262880000</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="2"/>
-        <v>485400000</v>
+        <v>492900000</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="2"/>
-        <v>970800000</v>
+        <v>985800000</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
-        <v>1618000000</v>
+        <v>1643000000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -9945,35 +9985,35 @@
       </c>
       <c r="C8" s="16">
         <f>C7*3</f>
-        <v>48540000</v>
+        <v>49290000</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" ref="D8:J8" si="3">D7*3</f>
-        <v>97080000</v>
+        <v>98580000</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="3"/>
-        <v>165036000</v>
+        <v>167586000</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="3"/>
-        <v>388320000</v>
+        <v>394320000</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="3"/>
-        <v>776640000</v>
+        <v>788640000</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="3"/>
-        <v>1456200000</v>
+        <v>1478700000</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="3"/>
-        <v>2912400000</v>
+        <v>2957400000</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="3"/>
-        <v>4854000000</v>
+        <v>4929000000</v>
       </c>
     </row>
   </sheetData>
@@ -9990,10 +10030,10 @@
   <sheetPr>
     <tabColor rgb="FFC80A5A"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -10109,137 +10149,113 @@
       <c r="C4" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="62">
         <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
-        <v>698976000</v>
-      </c>
-      <c r="E4" s="61">
+        <v>709776000</v>
+      </c>
+      <c r="E4" s="62">
         <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
-        <v>9999240000</v>
-      </c>
-      <c r="F4" s="61">
-        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
-        <v>19998480000</v>
-      </c>
-      <c r="G4" s="61">
-        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
-        <v>39996960000</v>
-      </c>
-      <c r="H4" s="61">
-        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
-        <v>79993920000</v>
-      </c>
-      <c r="I4" s="61">
-        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
-        <v>159987840000</v>
+        <v>10153740000</v>
+      </c>
+      <c r="F4" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr) *(1+s_costsGrowthYOY)</f>
+        <v>28430472000</v>
+      </c>
+      <c r="G4" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
+        <v>79605321600</v>
+      </c>
+      <c r="H4" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
+        <v>222894900480</v>
+      </c>
+      <c r="I4" s="62">
+        <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
+        <v>624105721344</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
-        <f t="shared" ref="A5:A9" si="0">ROW(A4)</f>
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <f>ROW(A4)</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C6" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D6" s="62">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>2112000000</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E6" s="62">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>3570000000</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
         <v>4284000000</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
         <v>5140800000</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
         <v>6168960000</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
         <v>7402752000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="56" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <f t="shared" ref="A7:A10" si="0">ROW(A6)</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C7" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D7" s="62">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>3053380000</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E7" s="62">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
         <v>14790738000</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
         <v>20707033200</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
         <v>28989846480</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
         <v>40585785072</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
         <v>56820099100.799995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="61">
-        <f>D4-D6</f>
-        <v>-2354404000</v>
-      </c>
-      <c r="E7" s="61">
-        <f t="shared" ref="E7:I7" si="1">E4-E6</f>
-        <v>-4791498000</v>
-      </c>
-      <c r="F7" s="61">
-        <f t="shared" si="1"/>
-        <v>-708553200</v>
-      </c>
-      <c r="G7" s="61">
-        <f t="shared" si="1"/>
-        <v>11007113520</v>
-      </c>
-      <c r="H7" s="61">
-        <f t="shared" si="1"/>
-        <v>39408134928</v>
-      </c>
-      <c r="I7" s="61">
-        <f t="shared" si="1"/>
-        <v>103167740899.20001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10248,34 +10264,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="59">
-        <f>D7/D4</f>
-        <v>-3.3683617177127685</v>
-      </c>
-      <c r="E8" s="59">
-        <f t="shared" ref="E8:I8" si="2">E7/E4</f>
-        <v>-0.47918621815257961</v>
-      </c>
-      <c r="F8" s="59">
-        <f t="shared" si="2"/>
-        <v>-3.5430352706805716E-2</v>
-      </c>
-      <c r="G8" s="59">
-        <f t="shared" si="2"/>
-        <v>0.275198753105236</v>
-      </c>
-      <c r="H8" s="59">
-        <f t="shared" si="2"/>
-        <v>0.4926391271736652</v>
-      </c>
-      <c r="I8" s="59">
-        <f t="shared" si="2"/>
-        <v>0.64484738902156569</v>
+        <v>122</v>
+      </c>
+      <c r="D8" s="62">
+        <f>D4-D7</f>
+        <v>-2343604000</v>
+      </c>
+      <c r="E8" s="62">
+        <f>E4-E7</f>
+        <v>-4636998000</v>
+      </c>
+      <c r="F8" s="62">
+        <f>F4-F7</f>
+        <v>7723438800</v>
+      </c>
+      <c r="G8" s="62">
+        <f>G4-G7</f>
+        <v>50615475120</v>
+      </c>
+      <c r="H8" s="62">
+        <f>H4-H7</f>
+        <v>182309115408</v>
+      </c>
+      <c r="I8" s="62">
+        <f>I4-I7</f>
+        <v>567285622243.19995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10284,222 +10300,309 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="60">
+        <f>D8/D4</f>
+        <v>-3.301892428033633</v>
+      </c>
+      <c r="E9" s="60">
+        <f>E8/E4</f>
+        <v>-0.45667881982402542</v>
+      </c>
+      <c r="F9" s="60">
+        <f>F8/F4</f>
+        <v>0.27166059008798726</v>
+      </c>
+      <c r="G9" s="60">
+        <f>G8/G4</f>
+        <v>0.63583029504399369</v>
+      </c>
+      <c r="H9" s="60">
+        <f>H8/H4</f>
+        <v>0.81791514752199679</v>
+      </c>
+      <c r="I9" s="60">
+        <f>I8/I4</f>
+        <v>0.90895757376099828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="61">
-        <f>D7-D5</f>
-        <v>-4466404000</v>
-      </c>
-      <c r="E9" s="61">
-        <f t="shared" ref="E9:I9" si="3">E7-E5</f>
-        <v>-8361498000</v>
-      </c>
-      <c r="F9" s="61">
-        <f t="shared" si="3"/>
-        <v>-4992553200</v>
-      </c>
-      <c r="G9" s="61">
-        <f t="shared" si="3"/>
-        <v>5866313520</v>
-      </c>
-      <c r="H9" s="61">
-        <f t="shared" si="3"/>
-        <v>33239174928</v>
-      </c>
-      <c r="I9" s="61">
-        <f t="shared" si="3"/>
-        <v>95764988899.200012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="D10" s="62">
+        <f>D8-D6</f>
+        <v>-4455604000</v>
+      </c>
+      <c r="E10" s="62">
+        <f t="shared" ref="E10:I10" si="1">E8-E6</f>
+        <v>-8206998000</v>
+      </c>
+      <c r="F10" s="62">
+        <f t="shared" si="1"/>
+        <v>3439438800</v>
+      </c>
+      <c r="G10" s="62">
+        <f t="shared" si="1"/>
+        <v>45474675120</v>
+      </c>
+      <c r="H10" s="62">
+        <f t="shared" si="1"/>
+        <v>176140155408</v>
+      </c>
+      <c r="I10" s="62">
+        <f t="shared" si="1"/>
+        <v>559882870243.19995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C13" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D13" s="61">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="56">
-        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="61">
-        <f>D9/(1+v_DiscountRate)^D2</f>
-        <v>-3435695384.6153846</v>
-      </c>
-      <c r="E14" s="61">
-        <f>E9/(1+v_DiscountRate)^E2</f>
-        <v>-4947631952.6627216</v>
-      </c>
-      <c r="F14" s="61">
-        <f>F9/(1+v_DiscountRate)^F2</f>
-        <v>-2272441147.0186615</v>
-      </c>
-      <c r="G14" s="61">
-        <f>G9/(1+v_DiscountRate)^G2</f>
-        <v>2053959427.1909244</v>
-      </c>
-      <c r="H14" s="61">
-        <f>H9/(1+v_DiscountRate)^H2</f>
-        <v>8952276215.2801132</v>
-      </c>
-      <c r="I14" s="61">
-        <f>I9/(1+v_DiscountRate)^I2</f>
-        <v>19840227549.75388</v>
+        <v>137</v>
+      </c>
+      <c r="D14" s="56">
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" s="61">
-        <f>D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
-        <v>1344184615.3846154</v>
-      </c>
-      <c r="E15" s="61">
-        <f>E4*v_ExitRevenueMultiple/(1+v_DiscountRate)^E2</f>
-        <v>14791775147.928993</v>
-      </c>
-      <c r="F15" s="61">
-        <f>F4*v_ExitRevenueMultiple/(1+v_DiscountRate)^F2</f>
-        <v>22756577150.659985</v>
-      </c>
-      <c r="G15" s="61">
-        <f>G4*v_ExitRevenueMultiple/(1+v_DiscountRate)^G2</f>
-        <v>35010118693.323059</v>
-      </c>
-      <c r="H15" s="61">
-        <f>H4*v_ExitRevenueMultiple/(1+v_DiscountRate)^H2</f>
-        <v>53861721066.650856</v>
-      </c>
-      <c r="I15" s="61">
-        <f>I4*v_ExitRevenueMultiple/(1+v_DiscountRate)^I2</f>
-        <v>82864186256.385925</v>
+        <v>138</v>
+      </c>
+      <c r="D15" s="62">
+        <f>D10/(1+v_DiscountRate)^D2</f>
+        <v>-3427387692.3076921</v>
+      </c>
+      <c r="E15" s="62">
+        <f>E10/(1+v_DiscountRate)^E2</f>
+        <v>-4856211834.3195257</v>
+      </c>
+      <c r="F15" s="62">
+        <f>F10/(1+v_DiscountRate)^F2</f>
+        <v>1565516067.3645878</v>
+      </c>
+      <c r="G15" s="62">
+        <f>G10/(1+v_DiscountRate)^G2</f>
+        <v>15921947802.948072</v>
+      </c>
+      <c r="H15" s="62">
+        <f>H10/(1+v_DiscountRate)^H2</f>
+        <v>47439665010.651955</v>
+      </c>
+      <c r="I15" s="62">
+        <f>I10/(1+v_DiscountRate)^I2</f>
+        <v>115994411679.2688</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="62">
+        <f>D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <v>1364953846.153846</v>
+      </c>
+      <c r="E16" s="62">
+        <f>E4*v_ExitRevenueMultiple/(1+v_DiscountRate)^E2</f>
+        <v>15020325443.786982</v>
+      </c>
+      <c r="F16" s="62">
+        <f>F4*v_ExitRevenueMultiple/(1+v_DiscountRate)^F2</f>
+        <v>32351470186.618107</v>
+      </c>
+      <c r="G16" s="62">
+        <f>G4*v_ExitRevenueMultiple/(1+v_DiscountRate)^G2</f>
+        <v>69680089632.715927</v>
+      </c>
+      <c r="H16" s="62">
+        <f>H4*v_ExitRevenueMultiple/(1+v_DiscountRate)^H2</f>
+        <v>150080193055.08044</v>
+      </c>
+      <c r="I16" s="62">
+        <f>I4*v_ExitRevenueMultiple/(1+v_DiscountRate)^I2</f>
+        <v>323249646580.17322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="61">
-        <f>SUM($D$14:D14) + D15</f>
-        <v>-2091510769.2307692</v>
-      </c>
-      <c r="E16" s="61">
-        <f>SUM($D$14:E14) + E15</f>
-        <v>6408447810.6508865</v>
-      </c>
-      <c r="F16" s="61">
-        <f>SUM($D$14:F14) + F15</f>
-        <v>12100808666.363216</v>
-      </c>
-      <c r="G16" s="61">
-        <f>SUM($D$14:G14) + G15</f>
-        <v>26408309636.217216</v>
-      </c>
-      <c r="H16" s="61">
-        <f>SUM($D$14:H14) + H15</f>
-        <v>54212188224.825127</v>
-      </c>
-      <c r="I16" s="61">
-        <f>SUM($D$14:I14) + I15</f>
-        <v>103054880964.31407</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="59" t="str">
-        <f>IFERROR(IRR($D$7:E7), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="F18" s="59" t="str">
-        <f>IFERROR(IRR($D$7:F7), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G18" s="59">
-        <f>IFERROR(IRR($D$7:G7), "-")</f>
-        <v>0.16293778108476609</v>
-      </c>
-      <c r="H18" s="59">
-        <f>IFERROR(IRR($D$7:H7), "-")</f>
-        <v>0.84430031823165308</v>
-      </c>
-      <c r="I18" s="59">
-        <f>IFERROR(IRR($D$7:I7), "-")</f>
-        <v>1.2049834474701493</v>
+      <c r="D17" s="62">
+        <f>SUM($D$15:D15) + D16</f>
+        <v>-2062433846.153846</v>
+      </c>
+      <c r="E17" s="62">
+        <f>SUM($D$15:E15) + E16</f>
+        <v>6736725917.1597633</v>
+      </c>
+      <c r="F17" s="62">
+        <f>SUM($D$15:F15) + F16</f>
+        <v>25633386727.355476</v>
+      </c>
+      <c r="G17" s="62">
+        <f>SUM($D$15:G15) + G16</f>
+        <v>78883953976.401367</v>
+      </c>
+      <c r="H17" s="62">
+        <f>SUM($D$15:H15) + H16</f>
+        <v>206723722409.41785</v>
+      </c>
+      <c r="I17" s="62">
+        <f>SUM($D$15:I15) + I16</f>
+        <v>495887587613.77942</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="60" t="str">
+        <f>IFERROR(IRR($D$8:E8), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="F19" s="60">
+        <f>IFERROR(IRR($D$8:F8), "-")</f>
+        <v>7.8133150593306944E-2</v>
+      </c>
+      <c r="G19" s="60">
+        <f>IFERROR(IRR($D$8:G8), "-")</f>
+        <v>1.5708963030749095</v>
+      </c>
+      <c r="H19" s="60">
+        <f>IFERROR(IRR($D$8:H8), "-")</f>
+        <v>2.2708205315062955</v>
+      </c>
+      <c r="I19" s="60">
+        <f>IFERROR(IRR($D$8:I8), "-")</f>
+        <v>2.6218279370332667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="59" t="str">
-        <f>IFERROR(IRR($D$9:E9), "-")</f>
+      <c r="E20" s="60" t="str">
+        <f>IFERROR(IRR($D$10:E10), "-")</f>
         <v>-</v>
       </c>
-      <c r="F19" s="59" t="str">
-        <f>IFERROR(IRR($D$9:F9), "-")</f>
+      <c r="F20" s="60" t="str">
+        <f>IFERROR(IRR($D$10:F10), "-")</f>
         <v>-</v>
       </c>
-      <c r="G19" s="59">
-        <f>IFERROR(IRR($D$9:G9), "-")</f>
-        <v>-0.45839466641757631</v>
-      </c>
-      <c r="H19" s="59">
-        <f>IFERROR(IRR($D$9:H9), "-")</f>
-        <v>0.31446431528808261</v>
-      </c>
-      <c r="I19" s="59">
-        <f>IFERROR(IRR($D$9:I9), "-")</f>
-        <v>0.73236742988304848</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="56" t="s">
+      <c r="G20" s="60">
+        <f>IFERROR(IRR($D$10:G10), "-")</f>
+        <v>0.7868082357056565</v>
+      </c>
+      <c r="H20" s="60">
+        <f>IFERROR(IRR($D$10:H10), "-")</f>
+        <v>1.5241026918087792</v>
+      </c>
+      <c r="I20" s="60">
+        <f>IFERROR(IRR($D$10:I10), "-")</f>
+        <v>1.9226622730685898</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C21" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="61">
-        <f>NPV(v_DiscountRate,D9)</f>
-        <v>-3435695384.6153846</v>
-      </c>
-      <c r="E20" s="61">
-        <f>NPV(v_DiscountRate,D9,E9)</f>
-        <v>-8383327337.2781057</v>
-      </c>
-      <c r="F20" s="61">
-        <f>NPV(v_DiscountRate,D9,E9,F9)</f>
-        <v>-10655768484.296768</v>
-      </c>
-      <c r="G20" s="61">
-        <f>NPV(v_DiscountRate,D9,E9,F9,G9)</f>
-        <v>-8601809057.1058426</v>
-      </c>
-      <c r="H20" s="61">
-        <f>NPV(v_DiscountRate,D9,E9,F9,G9,H9)</f>
-        <v>350467158.17426974</v>
-      </c>
-      <c r="I20" s="61">
-        <f>NPV(v_DiscountRate,D9,E9,F9,G9,H9,I9)</f>
-        <v>20190694707.92815</v>
+      <c r="D21" s="62">
+        <f>NPV(v_DiscountRate,D10)</f>
+        <v>-3427387692.3076921</v>
+      </c>
+      <c r="E21" s="62">
+        <f>NPV(v_DiscountRate,D10,E10)</f>
+        <v>-8283599526.6272173</v>
+      </c>
+      <c r="F21" s="62">
+        <f>NPV(v_DiscountRate,D10,E10,F10)</f>
+        <v>-6718083459.2626295</v>
+      </c>
+      <c r="G21" s="62">
+        <f>NPV(v_DiscountRate,D10,E10,F10,G10)</f>
+        <v>9203864343.685442</v>
+      </c>
+      <c r="H21" s="62">
+        <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10)</f>
+        <v>56643529354.337395</v>
+      </c>
+      <c r="I21" s="62">
+        <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10,I10)</f>
+        <v>172637941033.60617</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="76">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="77">
+        <f>E23*60</f>
+        <v>72</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="77">
+        <f>E24*60</f>
+        <v>4320</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="77">
+        <f>E25*24</f>
+        <v>103680</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="78">
+        <f>E26*30</f>
+        <v>3110400</v>
       </c>
     </row>
   </sheetData>
@@ -10515,8 +10618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C17DC-A059-427A-B1E3-F4E95301E578}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10531,43 +10634,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10578,40 +10681,40 @@
       <c r="B2" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="64">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="64">
         <v>8.6E-3</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="64">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H2" s="67">
+      <c r="H2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>1.12E-4</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>9.5199999999999997E-5</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>8.0919999999999991E-5</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>7.2827999999999988E-5</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="68">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>6.5545199999999997E-5</v>
       </c>
@@ -10623,41 +10726,41 @@
       <c r="B3" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="68">
+      <c r="H3" s="69">
         <v>0.2</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.16000000000000003</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.13600000000000001</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.11560000000000001</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.10404000000000001</v>
       </c>
-      <c r="M3" s="63">
+      <c r="M3" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.3636000000000011E-2</v>
       </c>
@@ -10669,41 +10772,41 @@
       <c r="B4" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H4" s="63" t="str">
+      <c r="H4" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="69">
         <v>0.2</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.17</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.14450000000000002</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.13005000000000003</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.11704500000000002</v>
       </c>
@@ -10715,41 +10818,41 @@
       <c r="B5" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="63" t="str">
+      <c r="H5" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I5" s="63" t="str">
+      <c r="I5" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="69">
         <v>0.15</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.1275</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.11475</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.10327500000000001</v>
       </c>
@@ -10761,41 +10864,41 @@
       <c r="B6" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="62" t="s">
+      <c r="G6" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="63" t="str">
+      <c r="H6" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I6" s="63" t="str">
+      <c r="I6" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J6" s="63" t="str">
+      <c r="J6" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="69">
         <v>0.15</v>
       </c>
-      <c r="L6" s="63">
+      <c r="L6" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.12150000000000001</v>
       </c>
@@ -10807,41 +10910,41 @@
       <c r="B7" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="63" t="str">
+      <c r="H7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I7" s="63" t="str">
+      <c r="I7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>-</v>
       </c>
-      <c r="J7" s="63" t="str">
+      <c r="J7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K7" s="63" t="str">
+      <c r="K7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>-</v>
       </c>
-      <c r="L7" s="68">
+      <c r="L7" s="69">
         <v>0.1</v>
       </c>
-      <c r="M7" s="63">
+      <c r="M7" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.0000000000000011E-2</v>
       </c>
@@ -10853,87 +10956,87 @@
       <c r="B8" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H8" s="63" t="str">
+      <c r="H8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="I8" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="63" t="str">
+      <c r="J8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>-</v>
       </c>
-      <c r="K8" s="63" t="str">
+      <c r="K8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>-</v>
       </c>
-      <c r="L8" s="63" t="str">
+      <c r="L8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>-</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="69">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="73">
         <v>0.9</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="73">
         <v>0.3</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="74">
         <v>0.86</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="74">
         <v>0.75139999999999996</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="74">
         <v>0.6593</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>0.46150999999999998</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.36920799999999998</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.31382679999999996</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.26675277999999997</v>
       </c>
-      <c r="L9" s="73">
+      <c r="L9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.24007750199999997</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="74">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>0.21606975179999999</v>
       </c>
@@ -10945,42 +11048,42 @@
       <c r="B10" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="63">
         <v>0.19</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="63">
         <v>0.3</v>
       </c>
-      <c r="H10" s="63">
+      <c r="H10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>0.21</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>0.14280000000000001</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>0.12138</v>
       </c>
-      <c r="L10" s="63">
+      <c r="L10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>0.10924200000000001</v>
       </c>
-      <c r="M10" s="63">
+      <c r="M10" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>9.8317800000000011E-2</v>
       </c>
@@ -10992,42 +11095,42 @@
       <c r="B11" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="63">
         <v>0.1</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="64">
         <v>2.86E-2</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="63">
         <v>0.04</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>2.24E-2</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>1.9039999999999998E-2</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>1.6183999999999997E-2</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>1.4565599999999998E-2</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>1.3109039999999999E-2</v>
       </c>
@@ -11039,42 +11142,42 @@
       <c r="B12" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="63">
         <v>0.15</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="64">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="64">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="64">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>3.5E-4</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>2.8000000000000003E-4</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>2.3800000000000001E-4</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>2.0230000000000001E-4</v>
       </c>
-      <c r="L12" s="63">
+      <c r="L12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>1.8207000000000002E-4</v>
       </c>
-      <c r="M12" s="63">
+      <c r="M12" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>1.6386300000000001E-4</v>
       </c>
@@ -11086,41 +11189,41 @@
       <c r="B13" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="70">
         <v>0.1</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series A]]*(1-v_seriB), "-")</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="J13" s="63">
+      <c r="J13" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series C]]*(1-v_seriD), "-")</f>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="L13" s="63">
+      <c r="L13" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series D]]*(1-v_seriE), "-")</f>
         <v>5.2020000000000004E-2</v>
       </c>
-      <c r="M13" s="63">
+      <c r="M13" s="64">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series E]]*(1-v_seriF), "-")</f>
         <v>4.6818000000000005E-2</v>
       </c>
@@ -11129,47 +11232,47 @@
       <c r="A14" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Start 1394])</f>
         <v>1</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Seed Angel 1395])</f>
         <v>1</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Angel Out 1397/2/22])</f>
         <v>1</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[1397/5/1])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[1399])</f>
         <v>1</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series A])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series B])</f>
         <v>1</v>
       </c>
-      <c r="J14" s="64">
+      <c r="J14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series C])</f>
         <v>1</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series D])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="65">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series E])</f>
         <v>1</v>
       </c>
-      <c r="M14" s="70">
+      <c r="M14" s="71">
         <f>SUBTOTAL(109,tbl_fundraisingSteps[Series F])</f>
         <v>1</v>
       </c>
@@ -11179,86 +11282,86 @@
       <c r="A16" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="67">
         <v>10000000</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="67">
         <v>10000000</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="67">
         <v>1000000</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="67">
         <v>7000000</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="67">
         <v>300000000</v>
       </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -11306,47 +11409,47 @@
       <c r="A24" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>8.6E-3</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.20014000000000001</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.36011200000000004</v>
       </c>
-      <c r="J24" s="63">
+      <c r="J24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.45609520000000003</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.53768092000000001</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.58391282800000011</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.62552154520000003</v>
       </c>
@@ -11355,47 +11458,47 @@
       <c r="A25" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>1</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.93989999999999996</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.99139999999999995</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.99980000000000002</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.69985999999999993</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.55988799999999994</v>
       </c>
-      <c r="J25" s="63">
+      <c r="J25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.47590480000000002</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.40451907999999992</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.36406717199999994</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.3276604548</v>
       </c>
@@ -11404,47 +11507,47 @@
       <c r="A26" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="F26" s="63">
+      <c r="F26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="G26" s="63">
+      <c r="G26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0</v>
       </c>
-      <c r="H26" s="63">
+      <c r="H26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>0.1</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="J26" s="63">
+      <c r="J26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>5.2020000000000004E-2</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
         <v>4.6818000000000005E-2</v>
       </c>
@@ -11453,47 +11556,47 @@
       <c r="A27" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="70">
+      <c r="C27" s="71">
         <f>SUBTOTAL(109,Table13[Start 1394])</f>
         <v>1</v>
       </c>
-      <c r="D27" s="70">
+      <c r="D27" s="71">
         <f>SUBTOTAL(109,Table13[Seed Angel 1395])</f>
         <v>1</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="71">
         <f>SUBTOTAL(109,Table13[Angel Out 1397/2/22])</f>
         <v>1</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="71">
         <f>SUBTOTAL(109,Table13[1397/5/1])</f>
         <v>1</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="71">
         <f>SUBTOTAL(109,Table13[1399])</f>
         <v>1</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="71">
         <f>SUBTOTAL(109,Table13[Series A])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="71">
         <f>SUBTOTAL(109,Table13[Series B])</f>
         <v>1</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="71">
         <f>SUBTOTAL(109,Table13[Series C])</f>
         <v>1</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="71">
         <f>SUBTOTAL(109,Table13[Series D])</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L27" s="71">
         <f>SUBTOTAL(109,Table13[Series E])</f>
         <v>1</v>
       </c>
-      <c r="M27" s="70">
+      <c r="M27" s="71">
         <f>SUBTOTAL(109,Table13[Series F])</f>
         <v>1</v>
       </c>
@@ -12931,10 +13034,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -13042,7 +13145,7 @@
       </c>
       <c r="I2" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>7.5435068987034601E-2</v>
+        <v>7.2907592307176847E-2</v>
       </c>
       <c r="J2" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13083,7 +13186,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A12" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A13" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13109,7 +13212,7 @@
       </c>
       <c r="I3" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.34666851556541634</v>
+        <v>0.3350532734704818</v>
       </c>
       <c r="J3" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13176,7 +13279,7 @@
       </c>
       <c r="I4" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.24960133120709976</v>
+        <v>0.2412383568987469</v>
       </c>
       <c r="J4" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13243,7 +13346,7 @@
       </c>
       <c r="I5" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>6.9333703113083267E-3</v>
+        <v>6.7010654694096361E-3</v>
       </c>
       <c r="J5" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13310,7 +13413,7 @@
       </c>
       <c r="I6" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>1.7333425778270817E-3</v>
+        <v>1.675266367352409E-3</v>
       </c>
       <c r="J6" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13377,7 +13480,7 @@
       </c>
       <c r="I7" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.4666851556541633E-3</v>
+        <v>3.3505327347048181E-3</v>
       </c>
       <c r="J7" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13418,92 +13521,94 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D8" s="12">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>100000</v>
+      </c>
+      <c r="E8" s="12">
+        <v>90000</v>
+      </c>
       <c r="F8" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>50000</v>
-      </c>
-      <c r="G8" s="38">
-        <v>0.02</v>
+        <v>10000</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.05</v>
       </c>
       <c r="H8" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I8" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>2.7733481245233307E-2</v>
+        <v>3.3505327347048183E-2</v>
       </c>
       <c r="J8" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="K8" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L8" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M8" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N8" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O8" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P8" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q8" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="R8" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>ROW(A7)</f>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D9" s="12">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="38">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H9" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
@@ -13511,43 +13616,43 @@
       </c>
       <c r="I9" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>6.9333703113083267E-3</v>
+        <v>2.6804261877638545E-2</v>
       </c>
       <c r="J9" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="K9" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="L9" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M9" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N9" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="O9" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="P9" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q9" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="R9" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -13556,65 +13661,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D10" s="12">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="G10" s="38">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.22186784996186645</v>
+        <v>6.7010654694096361E-3</v>
       </c>
       <c r="J10" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>80000</v>
+        <v>2500</v>
       </c>
       <c r="K10" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L10" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M10" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N10" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="O10" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="P10" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="R10" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -13623,33 +13728,33 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="12">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="G11" s="38">
         <v>0.02</v>
       </c>
       <c r="H11" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I11" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>5.5466962490466613E-2</v>
+        <v>0.21443409502110836</v>
       </c>
       <c r="J11" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="K11" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
@@ -13690,305 +13795,372 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="12">
-        <v>3000000</v>
+        <v>100000</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>3000000</v>
-      </c>
-      <c r="G12" s="39">
-        <v>1E-3</v>
+        <v>100000</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.02</v>
       </c>
       <c r="H12" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>4.1600221867849965E-3</v>
+        <v>5.3608523755277089E-2</v>
       </c>
       <c r="J12" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>1500</v>
+        <v>20000</v>
       </c>
       <c r="K12" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="L12" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M12" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N12" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="O12" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P12" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="R12" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
+        <v>3000000</v>
+      </c>
+      <c r="G13" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="45">
+        <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
+        <v>3000</v>
+      </c>
+      <c r="I13" s="44">
+        <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
+        <v>4.0206392816457817E-3</v>
+      </c>
+      <c r="J13" s="50">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
+        <v>1500</v>
+      </c>
+      <c r="K13" s="48">
+        <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="48">
+        <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="48">
+        <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>2</v>
+      </c>
+      <c r="N13" s="48">
+        <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>5</v>
+      </c>
+      <c r="O13" s="48">
+        <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>10</v>
+      </c>
+      <c r="P13" s="48">
+        <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>20</v>
+      </c>
+      <c r="Q13" s="48">
+        <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
+        <v>50</v>
+      </c>
+      <c r="R13" s="48">
+        <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="46">
+      <c r="D14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="46">
         <f>SUBTOTAL(101,tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
-      </c>
-      <c r="H13" s="45">
+        <v>2.2708333333333334E-2</v>
+      </c>
+      <c r="H14" s="45">
         <f>SUBTOTAL(109,tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
+        <v>32860</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="26">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C18" s="52">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.0227272727272726E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="13">
+        <v>2.2708333333333334E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A19" s="13">
         <v>2</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B19" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C19" s="53">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="C19" s="53"/>
-      <c r="E19" s="54"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="47" t="s">
+        <v>32860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C20" s="53"/>
+      <c r="E20" s="54"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A23" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B23" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C23" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>500</v>
-      </c>
-      <c r="B23" s="5">
-        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>10.113636363636363</v>
-      </c>
-      <c r="C23" s="12">
-        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>16180000</v>
-      </c>
-      <c r="D23" s="12">
-        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>194160000</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="12"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="B24" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>20.227272727272727</v>
+        <v>11.354166666666666</v>
       </c>
       <c r="C24" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>32360000</v>
+        <v>16430000</v>
       </c>
       <c r="D24" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>388320000</v>
-      </c>
+        <v>197160000</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B25" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>40.454545454545453</v>
+        <v>22.708333333333332</v>
       </c>
       <c r="C25" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>64720000</v>
+        <v>32860000</v>
       </c>
       <c r="D25" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>776640000</v>
+        <v>394320000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="B26" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>101.13636363636363</v>
+        <v>45.416666666666664</v>
       </c>
       <c r="C26" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>161800000</v>
+        <v>65720000</v>
       </c>
       <c r="D26" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>1941600000</v>
+        <v>788640000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="B27" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>202.27272727272725</v>
+        <v>113.54166666666667</v>
       </c>
       <c r="C27" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>323600000</v>
+        <v>164300000</v>
       </c>
       <c r="D27" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>3883200000</v>
+        <v>1971600000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B28" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>404.5454545454545</v>
+        <v>227.08333333333334</v>
       </c>
       <c r="C28" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>647200000</v>
+        <v>328600000</v>
       </c>
       <c r="D28" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>7766400000</v>
+        <v>3943200000</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="B29" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>1011.3636363636363</v>
+        <v>454.16666666666669</v>
       </c>
       <c r="C29" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>1618000000</v>
+        <v>657200000</v>
       </c>
       <c r="D29" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>19416000000</v>
+        <v>7886400000</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="B30" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2022.7272727272725</v>
+        <v>1135.4166666666667</v>
       </c>
       <c r="C30" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>3236000000</v>
+        <v>1643000000</v>
       </c>
       <c r="D30" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>38832000000</v>
+        <v>19716000000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="B31" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>20227.272727272724</v>
+        <v>2270.8333333333335</v>
       </c>
       <c r="C31" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>32360000000</v>
+        <v>3286000000</v>
       </c>
       <c r="D31" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>388320000000</v>
+        <v>39432000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B32" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>22708.333333333332</v>
+      </c>
+      <c r="C32" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>32860000000</v>
+      </c>
+      <c r="D32" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>394320000000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I12">
+  <conditionalFormatting sqref="I2:I13">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -14022,7 +14194,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:I12</xm:sqref>
+          <xm:sqref>I2:I13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/business/business-plan/Jibres-Balance-v1.xlsx
+++ b/business/business-plan/Jibres-Balance-v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\projects\talambar_cdn\business\business-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D423E40-BD33-4BB2-8ED4-90C59E608637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB927231-8B2E-46AC-B198-9E5151F45350}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{6B758C63-8066-4742-BFF0-F2DCF7A6BA0C}"/>
   </bookViews>
@@ -49,8 +49,8 @@
     <definedName name="s_cagr">فرضیات!$B$19</definedName>
     <definedName name="s_costsGrowthCapexYOY">فرضیات!$B$21</definedName>
     <definedName name="s_costsGrowthYOY">فرضیات!$B$20</definedName>
-    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$13</definedName>
-    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$14</definedName>
+    <definedName name="v_DiscountRate">'خلاصه و ارزیابی'!$D$16</definedName>
+    <definedName name="v_ExitRevenueMultiple">'خلاصه و ارزیابی'!$D$17</definedName>
     <definedName name="v_seriA">'مراحل سرمایه‌گذاری'!$H$3</definedName>
     <definedName name="v_seriB">'مراحل سرمایه‌گذاری'!$I$4</definedName>
     <definedName name="v_seriC">'مراحل سرمایه‌گذاری'!$J$5</definedName>
@@ -67,8 +67,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Javad Evazzadeh</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{C4FC50AC-CFBA-4AC7-AB21-28DB7D6BCBB3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Earnings before interest, tax, depreciation and amortization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{68FD4E4E-6D9E-4BED-9405-F6FD701F704A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Post-money valuation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{17C37891-F9D3-447A-B8FE-A7C8660AE20C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Internal rate of return</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="190">
   <si>
     <t>#</t>
   </si>
@@ -253,9 +300,6 @@
     <t>درصد هزینه‌های پیش‌بینی نشده</t>
   </si>
   <si>
-    <t>سایز هزینه‌ها ۲۰٪</t>
-  </si>
-  <si>
     <t>اجاره سروهای بکاپ</t>
   </si>
   <si>
@@ -292,9 +336,6 @@
     <t>مشتری سازمانی</t>
   </si>
   <si>
-    <t>پشتیبانی ویژه</t>
-  </si>
-  <si>
     <t>مدیریت ارتباط با مشتریان حرفه‌ای</t>
   </si>
   <si>
@@ -487,18 +528,9 @@
     <t>Present FCF</t>
   </si>
   <si>
-    <t>سال</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>PV of Terminal Value Exit</t>
-  </si>
-  <si>
-    <t>ExitV Value</t>
-  </si>
-  <si>
     <t>رشد سالیانه هزینه سرمایه ثابت</t>
   </si>
   <si>
@@ -514,9 +546,6 @@
     <t>نرخ تنزیل</t>
   </si>
   <si>
-    <t>خالص ارزش فعلی کل سرمایه‌گذاری</t>
-  </si>
-  <si>
     <t>Series A</t>
   </si>
   <si>
@@ -613,25 +642,49 @@
     <t>مرکز فروش دامنه</t>
   </si>
   <si>
-    <t>g/sec</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>200g sound</t>
-  </si>
-  <si>
-    <t>4t video</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>30day</t>
+    <t>Exit Value</t>
+  </si>
+  <si>
+    <t>شماره سال</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>روش تنزیل جریانات نقد آزاد شرکت از روش ارزش خروج برای تعیین ارزش پایانی</t>
+  </si>
+  <si>
+    <t>روش تنزیل جریانات نقد آزاد شرکت از روش استمرار رشد بنیادی</t>
+  </si>
+  <si>
+    <t>Present Value of Terminal Value</t>
+  </si>
+  <si>
+    <t>ارزش فعلی ارزش پایانی</t>
+  </si>
+  <si>
+    <t>ارزش پیش از تزریق سرمایه</t>
+  </si>
+  <si>
+    <t>ارزش فعلی جریانات نقد آزاد</t>
+  </si>
+  <si>
+    <t>نسبت ارزش به درآمد</t>
+  </si>
+  <si>
+    <t>میزان بازده داخلی</t>
+  </si>
+  <si>
+    <t>ارزش خالص فعلی کل سرمایه‌گذاری</t>
+  </si>
+  <si>
+    <t>سایز هزینه‌ها ۱۰٪</t>
+  </si>
+  <si>
+    <t>پشتیبانی ویژه و SLA</t>
+  </si>
+  <si>
+    <t>میزان بازده داخلی + سرمایه ثابت</t>
   </si>
 </sst>
 </file>
@@ -647,10 +700,10 @@
     <numFmt numFmtId="167" formatCode="[$-3000401]0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
-    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="170" formatCode="_(\I\R\T\ * #,##0_);[Red]_(\I\R\T\ * &quot;-&quot;#,##0_)"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,8 +756,19 @@
       <name val="IRANSansX"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,6 +811,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -840,7 +910,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -931,7 +1001,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -949,7 +1019,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -982,6 +1052,12 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1344,1709 +1420,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3400,6 +1773,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3418,6 +1807,22 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3470,22 +1875,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3504,22 +1907,20 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3538,20 +1939,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3570,48 +1958,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3634,21 +1981,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3664,22 +1996,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3698,22 +2014,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
     </dxf>
     <dxf>
       <font>
@@ -3732,20 +2032,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3764,169 +2051,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3945,21 +2070,6 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3978,6 +2088,92 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -3993,6 +2189,32 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4011,19 +2233,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4042,174 +2253,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4228,79 +2273,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4319,22 +2293,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4353,22 +2313,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4387,20 +2333,8 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4419,137 +2353,2279 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="IRANSansX"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(\I\R\T\ * #,##0_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="IRANSansX"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -4776,25 +4852,25 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1872000000</c:v>
+                  <c:v>1104000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240000000</c:v>
+                  <c:v>210000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1121400000</c:v>
+                  <c:v>970100000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800000000</c:v>
+                  <c:v>600000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>240000000</c:v>
+                  <c:v>210000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>422400000</c:v>
+                  <c:v>248380000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>469580000</c:v>
+                  <c:v>334248000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4865,25 +4941,25 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3060000000</c:v>
+                  <c:v>2400000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>510000000</c:v>
+                  <c:v>210000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8207580000</c:v>
+                  <c:v>4959080000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000000000</c:v>
+                  <c:v>1550000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>750000000</c:v>
+                  <c:v>420000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1164000000</c:v>
+                  <c:v>758120000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1669158000</c:v>
+                  <c:v>1029720000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,25 +5497,25 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4932000000</c:v>
+                  <c:v>3504000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>750000000</c:v>
+                  <c:v>420000000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9328980000</c:v>
+                  <c:v>5929180000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3800000000</c:v>
+                  <c:v>2150000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>990000000</c:v>
+                  <c:v>630000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1586400000</c:v>
+                  <c:v>1006500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2138738000</c:v>
+                  <c:v>1363968000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5702,10 +5778,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2112000000</c:v>
+                  <c:v>1314000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3570000000</c:v>
+                  <c:v>2610000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,10 +5897,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3053380000</c:v>
+                  <c:v>2362728000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14790738000</c:v>
+                  <c:v>8716920000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6239,10 +6315,10 @@
                 <c:formatCode>_(\I\R\T\ * #,##0_)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5165380000</c:v>
+                  <c:v>3676728000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18360738000</c:v>
+                  <c:v>11326920000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8610,17 +8686,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFE73915-D66B-426B-B6F5-EAC6A7CE2129}" name="tbl_sumary" displayName="tbl_sumary" ref="A1:G9" totalsRowCount="1" headerRowDxfId="209" dataDxfId="208" totalsRowDxfId="207">
   <autoFilter ref="A1:G8" xr:uid="{5810A676-66BF-4EA4-B586-C6E90025121D}"/>
   <tableColumns count="7">
-    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="92">
+    <tableColumn id="5" xr3:uid="{47369FE7-678F-4F87-AB99-EE1EDC617F1A}" name="#" totalsRowLabel="Total" dataDxfId="206" totalsRowDxfId="205">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="205" totalsRowDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="204" totalsRowDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="89" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="88" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="87" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{3037BF7E-6F17-4FD9-B0BA-2603DBE3AA73}" name="نوع" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{5543AAC9-D97A-4AF1-B9C8-BCB750FF9446}" name="عنوان" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{363204E2-D323-45E0-8740-F6AAC858616C}" name="1400" totalsRowFunction="sum" totalsRowDxfId="200" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{0C5EF792-05B7-4EDA-BEF7-3C660D2AFD4B}" name="1401" totalsRowFunction="sum" totalsRowDxfId="199" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{29FAD03A-69B3-4207-A748-8BD45D15D581}" name="مجموع" totalsRowFunction="sum" totalsRowDxfId="198" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="203" totalsRowDxfId="86" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{CDA3691F-C5E7-4ED9-A080-98FD93E74B52}" name="درصد" totalsRowFunction="sum" dataDxfId="197" totalsRowDxfId="196" dataCellStyle="Percent">
       <calculatedColumnFormula>(F2*100/SUM(tbl_sumary[مجموع])) / 100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8629,51 +8705,51 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{88D49CFF-1880-461E-BE7C-4123689347E0}" name="tbl_pricing" displayName="tbl_pricing" ref="A1:R14" totalsRowCount="1" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="A1:R13" xr:uid="{11174E64-8CFF-4722-BD71-DA8D32366E61}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="128" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{9A53D445-08A1-4BD8-A9B1-36B149B75784}" name="ردیف" totalsRowLabel="Total" dataDxfId="35" totalsRowDxfId="17">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="127" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="126" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="125" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="124" totalsRowDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="123" totalsRowDxfId="12">
+    <tableColumn id="2" xr3:uid="{A097EA43-7198-43D4-A945-9788D7E650A6}" name="عنوان" dataDxfId="34" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{EEC712EC-61BA-44C7-A77F-FC5EE5CA47F3}" name="مدل پرداخت" dataDxfId="33" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{B9F7695D-2433-4D21-A6B5-58ABCCFB2FEF}" name="مبلغ پرداختی" dataDxfId="32" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{EC802C2A-E591-4D77-926A-410A0C0BDAA0}" name="بهای تمام شده" dataDxfId="31" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{A37BFF77-E27B-448B-B94A-F9B63A90085C}" name="سود" dataDxfId="30" totalsRowDxfId="12">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="122" totalsRowDxfId="11" dataCellStyle="Percent"/>
-    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="121" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{8F29DDFD-9907-444A-822D-CF4F1DBF869F}" name="درصد خرید" totalsRowFunction="average" dataDxfId="29" totalsRowDxfId="11" dataCellStyle="Percent"/>
+    <tableColumn id="21" xr3:uid="{30514F62-ED70-4E43-940C-9DBD8F3236F7}" name="سود به ازای هر بیزینس" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="120" totalsRowDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="20" xr3:uid="{0339167C-ECB3-48F5-900C-D07E6601173D}" name="درصد از کل درآمد" dataDxfId="27" totalsRowDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="119" totalsRowDxfId="8">
+    <tableColumn id="8" xr3:uid="{5C42269E-0294-4750-9609-FB82B91EA379}" name="کل بیزینس‌ها" dataDxfId="26" totalsRowDxfId="8">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="118" totalsRowDxfId="7">
+    <tableColumn id="9" xr3:uid="{57700895-A636-4D69-BC9A-86010F006F9A}" name="500" dataDxfId="25" totalsRowDxfId="7">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="117" totalsRowDxfId="6">
+    <tableColumn id="10" xr3:uid="{9AB94E1B-34ED-4589-8806-1371AF0006CE}" name="1000" dataDxfId="24" totalsRowDxfId="6">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="116" totalsRowDxfId="5">
+    <tableColumn id="11" xr3:uid="{73D11ABE-3FE2-4354-9B4D-6A48992B395A}" name="2000" dataDxfId="23" totalsRowDxfId="5">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="115" totalsRowDxfId="4">
+    <tableColumn id="12" xr3:uid="{C88D635E-46CD-44BB-9844-EBB575A727B1}" name="5000" dataDxfId="22" totalsRowDxfId="4">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="114" totalsRowDxfId="3">
+    <tableColumn id="13" xr3:uid="{159DCBCC-07DD-484D-8F87-B26CA28EFF29}" name="10000" dataDxfId="21" totalsRowDxfId="3">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="113" totalsRowDxfId="2">
+    <tableColumn id="14" xr3:uid="{1A3D8FD2-70CB-4665-975C-2114464348DB}" name="20000" dataDxfId="20" totalsRowDxfId="2">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="112" totalsRowDxfId="1">
+    <tableColumn id="15" xr3:uid="{8854EC08-9308-4944-BDA8-75596BFE727B}" name="50000" dataDxfId="19" totalsRowDxfId="1">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="111" totalsRowDxfId="0">
+    <tableColumn id="16" xr3:uid="{AA928AC4-CF96-4BA2-8936-8A643A7DDAA6}" name="100000" dataDxfId="18" totalsRowDxfId="0">
       <calculatedColumnFormula>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8682,17 +8758,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D32" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109">
-  <autoFilter ref="A23:D32" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A0DC6D01-1908-424F-B4D3-0A113BEC83E9}" name="tbl_pricing_predict" displayName="tbl_pricing_predict" ref="A23:D34" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+  <autoFilter ref="A23:D34" xr:uid="{652F814E-9275-4FA3-8E84-CADC4414840E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="108" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="107">
+    <tableColumn id="1" xr3:uid="{1DE062CE-5BF5-4FEA-A98A-704F2735EAA7}" name="تعداد بیزینس" dataDxfId="147" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{9A3B5D26-797A-4D19-9504-750237C50E47}" name="تعداد بیزینس‌هایی که پرداخت دارند" dataDxfId="146">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="106">
+    <tableColumn id="3" xr3:uid="{5CCA6DBC-ECB1-4830-8ED4-23C63AE947E7}" name="درآمد ماهیانه" dataDxfId="145">
       <calculatedColumnFormula>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="105">
+    <tableColumn id="4" xr3:uid="{16B0B2F6-77AB-4BCF-B967-97D476246151}" name="درآمد سالیانه" dataDxfId="144">
       <calculatedColumnFormula>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8701,33 +8777,33 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2BCAB8CD-6080-4EBF-8358-2286D17022E3}" name="Table15" displayName="Table15" ref="A1:J8" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:J8" xr:uid="{4B45EF50-D07B-4462-B4EB-CF690CB4B7A8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="102">
+    <tableColumn id="1" xr3:uid="{3233B9C7-9724-4673-B9F1-EAE50D2C9670}" name="ردیف" dataDxfId="141">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="100"/>
-    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="99">
+    <tableColumn id="10" xr3:uid="{60819422-87DD-4CFF-AB10-DB3E961E5555}" name="عنوان" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{18B29F41-DC81-4467-BD19-639C5E40AC0E}" name="1400-Q1" dataDxfId="139"/>
+    <tableColumn id="3" xr3:uid="{75B9AC7C-0C9A-4EBB-A21B-9103F31171A5}" name="1400-Q2" dataDxfId="138">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="98">
+    <tableColumn id="4" xr3:uid="{A6A37BC8-F105-4BC7-BBA5-7CD986675C7E}" name="1400-Q3" dataDxfId="137">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="97">
+    <tableColumn id="5" xr3:uid="{7CD9CE2A-0982-402E-90BB-A37955F9417B}" name="1400-Q4" dataDxfId="136">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="96">
+    <tableColumn id="6" xr3:uid="{F574DA15-52E0-46FF-8058-3626E90ADCD3}" name="1401-Q1" dataDxfId="135">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="95">
+    <tableColumn id="7" xr3:uid="{265E39CF-C0D3-42D3-BE97-6DA6F758CCBB}" name="1401-Q2" dataDxfId="134">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="94">
+    <tableColumn id="8" xr3:uid="{491DB0FE-9C40-4DCA-8643-B5E810C0361E}" name="1401-Q3" dataDxfId="133">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="93">
+    <tableColumn id="9" xr3:uid="{299BD95A-56DA-46C1-AD0F-CE6FCABD7593}" name="1401-Q4" dataDxfId="132">
       <calculatedColumnFormula>AVERAGE(tbl_pricing[درصد خرید])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8736,92 +8812,92 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I10" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{395D3563-07D8-4AEF-9B22-A8CF424C8F4C}" name="tbl_revenue_summary" displayName="tbl_revenue_summary" ref="A1:I10" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:I10" xr:uid="{0E994EE0-F0F0-4FBF-9544-F0DF02B7F5C3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{7CFD1D53-F749-4B43-9DD3-BE3F1C5EC98F}" name="#" dataDxfId="129">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="82">
+    <tableColumn id="11" xr3:uid="{EDB8F8AF-AD21-41D4-84B7-19B49F8D2731}" name="نوع" dataDxfId="128"/>
+    <tableColumn id="8" xr3:uid="{54E69985-F797-4A1D-810B-CD4B14DE4247}" name="Title" dataDxfId="127"/>
+    <tableColumn id="3" xr3:uid="{4C28CA0D-B0C2-4EC6-9320-E20F2AA18D35}" name="1400" dataDxfId="126">
       <calculatedColumnFormula>'پیش‌بینی درآمد'!$C$8:$F$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{BE2DB32D-49B5-4174-91DB-055B8A546B01}" name="1401" dataDxfId="125">
       <calculatedColumnFormula>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="80">
+    <tableColumn id="5" xr3:uid="{200B4D8D-3290-4392-A148-F2EC03CDB0D3}" name="1402" dataDxfId="124">
       <calculatedColumnFormula>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="79"/>
-    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{A7A00C3C-C62A-4AFB-8F2F-961D9B70FA4E}" name="1403" dataDxfId="123"/>
+    <tableColumn id="7" xr3:uid="{CD51A06F-0126-4363-82F1-83D419084E3E}" name="1404" dataDxfId="122"/>
+    <tableColumn id="2" xr3:uid="{9FF3912E-8E29-4421-A4CB-E01182C34419}" name="1405" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="72" dataDxfId="73" totalsRowDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D1342561-B7A4-48E4-82DB-7091D7FE24C2}" name="tbl_fundraisingSteps" displayName="tbl_fundraisingSteps" ref="A1:M14" totalsRowCount="1" headerRowDxfId="120" dataDxfId="119" totalsRowDxfId="118">
   <autoFilter ref="A1:M13" xr:uid="{7E87C80A-E7EE-4352-81C0-E925498C3A9A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{12E2DB3F-C608-4C14-BC50-2BC1F2A76D86}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="89" totalsRowDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{879A5D2D-8CD3-4CD8-9A10-ACEBF45244A1}" name="نام به تفکیک" dataDxfId="87" totalsRowDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{504C5ECB-7E69-4D58-88F2-F2EE7BF3AF63}" name="Start 1394" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{489B3961-F0BB-4DBA-9569-4B6F9D2C8136}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{2F49346B-42D1-4A05-A022-49E685B8F677}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{D7B34FBB-1249-4A52-BC71-F4F4C353E9FF}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{D017C8F8-D15A-4768-9250-191C7C3FBCAD}" name="1399" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{CC921348-160B-4F0D-9BE4-5DDA1AD69B16}" name="Series A" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Percent">
       <calculatedColumnFormula>tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-#REF!)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{DF9F62FE-3F49-4863-9EB8-9DA044FDA222}" name="Series B" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{077EF452-6558-4AC1-8073-331A97F79010}" name="Series C" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{4EBDA36A-837C-4D6F-8F61-A05A0A68122A}" name="Series D" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{8993C8BA-E6C1-4341-9D63-25AE19DA5FDB}" name="Series E" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{8B46D6B7-B794-4A24-8CAA-5733D667F553}" name="Series F" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="69" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{65A41E25-9D6F-4C20-A396-5400E9F4A5CF}" name="Table13" displayName="Table13" ref="A23:M27" totalsRowCount="1" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="A23:M26" xr:uid="{65851948-34D5-432A-B8FB-4FA5D425C4F9}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="68" totalsRowDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="54" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{34E46D92-A5C7-4723-8F0E-96589EB1AEC2}" name="نوع سهام‌دار" totalsRowLabel="Total" dataDxfId="115" totalsRowDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{A5B597FC-720C-447A-9F66-CBDB8836AFA2}" name="جمع سهام" dataDxfId="113" totalsRowDxfId="112"/>
+    <tableColumn id="3" xr3:uid="{9D64E6C7-4D6D-46C0-921E-CD57FADBCEA8}" name="Start 1394" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="53" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{18E1D5B0-D6EB-4E11-A1AF-756FF28BCF08}" name="Seed Angel 1395" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Seed Angel 1395],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="52" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{16E03538-9711-428F-96E4-F5A83D77388E}" name="Angel Out 1397/2/22" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Angel Out 1397/2/22],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="51" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{1005E7E3-6CDA-4436-991E-B3B379B55B0A}" name="1397/5/1" totalsRowFunction="sum" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1397/5/1],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="50" dataCellStyle="Percent">
+    <tableColumn id="7" xr3:uid="{9A2B6988-1497-40EF-87D8-F8505FFD7BED}" name="1399" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[1399],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="49" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{7EB61B1B-B071-44BA-9BDE-AB01D5A7A675}" name="Series A" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series A],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="48" dataCellStyle="Percent">
+    <tableColumn id="9" xr3:uid="{872DE947-28BB-47C2-B6BA-A18345AA109A}" name="Series B" totalsRowFunction="sum" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series B],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="47" dataCellStyle="Percent">
+    <tableColumn id="10" xr3:uid="{5A1BFC5B-E565-476F-B851-56F08693CE71}" name="Series C" totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series C],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="46" dataCellStyle="Percent">
+    <tableColumn id="11" xr3:uid="{769D64D0-F4FE-464D-AA35-37608D10B674}" name="Series D" totalsRowFunction="sum" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series D],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="12" xr3:uid="{9C33E128-ADB1-4C6A-AF02-8F7E47B4ED9A}" name="Series E" totalsRowFunction="sum" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series E],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="44" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{9B8985F9-A88C-49C2-8098-57E3F68A1C4A}" name="Series F" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Percent">
       <calculatedColumnFormula>SUMIFS(tbl_fundraisingSteps[Series F],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8830,27 +8906,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="202" dataDxfId="201">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5EA91A5F-D478-410F-A959-94B6375E723C}" name="tbl_Assumptions" displayName="tbl_Assumptions" ref="A1:B21" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194">
   <autoFilter ref="A1:B21" xr:uid="{2B9E2DB8-FBB8-45B3-A4BF-A27446C1BBC1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="200"/>
-    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="199"/>
+    <tableColumn id="1" xr3:uid="{04846D46-98AF-4645-B227-FF19272102B1}" name="عنوان" dataDxfId="193"/>
+    <tableColumn id="2" xr3:uid="{D4584107-29D2-4B18-94B1-795D1E01B117}" name="مقدار" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="198" dataDxfId="197">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B70965CE-6382-4581-92BE-B703990B6755}" name="tbl_servers" displayName="tbl_servers" ref="A1:E5" totalsRowCount="1" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:E4" xr:uid="{6BB248A9-012D-4836-9305-5141AF978271}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="196" totalsRowDxfId="195">
+    <tableColumn id="1" xr3:uid="{C1D9DC5C-1F85-426E-959C-3165A99CD6EC}" name="ردیف" totalsRowLabel="Total" dataDxfId="189" totalsRowDxfId="188">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="194" totalsRowDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="188">
+    <tableColumn id="2" xr3:uid="{23A7CE2D-4EC2-4F59-9E8C-744F0E351954}" name="عنوان" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="3" xr3:uid="{C5D9D589-B23B-4019-B4E1-A8A2308C3099}" name="1400" totalsRowFunction="sum" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="4" xr3:uid="{A20DFB1D-E3C4-4F6A-9CE1-76537256DDA0}" name="1401" totalsRowFunction="sum" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="5" xr3:uid="{7320D442-6698-4FA5-BB88-10D126434BE0}" name="جمع" totalsRowFunction="sum" dataDxfId="181">
       <calculatedColumnFormula>SUM(tbl_servers[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8859,31 +8935,31 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="187" dataDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{977B59AD-3F11-4279-8E03-C739A8BD263F}" name="tbl_serverCount" displayName="tbl_serverCount" ref="A9:D10" totalsRowShown="0" headerRowDxfId="180" dataDxfId="179">
   <autoFilter ref="A9:D10" xr:uid="{939160DD-2EDF-4878-9A71-0E47E271CD17}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{7CFB71D1-2F91-4886-8D95-C562400CF4F7}" name="9" dataDxfId="178">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="184"/>
-    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{EBEBDCFA-6F86-4BB9-A4E1-CFAC0B6394D2}" name="عنوان" dataDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{9FF7CA43-0705-4E77-85EC-B371DC78ACA4}" name="1400" dataDxfId="176"/>
+    <tableColumn id="4" xr3:uid="{B14BB7F9-8746-4829-AA07-C639400E814F}" name="1401" dataDxfId="175"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B6976F6-E70B-4A2A-B40E-5918A439B18A}" name="tbl_office12" displayName="tbl_office12" ref="A1:E2" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <autoFilter ref="A1:E2" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="179">
+    <tableColumn id="1" xr3:uid="{276EA653-F6EB-43D8-A8E6-02705C4FC3C6}" name="ردیف" dataDxfId="172">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="176"/>
-    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="175">
+    <tableColumn id="2" xr3:uid="{C917D43E-3C18-4ECC-857D-F6E368E7D1DD}" name="عنوان" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{936C2C7C-5EB9-4B64-BF32-AA11DA4CFE26}" name="1400" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{81F72F41-D8FD-4195-ABBB-05037CE3698B}" name="1401" dataDxfId="169"/>
+    <tableColumn id="5" xr3:uid="{C0453677-E159-4921-9E18-2A6C08C14999}" name="جمع" dataDxfId="168">
       <calculatedColumnFormula>SUM(tbl_office12[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8892,34 +8968,34 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="174" dataDxfId="173" totalsRowDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5915FF36-0265-4C54-BA19-626C4A5D416F}" name="tbl_salaryData" displayName="tbl_salaryData" ref="A1:D6" totalsRowCount="1" headerRowDxfId="167" dataDxfId="166" totalsRowDxfId="165">
   <autoFilter ref="A1:D5" xr:uid="{0FEAC4E8-3C92-4ECC-A20C-80059709130D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="171" totalsRowDxfId="170">
+    <tableColumn id="1" xr3:uid="{DA73BFFA-A796-4432-914A-1F59F00537F5}" name="#" totalsRowLabel="جمع" dataDxfId="63" totalsRowDxfId="54">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="169" totalsRowDxfId="168"/>
-    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="167" totalsRowDxfId="166"/>
-    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="2" xr3:uid="{32ED334C-D261-4D20-8958-087C27AD9FBF}" name="عنوان شغلی" dataDxfId="62" totalsRowDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{0925C41E-9619-42E8-8F24-EDDF62C48C09}" name="1400" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{0BE3F0C5-39C2-4F5C-A4BB-D96C51FFD2B1}" name="1401" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B2F8771E-79C6-493F-AE65-0B40F291DB5B}" name="tbl_jobSalary" displayName="tbl_jobSalary" ref="A22:F26" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163">
   <autoFilter ref="A22:F26" xr:uid="{C45356D1-9A71-4483-8364-A8B472AE846A}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="161"/>
-    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="159" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="158">
+    <tableColumn id="3" xr3:uid="{EAA5B31A-763B-44E2-8C7F-741E10086C03}" name="#" dataDxfId="162"/>
+    <tableColumn id="1" xr3:uid="{0C7B43BD-CDE0-4542-994E-07BECC378178}" name="عنوان شغلی" dataDxfId="161"/>
+    <tableColumn id="2" xr3:uid="{23FA6089-E4D9-4C9C-9ADF-69E1A5FBE988}" name="میانگین پرداختی ۱۴۰۰" dataDxfId="160" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{FCAB3AB9-4281-4E61-A996-650242F1C298}" name="میانگین پرداختی ۱۴۰۱" dataDxfId="159">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="157">
+    <tableColumn id="5" xr3:uid="{74DCC911-8D28-41F5-8E0B-1DFC05F1308A}" name="هزینه یک‌سال ۱۴۰۰" dataDxfId="158">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="156">
+    <tableColumn id="6" xr3:uid="{CB766ED7-E144-4502-8587-DD171AC691BA}" name="هزینه یک‌سال ۱۴۰۱" dataDxfId="157">
       <calculatedColumnFormula>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8928,16 +9004,16 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DBA840A0-13F7-4E3B-BF83-B0B57FC4C404}" name="tbl_marketing" displayName="tbl_marketing" ref="A1:E11" totalsRowCount="1" headerRowDxfId="156" dataDxfId="155" totalsRowDxfId="154">
   <autoFilter ref="A1:E10" xr:uid="{387B4E0D-6F55-44DA-9344-EB9622378522}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="1" xr3:uid="{A7835E4F-01BA-4B39-9B47-77E68912210A}" name="#" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="50">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="150" totalsRowDxfId="149"/>
-    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{915237E7-1F0F-42A4-A7C8-041DBDA02143}" name="عنوان" dataDxfId="58" totalsRowDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{50081311-D116-4A8B-B3B1-362E4B876409}" name="1400" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="48" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{4B242BB3-1333-418C-A07C-49DAE81876BA}" name="1401" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="47" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{E1DE5B6C-E01B-4554-A846-06AB203F9C1A}" name="جمع" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="46" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8946,16 +9022,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="142" dataDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E4D3B799-DFFA-4749-A173-92568AD77CB9}" name="tbl_office" displayName="tbl_office" ref="A1:E10" totalsRowCount="1" headerRowDxfId="153" dataDxfId="152">
   <autoFilter ref="A1:E9" xr:uid="{CA8A4239-364E-4650-9E13-6B35831DAABA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="1" xr3:uid="{54E6554F-B297-4533-AD8D-E06FC372FA4D}" name="ردیف" totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>ROW(A1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135"/>
-    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="134" totalsRowDxfId="133"/>
-    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="2" xr3:uid="{C8AD3364-8867-4058-B64B-986B3858CF42}" name="عنوان" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{7080C68D-A903-46EB-AC1E-5D0963B807EC}" name="1400" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{B0566FF8-F510-4A8F-8E54-F68246E5F0A7}" name="1401" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{192D38EC-CF7E-4D9A-99C8-24B0818C5DCC}" name="جمع" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>SUM(tbl_office[[#This Row],[1400]:[1401]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9266,7 +9342,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -9316,19 +9392,19 @@
       </c>
       <c r="D2" s="19">
         <f>SUM(tbl_servers[1400])</f>
-        <v>1872000000</v>
+        <v>1104000000</v>
       </c>
       <c r="E2" s="19">
         <f>SUM(tbl_servers[1401])</f>
-        <v>3060000000</v>
+        <v>2400000000</v>
       </c>
       <c r="F2" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>4932000000</v>
+        <v>3504000000</v>
       </c>
       <c r="G2" s="25">
         <f>(F2*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.20963934636390075</v>
+        <v>0.2335432022932023</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -9344,19 +9420,19 @@
       </c>
       <c r="D3" s="19">
         <f>SUM(tbl_office12[1400])</f>
-        <v>240000000</v>
+        <v>210000000</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(tbl_office12[1401])</f>
-        <v>510000000</v>
+        <v>210000000</v>
       </c>
       <c r="F3" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>750000000</v>
+        <v>420000000</v>
       </c>
       <c r="G3" s="25">
         <f>(F3*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>3.187946264657858E-2</v>
+        <v>2.7993192055692059E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -9372,19 +9448,19 @@
       </c>
       <c r="D4" s="19">
         <f>'حقوق و دستمزد'!C15</f>
-        <v>1121400000</v>
+        <v>970100000</v>
       </c>
       <c r="E4" s="19">
         <f>'حقوق و دستمزد'!D15</f>
-        <v>8207580000</v>
+        <v>4959080000</v>
       </c>
       <c r="F4" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>9328980000</v>
+        <v>5929180000</v>
       </c>
       <c r="G4" s="25">
         <f>(F4*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.39653715925423816</v>
+        <v>0.39518255826849574</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -9396,23 +9472,23 @@
         <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="19">
         <f>SUM(tbl_marketing[1400])</f>
-        <v>800000000</v>
+        <v>600000000</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(tbl_marketing[1401])</f>
-        <v>3000000000</v>
+        <v>1550000000</v>
       </c>
       <c r="F5" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>3800000000</v>
+        <v>2150000000</v>
       </c>
       <c r="G5" s="25">
         <f>(F5*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>0.1615226107426648</v>
+        <v>0.14329848314223315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -9428,19 +9504,19 @@
       </c>
       <c r="D6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1400])*12</f>
-        <v>240000000</v>
+        <v>210000000</v>
       </c>
       <c r="E6" s="19">
         <f>d_spacePricePerStaff*SUM(tbl_salaryData[1401])*12</f>
-        <v>750000000</v>
+        <v>420000000</v>
       </c>
       <c r="F6" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>990000000</v>
+        <v>630000000</v>
       </c>
       <c r="G6" s="25">
         <f>(F6*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>4.2080890693483725E-2</v>
+        <v>4.1989788083538079E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -9452,23 +9528,23 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="19">
         <f>SUM(tbl_office[1400])</f>
-        <v>422400000</v>
+        <v>248380000</v>
       </c>
       <c r="E7" s="19">
         <f>SUM(tbl_office[1401])</f>
-        <v>1164000000</v>
+        <v>758120000</v>
       </c>
       <c r="F7" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>1586400000</v>
+        <v>1006500000</v>
       </c>
       <c r="G7" s="25">
         <f>(F7*100/SUM(tbl_sumary[مجموع])) / 100</f>
-        <v>6.7431439390043021E-2</v>
+        <v>6.7083685247747743E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -9484,15 +9560,15 @@
       </c>
       <c r="D8" s="19">
         <f>SUM(D2:D7) * d_unpredictedPercent</f>
-        <v>469580000</v>
+        <v>334248000</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(E2:E7) * d_unpredictedPercent</f>
-        <v>1669158000</v>
+        <v>1029720000</v>
       </c>
       <c r="F8" s="19">
         <f>SUM(tbl_sumary[[#This Row],[1400]:[1401]])</f>
-        <v>2138738000</v>
+        <v>1363968000</v>
       </c>
       <c r="G8" s="25">
         <f>(F8*100/SUM(tbl_sumary[مجموع])) / 100</f>
@@ -9505,15 +9581,15 @@
       </c>
       <c r="D9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1400])</f>
-        <v>5165380000</v>
+        <v>3676728000</v>
       </c>
       <c r="E9" s="12">
         <f>SUBTOTAL(109,tbl_sumary[1401])</f>
-        <v>18360738000</v>
+        <v>11326920000</v>
       </c>
       <c r="F9" s="17">
         <f>SUBTOTAL(109,tbl_sumary[مجموع])</f>
-        <v>23526118000</v>
+        <v>15003648000</v>
       </c>
       <c r="G9" s="21">
         <f>SUBTOTAL(109,tbl_sumary[درصد])</f>
@@ -9546,15 +9622,15 @@
       <c r="C13" s="27"/>
       <c r="D13" s="31">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B13)</f>
-        <v>2112000000</v>
+        <v>1314000000</v>
       </c>
       <c r="E13" s="31">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B13)</f>
-        <v>3570000000</v>
+        <v>2610000000</v>
       </c>
       <c r="F13" s="32">
         <f>SUM(D13:E13)</f>
-        <v>5682000000</v>
+        <v>3924000000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -9565,15 +9641,15 @@
       <c r="C14" s="28"/>
       <c r="D14" s="33">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],B14)</f>
-        <v>3053380000</v>
+        <v>2362728000</v>
       </c>
       <c r="E14" s="33">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],B14)</f>
-        <v>14790738000</v>
+        <v>8716920000</v>
       </c>
       <c r="F14" s="34">
         <f>SUM(D14:E14)</f>
-        <v>17844118000</v>
+        <v>11079648000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -9694,7 +9770,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -9713,28 +9789,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -9743,31 +9819,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4">
         <v>500</v>
       </c>
       <c r="D2" s="4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E2" s="4">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="4">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="G2" s="4">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="H2" s="4">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="4">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="J2" s="4">
-        <v>50000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -9776,39 +9852,39 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="D3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="E3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="F3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="G3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="H3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="I3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
-      </c>
-      <c r="J3" s="38">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <v>101</v>
+      </c>
+      <c r="C3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="D3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="E3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="F3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="G3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="H3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="I3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
+      </c>
+      <c r="J3" s="39">
+        <f>d_customerConvertRate</f>
+        <v>1.7041666666666667E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -9817,39 +9893,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4">
         <f>ROUND(C2*d_customerConvertRate, 0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(D2*d_customerConvertRate, 0)</f>
+        <v>14</v>
       </c>
       <c r="E4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(E2*d_customerConvertRate, 0)</f>
+        <v>20</v>
       </c>
       <c r="F4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(F2*d_customerConvertRate, 0)</f>
+        <v>43</v>
       </c>
       <c r="G4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(G2*d_customerConvertRate, 0)</f>
+        <v>85</v>
       </c>
       <c r="H4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(H2*d_customerConvertRate, 0)</f>
+        <v>170</v>
       </c>
       <c r="I4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(I2*d_customerConvertRate, 0)</f>
+        <v>341</v>
       </c>
       <c r="J4" s="4">
-        <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <f>ROUND(J2*d_customerConvertRate, 0)</f>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -9858,39 +9934,39 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="D5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="E5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="F5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="G5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="H5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="I5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
       <c r="J5" s="22">
-        <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <f>d_customerAvgRevenue</f>
+        <v>30260</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -9899,39 +9975,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" s="22">
         <f>C5*3</f>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" ref="D6:J6" si="1">D5*3</f>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>98580</v>
+        <v>90780</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -9940,39 +10016,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" ref="C7:J7" si="2">C2*d_customerAvgRevenue</f>
-        <v>16430000</v>
+        <v>15130000</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="2"/>
-        <v>32860000</v>
+        <v>24208000</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="2"/>
-        <v>55862000</v>
+        <v>36312000</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="2"/>
-        <v>131440000</v>
+        <v>75650000</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="2"/>
-        <v>262880000</v>
+        <v>151300000</v>
       </c>
       <c r="H7" s="12">
         <f t="shared" si="2"/>
-        <v>492900000</v>
+        <v>302600000</v>
       </c>
       <c r="I7" s="12">
         <f t="shared" si="2"/>
-        <v>985800000</v>
+        <v>605200000</v>
       </c>
       <c r="J7" s="12">
         <f t="shared" si="2"/>
-        <v>1643000000</v>
+        <v>1210400000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -9981,39 +10057,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="16">
         <f>C7*3</f>
-        <v>49290000</v>
+        <v>45390000</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" ref="D8:J8" si="3">D7*3</f>
-        <v>98580000</v>
+        <v>72624000</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="3"/>
-        <v>167586000</v>
+        <v>108936000</v>
       </c>
       <c r="F8" s="16">
         <f t="shared" si="3"/>
-        <v>394320000</v>
+        <v>226950000</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="3"/>
-        <v>788640000</v>
+        <v>453900000</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="3"/>
-        <v>1478700000</v>
+        <v>907800000</v>
       </c>
       <c r="I8" s="16">
         <f t="shared" si="3"/>
-        <v>2957400000</v>
+        <v>1815600000</v>
       </c>
       <c r="J8" s="16">
         <f t="shared" si="3"/>
-        <v>4929000000</v>
+        <v>3631200000</v>
       </c>
     </row>
   </sheetData>
@@ -10026,21 +10102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDCC2BB-F168-40EC-967E-5425F5C717CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDCC2BB-F168-40EC-967E-5425F5C717CD}">
   <sheetPr>
     <tabColor rgb="FFC80A5A"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:E27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="56"/>
     <col min="2" max="2" width="32.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="56" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="25.7109375" style="56" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="56"/>
   </cols>
@@ -10053,7 +10129,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>14</v>
@@ -10062,16 +10138,16 @@
         <v>15</v>
       </c>
       <c r="F1" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>119</v>
-      </c>
       <c r="I1" s="57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -10080,9 +10156,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="57"/>
+        <v>176</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>177</v>
+      </c>
       <c r="D2" s="58">
         <v>1</v>
       </c>
@@ -10108,18 +10186,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="58">
         <f>'پیش‌بینی درآمد'!F2</f>
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="58">
         <f>'پیش‌بینی درآمد'!J2</f>
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="F3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr)</f>
@@ -10127,15 +10205,15 @@
       </c>
       <c r="G3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)</f>
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)</f>
-        <v>400000</v>
+        <v>625000</v>
       </c>
       <c r="I3" s="58">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)</f>
-        <v>800000</v>
+        <v>1562500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -10144,34 +10222,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="62">
         <f>SUM('پیش‌بینی درآمد'!C8:F8)</f>
-        <v>709776000</v>
+        <v>453900000</v>
       </c>
       <c r="E4" s="62">
         <f>SUM('پیش‌بینی درآمد'!$G$8:$J$8)</f>
-        <v>10153740000</v>
+        <v>6808500000</v>
       </c>
       <c r="F4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_cagr) *(1+s_costsGrowthYOY)</f>
-        <v>28430472000</v>
+        <v>22127625000</v>
       </c>
       <c r="G4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>79605321600</v>
+        <v>71914781250</v>
       </c>
       <c r="H4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>222894900480</v>
+        <v>233723039062.5</v>
       </c>
       <c r="I4" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_cagr)*(1+s_costsGrowthYOY)</f>
-        <v>624105721344</v>
+        <v>759599876953.125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -10195,31 +10273,31 @@
         <v>57</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="62">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>2112000000</v>
+        <v>1314000000</v>
       </c>
       <c r="E6" s="62">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>3570000000</v>
+        <v>2610000000</v>
       </c>
       <c r="F6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>4284000000</v>
+        <v>3132000000</v>
       </c>
       <c r="G6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>5140800000</v>
+        <v>3758400000</v>
       </c>
       <c r="H6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>6168960000</v>
+        <v>4510080000</v>
       </c>
       <c r="I6" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthCapexYOY)</f>
-        <v>7402752000</v>
+        <v>5412096000</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -10231,31 +10309,31 @@
         <v>45</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D7" s="62">
         <f>SUMIFS(tbl_sumary[1400],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>3053380000</v>
+        <v>2362728000</v>
       </c>
       <c r="E7" s="62">
         <f>SUMIFS(tbl_sumary[1401],tbl_sumary[نوع],tbl_revenue_summary[[#This Row],[نوع]])</f>
-        <v>14790738000</v>
+        <v>8716920000</v>
       </c>
       <c r="F7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1401]]*(1+s_costsGrowthYOY)</f>
-        <v>20707033200</v>
+        <v>11331996000</v>
       </c>
       <c r="G7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1402]]*(1+s_costsGrowthYOY)</f>
-        <v>28989846480</v>
+        <v>14731594800</v>
       </c>
       <c r="H7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1403]]*(1+s_costsGrowthYOY)</f>
-        <v>40585785072</v>
+        <v>19151073240</v>
       </c>
       <c r="I7" s="62">
         <f>tbl_revenue_summary[[#This Row],[1404]]*(1+s_costsGrowthYOY)</f>
-        <v>56820099100.799995</v>
+        <v>24896395212</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -10264,34 +10342,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="62">
-        <f>D4-D7</f>
-        <v>-2343604000</v>
+        <f t="shared" ref="D8:I8" si="1">D4-D7</f>
+        <v>-1908828000</v>
       </c>
       <c r="E8" s="62">
-        <f>E4-E7</f>
-        <v>-4636998000</v>
+        <f t="shared" si="1"/>
+        <v>-1908420000</v>
       </c>
       <c r="F8" s="62">
-        <f>F4-F7</f>
-        <v>7723438800</v>
+        <f t="shared" si="1"/>
+        <v>10795629000</v>
       </c>
       <c r="G8" s="62">
-        <f>G4-G7</f>
-        <v>50615475120</v>
+        <f t="shared" si="1"/>
+        <v>57183186450</v>
       </c>
       <c r="H8" s="62">
-        <f>H4-H7</f>
-        <v>182309115408</v>
+        <f t="shared" si="1"/>
+        <v>214571965822.5</v>
       </c>
       <c r="I8" s="62">
-        <f>I4-I7</f>
-        <v>567285622243.19995</v>
+        <f t="shared" si="1"/>
+        <v>734703481741.125</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10300,34 +10378,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="60">
-        <f>D8/D4</f>
-        <v>-3.301892428033633</v>
+        <f t="shared" ref="D9:I9" si="2">D8/D4</f>
+        <v>-4.205393258426966</v>
       </c>
       <c r="E9" s="60">
-        <f>E8/E4</f>
-        <v>-0.45667881982402542</v>
+        <f t="shared" si="2"/>
+        <v>-0.28029962546816478</v>
       </c>
       <c r="F9" s="60">
-        <f>F8/F4</f>
-        <v>0.27166059008798726</v>
+        <f t="shared" si="2"/>
+        <v>0.48788014981273409</v>
       </c>
       <c r="G9" s="60">
-        <f>G8/G4</f>
-        <v>0.63583029504399369</v>
+        <f t="shared" si="2"/>
+        <v>0.79515205992509363</v>
       </c>
       <c r="H9" s="60">
-        <f>H8/H4</f>
-        <v>0.81791514752199679</v>
+        <f t="shared" si="2"/>
+        <v>0.91806082397003741</v>
       </c>
       <c r="I9" s="60">
-        <f>I8/I4</f>
-        <v>0.90895757376099828</v>
+        <f t="shared" si="2"/>
+        <v>0.96722432958801496</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -10336,290 +10414,346 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="62">
         <f>D8-D6</f>
-        <v>-4455604000</v>
+        <v>-3222828000</v>
       </c>
       <c r="E10" s="62">
-        <f t="shared" ref="E10:I10" si="1">E8-E6</f>
-        <v>-8206998000</v>
+        <f t="shared" ref="E10:I10" si="3">E8-E6</f>
+        <v>-4518420000</v>
       </c>
       <c r="F10" s="62">
-        <f t="shared" si="1"/>
-        <v>3439438800</v>
+        <f t="shared" si="3"/>
+        <v>7663629000</v>
       </c>
       <c r="G10" s="62">
-        <f t="shared" si="1"/>
-        <v>45474675120</v>
+        <f t="shared" si="3"/>
+        <v>53424786450</v>
       </c>
       <c r="H10" s="62">
-        <f t="shared" si="1"/>
-        <v>176140155408</v>
+        <f t="shared" si="3"/>
+        <v>210061885822.5</v>
       </c>
       <c r="I10" s="62">
-        <f t="shared" si="1"/>
-        <v>559882870243.19995</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>729291385741.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="61">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="56">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="62">
-        <f>D10/(1+v_DiscountRate)^D2</f>
-        <v>-3427387692.3076921</v>
-      </c>
-      <c r="E15" s="62">
-        <f>E10/(1+v_DiscountRate)^E2</f>
-        <v>-4856211834.3195257</v>
-      </c>
-      <c r="F15" s="62">
-        <f>F10/(1+v_DiscountRate)^F2</f>
-        <v>1565516067.3645878</v>
-      </c>
-      <c r="G15" s="62">
-        <f>G10/(1+v_DiscountRate)^G2</f>
-        <v>15921947802.948072</v>
-      </c>
-      <c r="H15" s="62">
-        <f>H10/(1+v_DiscountRate)^H2</f>
-        <v>47439665010.651955</v>
-      </c>
-      <c r="I15" s="62">
-        <f>I10/(1+v_DiscountRate)^I2</f>
-        <v>115994411679.2688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="62">
-        <f>D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
-        <v>1364953846.153846</v>
-      </c>
-      <c r="E16" s="62">
-        <f>E4*v_ExitRevenueMultiple/(1+v_DiscountRate)^E2</f>
-        <v>15020325443.786982</v>
-      </c>
-      <c r="F16" s="62">
-        <f>F4*v_ExitRevenueMultiple/(1+v_DiscountRate)^F2</f>
-        <v>32351470186.618107</v>
-      </c>
-      <c r="G16" s="62">
-        <f>G4*v_ExitRevenueMultiple/(1+v_DiscountRate)^G2</f>
-        <v>69680089632.715927</v>
-      </c>
-      <c r="H16" s="62">
-        <f>H4*v_ExitRevenueMultiple/(1+v_DiscountRate)^H2</f>
-        <v>150080193055.08044</v>
-      </c>
-      <c r="I16" s="62">
-        <f>I4*v_ExitRevenueMultiple/(1+v_DiscountRate)^I2</f>
-        <v>323249646580.17322</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="62">
-        <f>SUM($D$15:D15) + D16</f>
-        <v>-2062433846.153846</v>
-      </c>
-      <c r="E17" s="62">
-        <f>SUM($D$15:E15) + E16</f>
-        <v>6736725917.1597633</v>
-      </c>
-      <c r="F17" s="62">
-        <f>SUM($D$15:F15) + F16</f>
-        <v>25633386727.355476</v>
-      </c>
-      <c r="G17" s="62">
-        <f>SUM($D$15:G15) + G16</f>
-        <v>78883953976.401367</v>
-      </c>
-      <c r="H17" s="62">
-        <f>SUM($D$15:H15) + H16</f>
-        <v>206723722409.41785</v>
-      </c>
-      <c r="I17" s="62">
-        <f>SUM($D$15:I15) + I16</f>
-        <v>495887587613.77942</v>
+      <c r="D18" s="62">
+        <f t="shared" ref="D18:I18" si="4">D10/(1+v_DiscountRate)^D2</f>
+        <v>-2479098461.5384617</v>
+      </c>
+      <c r="E18" s="62">
+        <f t="shared" si="4"/>
+        <v>-2673621301.7751474</v>
+      </c>
+      <c r="F18" s="62">
+        <f t="shared" si="4"/>
+        <v>3488224396.9048696</v>
+      </c>
+      <c r="G18" s="62">
+        <f t="shared" si="4"/>
+        <v>18705502766.00959</v>
+      </c>
+      <c r="H18" s="62">
+        <f t="shared" si="4"/>
+        <v>56575773263.298782</v>
+      </c>
+      <c r="I18" s="62">
+        <f t="shared" si="4"/>
+        <v>151091826036.85474</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="56" t="s">
+        <v>181</v>
+      </c>
       <c r="C19" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="60" t="str">
+        <v>180</v>
+      </c>
+      <c r="D19" s="62">
+        <f t="shared" ref="D19:I19" si="5">D4*v_ExitRevenueMultiple/(1+v_DiscountRate)^D2</f>
+        <v>698307692.30769229</v>
+      </c>
+      <c r="E19" s="62">
+        <f t="shared" si="5"/>
+        <v>8057396449.7041416</v>
+      </c>
+      <c r="F19" s="62">
+        <f t="shared" si="5"/>
+        <v>20143491124.260349</v>
+      </c>
+      <c r="G19" s="62">
+        <f t="shared" si="5"/>
+        <v>50358727810.650879</v>
+      </c>
+      <c r="H19" s="62">
+        <f t="shared" si="5"/>
+        <v>125896819526.62718</v>
+      </c>
+      <c r="I19" s="62">
+        <f t="shared" si="5"/>
+        <v>314742048816.56793</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="62" t="str">
+        <f>IF(SUM($D$18:D18) + D19 &gt; 0, SUM($D$18:D18) + D19, "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="62">
+        <f>IF(SUM($D$18:E18) + E19 &gt; 0, SUM($D$18:E18) + E19, "-")</f>
+        <v>2904676686.3905325</v>
+      </c>
+      <c r="F20" s="62">
+        <f>IF(SUM($D$18:F18) + F19 &gt; 0, SUM($D$18:F18) + F19, "-")</f>
+        <v>18478995757.851608</v>
+      </c>
+      <c r="G20" s="62">
+        <f>IF(SUM($D$18:G18) + G19 &gt; 0, SUM($D$18:G18) + G19, "-")</f>
+        <v>67399735210.251732</v>
+      </c>
+      <c r="H20" s="62">
+        <f>IF(SUM($D$18:H18) + H19 &gt; 0, SUM($D$18:H18) + H19, "-")</f>
+        <v>199513600189.52679</v>
+      </c>
+      <c r="I20" s="62">
+        <f>IF(SUM($D$18:I18) + I19 &gt; 0, SUM($D$18:I18) + I19, "-")</f>
+        <v>539450655516.32227</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="60" t="str">
+        <f>IFERROR(IRR($D$8:D8), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E24" s="60" t="str">
         <f>IFERROR(IRR($D$8:E8), "-")</f>
         <v>-</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F24" s="60">
         <f>IFERROR(IRR($D$8:F8), "-")</f>
-        <v>7.8133150593306944E-2</v>
-      </c>
-      <c r="G19" s="60">
+        <v>0.93023552825244327</v>
+      </c>
+      <c r="G24" s="60">
         <f>IFERROR(IRR($D$8:G8), "-")</f>
-        <v>1.5708963030749095</v>
-      </c>
-      <c r="H19" s="60">
+        <v>2.3525365145055765</v>
+      </c>
+      <c r="H24" s="60">
         <f>IFERROR(IRR($D$8:H8), "-")</f>
-        <v>2.2708205315062955</v>
-      </c>
-      <c r="I19" s="60">
+        <v>3.0119255778421667</v>
+      </c>
+      <c r="I24" s="60">
         <f>IFERROR(IRR($D$8:I8), "-")</f>
-        <v>2.6218279370332667</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="60" t="str">
+        <v>3.3434713969101528</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="60" t="str">
+        <f>IFERROR(IRR($D$10:D10), "-")</f>
+        <v>-</v>
+      </c>
+      <c r="E25" s="60" t="str">
         <f>IFERROR(IRR($D$10:E10), "-")</f>
         <v>-</v>
       </c>
-      <c r="F20" s="60" t="str">
+      <c r="F25" s="60">
         <f>IFERROR(IRR($D$10:F10), "-")</f>
-        <v>-</v>
-      </c>
-      <c r="G20" s="60">
+        <v>-7.094186213720155E-3</v>
+      </c>
+      <c r="G25" s="60">
         <f>IFERROR(IRR($D$10:G10), "-")</f>
-        <v>0.7868082357056565</v>
-      </c>
-      <c r="H20" s="60">
+        <v>1.4176485054428785</v>
+      </c>
+      <c r="H25" s="60">
         <f>IFERROR(IRR($D$10:H10), "-")</f>
-        <v>1.5241026918087792</v>
-      </c>
-      <c r="I20" s="60">
+        <v>2.140447455521457</v>
+      </c>
+      <c r="I25" s="60">
         <f>IFERROR(IRR($D$10:I10), "-")</f>
-        <v>1.9226622730685898</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="62">
+        <v>2.5322864820348197</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="62">
         <f>NPV(v_DiscountRate,D10)</f>
-        <v>-3427387692.3076921</v>
-      </c>
-      <c r="E21" s="62">
+        <v>-2479098461.5384617</v>
+      </c>
+      <c r="E26" s="62">
         <f>NPV(v_DiscountRate,D10,E10)</f>
-        <v>-8283599526.6272173</v>
-      </c>
-      <c r="F21" s="62">
+        <v>-5152719763.3136091</v>
+      </c>
+      <c r="F26" s="62">
         <f>NPV(v_DiscountRate,D10,E10,F10)</f>
-        <v>-6718083459.2626295</v>
-      </c>
-      <c r="G21" s="62">
+        <v>-1664495366.4087391</v>
+      </c>
+      <c r="G26" s="62">
         <f>NPV(v_DiscountRate,D10,E10,F10,G10)</f>
-        <v>9203864343.685442</v>
-      </c>
-      <c r="H21" s="62">
+        <v>17041007399.600849</v>
+      </c>
+      <c r="H26" s="62">
         <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10)</f>
-        <v>56643529354.337395</v>
-      </c>
-      <c r="I21" s="62">
+        <v>73616780662.899628</v>
+      </c>
+      <c r="I26" s="62">
         <f>NPV(v_DiscountRate,D10,E10,F10,G10,H10,I10)</f>
-        <v>172637941033.60617</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="76">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="77">
-        <f>E23*60</f>
-        <v>72</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H24" s="75"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="E25" s="77">
-        <f>E24*60</f>
-        <v>4320</v>
-      </c>
-      <c r="F25" s="56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" s="77">
-        <f>E25*24</f>
-        <v>103680</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="78">
-        <f>E26*30</f>
-        <v>3110400</v>
-      </c>
+        <v>224708606699.75436</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E29" s="77"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="77"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E31" s="77"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E32" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C17DC-A059-427A-B1E3-F4E95301E578}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10635,51 +10769,51 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>174</v>
-      </c>
       <c r="E1" s="66" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63">
@@ -10721,25 +10855,25 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E3" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F3" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H3" s="69">
         <v>0.2</v>
@@ -10767,25 +10901,25 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H4" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10813,25 +10947,25 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E5" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H5" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10859,25 +10993,25 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H6" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10905,25 +11039,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H7" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
@@ -10951,32 +11085,32 @@
     </row>
     <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[1399]]*(1-H$13-v_seriA), "-")</f>
         <v>-</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J8" s="64" t="str">
         <f>IFERROR(tbl_fundraisingSteps[[#This Row],[Series B]]*(1-v_seriC), "-")</f>
@@ -10996,10 +11130,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="73">
         <v>0.9</v>
@@ -11043,19 +11177,19 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="63">
         <v>0.19</v>
@@ -11090,19 +11224,19 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C11" s="63">
         <v>0.1</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F11" s="64">
         <v>2.86E-2</v>
@@ -11137,13 +11271,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>160</v>
-      </c>
       <c r="C12" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D12" s="63">
         <v>0.15</v>
@@ -11184,25 +11318,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>161</v>
-      </c>
       <c r="D13" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H13" s="70">
         <v>0.1</v>
@@ -11280,7 +11414,7 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C16" s="67">
         <v>10000000</v>
@@ -11366,48 +11500,48 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="57" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D23" s="57" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I23" s="57" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J23" s="57" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K23" s="57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L23" s="57" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M23" s="57" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="57" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C24" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11456,7 +11590,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C25" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11505,7 +11639,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C26" s="64">
         <f>SUMIFS(tbl_fundraisingSteps[Start 1394],tbl_fundraisingSteps[نوع سهام‌دار],Table13[[#This Row],[نوع سهام‌دار]])</f>
@@ -11628,7 +11762,7 @@
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11752,7 +11886,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -11776,7 +11910,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="21">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -11817,7 +11951,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="22">
-        <v>25000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -11833,7 +11967,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="12">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -11857,7 +11991,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="20">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -11866,7 +12000,7 @@
       </c>
       <c r="B13" s="12">
         <f>d_serverDollarCost*d_toman2dollar</f>
-        <v>300000000</v>
+        <v>240000000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -11874,8 +12008,8 @@
         <v>54</v>
       </c>
       <c r="B14" s="12">
-        <f>d_ssdDollarCost*d_toman2dollar * 12</f>
-        <v>150000000</v>
+        <f>d_ssdDollarCost*d_toman2dollar * 24</f>
+        <v>288000000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -11883,7 +12017,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="12">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -11896,13 +12030,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="21">
         <v>0.4</v>
@@ -11910,23 +12044,23 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="21">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B21" s="21">
         <v>0.2</v>
@@ -11973,7 +12107,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12013,15 +12147,15 @@
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_serverCost</f>
-        <v>1200000000</v>
+        <v>480000000</v>
       </c>
       <c r="D2" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_serverCost</f>
-        <v>1800000000</v>
+        <v>960000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>3000000000</v>
+        <v>1440000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -12034,15 +12168,15 @@
       </c>
       <c r="C3" s="12">
         <f>tbl_serverCount[1400]*d_ssdCost</f>
-        <v>600000000</v>
+        <v>576000000</v>
       </c>
       <c r="D3" s="12">
         <f>(tbl_serverCount[1401] - tbl_serverCount[1400])*d_ssdCost</f>
-        <v>900000000</v>
+        <v>1152000000</v>
       </c>
       <c r="E3" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>1500000000</v>
+        <v>1728000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -12055,15 +12189,15 @@
       </c>
       <c r="C4" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
-        <v>72000000</v>
+        <v>48000000</v>
       </c>
       <c r="D4" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
-        <v>360000000</v>
+        <v>288000000</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(tbl_servers[[#This Row],[1400]:[1401]])</f>
-        <v>432000000</v>
+        <v>336000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -12072,15 +12206,15 @@
       </c>
       <c r="C5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1400])</f>
-        <v>1872000000</v>
+        <v>1104000000</v>
       </c>
       <c r="D5" s="12">
         <f>SUBTOTAL(109,tbl_servers[1401])</f>
-        <v>3060000000</v>
+        <v>2400000000</v>
       </c>
       <c r="E5" s="12">
         <f>SUBTOTAL(109,tbl_servers[جمع])</f>
-        <v>4932000000</v>
+        <v>3504000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12109,10 +12243,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12142,7 +12276,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12181,15 +12315,15 @@
       </c>
       <c r="C2" s="12">
         <f>d_staff1400*d_systemPerPerson</f>
-        <v>240000000</v>
+        <v>210000000</v>
       </c>
       <c r="D2" s="12">
         <f>d_staff1401 * d_systemPerPerson</f>
-        <v>510000000</v>
+        <v>210000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_office12[[#This Row],[1400]:[1401]])</f>
-        <v>750000000</v>
+        <v>420000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12225,7 +12359,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12264,17 +12398,17 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A4" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3:A5" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -12284,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -12299,13 +12433,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="e">
-        <f>ROW(#REF!)</f>
-        <v>#REF!</v>
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -12314,7 +12448,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -12323,11 +12457,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1400])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
         <f>SUBTOTAL(109,tbl_salaryData[1401])</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4"/>
@@ -12354,15 +12488,15 @@
       </c>
       <c r="C12" s="24">
         <f>SUM(tbl_salaryData[1400])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="24">
         <f>SUM(tbl_salaryData[1401])-C12</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E12" s="11">
         <f>SUM(C12:D12)</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -12372,15 +12506,15 @@
       </c>
       <c r="C13" s="11">
         <f>C2*C$23+C3*C$24+C4*C$25+C5*C$26</f>
-        <v>126000000</v>
+        <v>109000000</v>
       </c>
       <c r="D13" s="11">
         <f>D2*D$23+D3*D$24+D4*D$25+D5*D$26</f>
-        <v>461100000</v>
+        <v>278600000</v>
       </c>
       <c r="E13" s="11">
         <f>SUM(C13:D13)</f>
-        <v>587100000</v>
+        <v>387600000</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -12390,15 +12524,15 @@
       </c>
       <c r="C14" s="11">
         <f>C13*d_year1400Remain</f>
-        <v>756000000</v>
+        <v>654000000</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" ref="D14" si="1">D13*12</f>
-        <v>5533200000</v>
+        <v>3343200000</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" ref="E14:E15" si="2">SUM(C14:D14)</f>
-        <v>6289200000</v>
+        <v>3997200000</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -12409,15 +12543,15 @@
       </c>
       <c r="C15" s="15">
         <f>ROUND(C13*d_AnnualSalary,0) / 12 * d_year1400Remain</f>
-        <v>1121400000</v>
+        <v>970100000</v>
       </c>
       <c r="D15" s="15">
         <f>ROUND(D13*d_AnnualSalary,0)</f>
-        <v>8207580000</v>
+        <v>4959080000</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="2"/>
-        <v>9328980000</v>
+        <v>5929180000</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4"/>
@@ -12462,7 +12596,7 @@
       </c>
       <c r="D23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>29000000</v>
+        <v>28000000</v>
       </c>
       <c r="E23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
@@ -12470,7 +12604,7 @@
       </c>
       <c r="F23" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>516200000</v>
+        <v>498400000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -12481,19 +12615,19 @@
         <v>11</v>
       </c>
       <c r="C24" s="19">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="D24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>11600000</v>
+        <v>8400000</v>
       </c>
       <c r="E24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
-        <v>142400000</v>
+        <v>106800000</v>
       </c>
       <c r="F24" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>206480000</v>
+        <v>149520000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -12504,42 +12638,42 @@
         <v>12</v>
       </c>
       <c r="C25" s="19">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="D25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>17400000</v>
+        <v>21000000</v>
       </c>
       <c r="E25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
-        <v>213600000</v>
+        <v>267000000</v>
       </c>
       <c r="F25" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>309720000</v>
+        <v>373800000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="19">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="D26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*(d_salaryYOY + 1)</f>
-        <v>8700000</v>
+        <v>11200000</v>
       </c>
       <c r="E26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۰]]*d_AnnualSalary</f>
-        <v>106800000</v>
+        <v>142400000</v>
       </c>
       <c r="F26" s="12">
         <f>tbl_jobSalary[[#This Row],[میانگین پرداختی ۱۴۰۱]]*d_AnnualSalary</f>
-        <v>154860000</v>
+        <v>199360000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4"/>
@@ -12564,7 +12698,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12605,11 +12739,11 @@
         <v>50000000</v>
       </c>
       <c r="D2" s="19">
-        <v>200000000</v>
+        <v>80000000</v>
       </c>
       <c r="E2" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>250000000</v>
+        <v>130000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -12624,11 +12758,11 @@
         <v>100000000</v>
       </c>
       <c r="D3" s="19">
-        <v>500000000</v>
+        <v>250000000</v>
       </c>
       <c r="E3" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>600000000</v>
+        <v>350000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -12643,11 +12777,11 @@
         <v>200000000</v>
       </c>
       <c r="D4" s="19">
-        <v>1000000000</v>
+        <v>600000000</v>
       </c>
       <c r="E4" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>1200000000</v>
+        <v>800000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -12656,17 +12790,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="19">
         <v>80000000</v>
       </c>
       <c r="D5" s="19">
-        <v>500000000</v>
+        <v>300000000</v>
       </c>
       <c r="E5" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>580000000</v>
+        <v>380000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -12678,14 +12812,14 @@
         <v>23</v>
       </c>
       <c r="C6" s="19">
-        <v>40000000</v>
+        <v>30000000</v>
       </c>
       <c r="D6" s="19">
         <v>100000000</v>
       </c>
       <c r="E6" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>140000000</v>
+        <v>130000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -12700,11 +12834,11 @@
         <v>10000000</v>
       </c>
       <c r="D7" s="19">
-        <v>50000000</v>
+        <v>40000000</v>
       </c>
       <c r="E7" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>60000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -12716,14 +12850,14 @@
         <v>24</v>
       </c>
       <c r="C8" s="19">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="D8" s="19">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="E8" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>150000000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -12735,14 +12869,14 @@
         <v>25</v>
       </c>
       <c r="C9" s="19">
-        <v>70000000</v>
+        <v>10000000</v>
       </c>
       <c r="D9" s="19">
-        <v>50000000</v>
+        <v>20000000</v>
       </c>
       <c r="E9" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>120000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -12754,14 +12888,14 @@
         <v>26</v>
       </c>
       <c r="C10" s="19">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="D10" s="19">
-        <v>500000000</v>
+        <v>100000000</v>
       </c>
       <c r="E10" s="19">
         <f>SUM(tbl_marketing[[#This Row],[1400]:[1401]])</f>
-        <v>700000000</v>
+        <v>200000000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -12770,15 +12904,15 @@
       </c>
       <c r="C11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1400])</f>
-        <v>800000000</v>
+        <v>600000000</v>
       </c>
       <c r="D11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[1401])</f>
-        <v>3000000000</v>
+        <v>1550000000</v>
       </c>
       <c r="E11" s="12">
         <f>SUBTOTAL(109,tbl_marketing[جمع])</f>
-        <v>3800000000</v>
+        <v>2150000000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -12805,7 +12939,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" zeroHeight="1" x14ac:dyDescent="0.4"/>
@@ -12844,15 +12978,15 @@
       </c>
       <c r="C2" s="12">
         <f>tbl_serverCount[1400]*d_coloCost * d_year1400Remain</f>
-        <v>72000000</v>
+        <v>48000000</v>
       </c>
       <c r="D2" s="12">
         <f>tbl_serverCount[1401]*d_coloCost * 12</f>
-        <v>360000000</v>
+        <v>288000000</v>
       </c>
       <c r="E2" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>432000000</v>
+        <v>336000000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -12861,17 +12995,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="12">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="D3" s="12">
         <v>80000000</v>
       </c>
       <c r="E3" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>280000000</v>
+        <v>180000000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -12886,11 +13020,11 @@
         <v>10000000</v>
       </c>
       <c r="D4" s="12">
-        <v>100000000</v>
+        <v>40000000</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>110000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -12899,17 +13033,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" s="12">
         <v>10000000</v>
       </c>
       <c r="D5" s="12">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="E5" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>60000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -12922,15 +13056,15 @@
       </c>
       <c r="C6" s="12">
         <f>d_staff1400*d_usagePerPersonPerMonth * d_year1400Remain</f>
-        <v>48000000</v>
+        <v>37800000</v>
       </c>
       <c r="D6" s="12">
         <f>d_staffTotal * d_usagePerPersonPerMonth * 12</f>
-        <v>300000000</v>
+        <v>151200000</v>
       </c>
       <c r="E6" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>348000000</v>
+        <v>189000000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -12942,14 +13076,14 @@
         <v>43</v>
       </c>
       <c r="C7" s="12">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="D7" s="12">
-        <v>50000000</v>
+        <v>30000000</v>
       </c>
       <c r="E7" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>52000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -12964,11 +13098,11 @@
         <v>10000000</v>
       </c>
       <c r="D8" s="12">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="E8" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>40000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -12977,19 +13111,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="C9" s="12">
-        <f>SUM(C2:C8) * 20%</f>
-        <v>70400000</v>
+        <f>SUM(C2:C8) * 10%</f>
+        <v>22580000</v>
       </c>
       <c r="D9" s="12">
-        <f>SUM(D2:D8) * 20%</f>
-        <v>194000000</v>
+        <f>SUM(D2:D8) * 10%</f>
+        <v>68920000</v>
       </c>
       <c r="E9" s="12">
         <f>SUM(tbl_office[[#This Row],[1400]:[1401]])</f>
-        <v>264400000</v>
+        <v>91500000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -12998,15 +13132,15 @@
       </c>
       <c r="C10" s="12">
         <f>SUBTOTAL(109,tbl_office[1400])</f>
-        <v>422400000</v>
+        <v>248380000</v>
       </c>
       <c r="D10" s="12">
         <f>SUBTOTAL(109,tbl_office[1401])</f>
-        <v>1164000000</v>
+        <v>758120000</v>
       </c>
       <c r="E10" s="12">
         <f>SUBTOTAL(109,tbl_office[جمع])</f>
-        <v>1586400000</v>
+        <v>1006500000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4"/>
@@ -13034,10 +13168,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -13067,52 +13201,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="P1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="Q1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
@@ -13121,10 +13255,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D2" s="12">
         <v>50000</v>
@@ -13145,7 +13279,7 @@
       </c>
       <c r="I2" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>7.2907592307176847E-2</v>
+        <v>0.16280113721382614</v>
       </c>
       <c r="J2" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13190,10 +13324,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="12">
         <v>100000</v>
@@ -13204,51 +13338,51 @@
         <v>100000</v>
       </c>
       <c r="G3" s="38">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="H3" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I3" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.3350532734704818</v>
+        <v>0.11970671853957804</v>
       </c>
       <c r="J3" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>125000</v>
+        <v>20000</v>
       </c>
       <c r="K3" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L3" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M3" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="N3" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="O3" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P3" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="Q3" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="R3" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -13257,65 +13391,65 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="12">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="G4" s="38">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H4" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="I4" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.2412383568987469</v>
+        <v>0.21547209337124046</v>
       </c>
       <c r="J4" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>90000</v>
+        <v>36000</v>
       </c>
       <c r="K4" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L4" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M4" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="N4" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="O4" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P4" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q4" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="R4" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>6000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -13324,65 +13458,65 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="12">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="G5" s="39">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H5" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I5" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>6.7010654694096361E-3</v>
+        <v>3.5912015561873407E-2</v>
       </c>
       <c r="J5" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>2500</v>
+        <v>6000</v>
       </c>
       <c r="K5" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O5" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P5" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R5" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -13391,10 +13525,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="12">
         <v>5000000</v>
@@ -13413,7 +13547,7 @@
       </c>
       <c r="I6" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>1.675266367352409E-3</v>
+        <v>3.7408349543618137E-3</v>
       </c>
       <c r="J6" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13458,10 +13592,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="12">
         <v>100000</v>
@@ -13480,7 +13614,7 @@
       </c>
       <c r="I7" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.3505327347048181E-3</v>
+        <v>7.4816699087236274E-3</v>
       </c>
       <c r="J7" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13525,10 +13659,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" s="12">
         <v>100000</v>
@@ -13540,7 +13674,7 @@
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
         <v>10000</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="25">
         <v>0.05</v>
       </c>
       <c r="H8" s="45">
@@ -13549,7 +13683,7 @@
       </c>
       <c r="I8" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>3.3505327347048183E-2</v>
+        <v>7.4816699087236274E-2</v>
       </c>
       <c r="J8" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13594,10 +13728,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12">
         <v>50000</v>
@@ -13616,7 +13750,7 @@
       </c>
       <c r="I9" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>2.6804261877638545E-2</v>
+        <v>5.9853359269789019E-2</v>
       </c>
       <c r="J9" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13661,10 +13795,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="12">
         <v>200000</v>
@@ -13683,7 +13817,7 @@
       </c>
       <c r="I10" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>6.7010654694096361E-3</v>
+        <v>1.4963339817447255E-2</v>
       </c>
       <c r="J10" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13728,65 +13862,65 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="12">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12">
         <f>tbl_pricing[[#This Row],[مبلغ پرداختی]]-tbl_pricing[[#This Row],[بهای تمام شده]]</f>
-        <v>400000</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0.02</v>
+        <v>500000</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0.01</v>
       </c>
       <c r="H11" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="I11" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>0.21443409502110836</v>
+        <v>0.14963339817447255</v>
       </c>
       <c r="J11" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>80000</v>
+        <v>25000</v>
       </c>
       <c r="K11" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L11" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M11" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N11" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O11" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P11" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="R11" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -13795,10 +13929,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="12">
         <v>100000</v>
@@ -13817,7 +13951,7 @@
       </c>
       <c r="I12" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>5.3608523755277089E-2</v>
+        <v>0.11970671853957804</v>
       </c>
       <c r="J12" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
@@ -13862,10 +13996,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="12">
         <v>3000000</v>
@@ -13876,51 +14010,51 @@
         <v>3000000</v>
       </c>
       <c r="G13" s="39">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H13" s="45">
         <f>tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود]]</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I13" s="44">
         <f>tbl_pricing[[#This Row],[کل بیزینس‌ها]]/ SUM(tbl_pricing[کل بیزینس‌ها])</f>
-        <v>4.0206392816457817E-3</v>
+        <v>3.5912015561873407E-2</v>
       </c>
       <c r="J13" s="50">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]*tbl_pricing[[#This Row],[سود به ازای هر بیزینس]]</f>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="K13" s="48">
         <f>tbl_pricing[[#Headers],[500]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="48">
         <f>tbl_pricing[[#Headers],[1000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="48">
         <f>tbl_pricing[[#Headers],[2000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="48">
         <f>tbl_pricing[[#Headers],[5000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O13" s="48">
         <f>tbl_pricing[[#Headers],[10000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P13" s="48">
         <f>tbl_pricing[[#Headers],[20000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="48">
         <f>tbl_pricing[[#Headers],[50000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R13" s="48">
         <f>tbl_pricing[[#Headers],[100000]]*tbl_pricing[[#This Row],[درصد خرید]]</f>
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -13931,11 +14065,11 @@
       <c r="F14" s="12"/>
       <c r="G14" s="46">
         <f>SUBTOTAL(101,tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <v>1.7041666666666667E-2</v>
       </c>
       <c r="H14" s="45">
         <f>SUBTOTAL(109,tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <v>30260</v>
       </c>
       <c r="I14" s="42"/>
       <c r="J14" s="1"/>
@@ -13964,11 +14098,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="52">
         <f>AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2.2708333333333334E-2</v>
+        <v>1.7041666666666667E-2</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
@@ -13976,11 +14110,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="53">
         <f>SUM(tbl_pricing[سود به ازای هر بیزینس])</f>
-        <v>32860</v>
+        <v>30260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
@@ -13989,16 +14123,16 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>101</v>
-      </c>
       <c r="C23" s="47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P23" s="40"/>
       <c r="Q23" s="40"/>
@@ -14009,15 +14143,15 @@
       </c>
       <c r="B24" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>11.354166666666666</v>
+        <v>8.5208333333333339</v>
       </c>
       <c r="C24" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>16430000</v>
+        <v>15130000</v>
       </c>
       <c r="D24" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>197160000</v>
+        <v>181560000</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="12"/>
@@ -14028,15 +14162,15 @@
       </c>
       <c r="B25" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>22.708333333333332</v>
+        <v>17.041666666666668</v>
       </c>
       <c r="C25" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>32860000</v>
+        <v>30260000</v>
       </c>
       <c r="D25" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>394320000</v>
+        <v>363120000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
@@ -14045,15 +14179,15 @@
       </c>
       <c r="B26" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>45.416666666666664</v>
+        <v>34.083333333333336</v>
       </c>
       <c r="C26" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>65720000</v>
+        <v>60520000</v>
       </c>
       <c r="D26" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>788640000</v>
+        <v>726240000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
@@ -14062,15 +14196,15 @@
       </c>
       <c r="B27" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>113.54166666666667</v>
+        <v>85.208333333333329</v>
       </c>
       <c r="C27" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>164300000</v>
+        <v>151300000</v>
       </c>
       <c r="D27" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>1971600000</v>
+        <v>1815600000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
@@ -14079,15 +14213,15 @@
       </c>
       <c r="B28" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>227.08333333333334</v>
+        <v>170.41666666666666</v>
       </c>
       <c r="C28" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>328600000</v>
+        <v>302600000</v>
       </c>
       <c r="D28" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>3943200000</v>
+        <v>3631200000</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
@@ -14096,15 +14230,15 @@
       </c>
       <c r="B29" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>454.16666666666669</v>
+        <v>340.83333333333331</v>
       </c>
       <c r="C29" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>657200000</v>
+        <v>605200000</v>
       </c>
       <c r="D29" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>7886400000</v>
+        <v>7262400000</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
@@ -14113,15 +14247,15 @@
       </c>
       <c r="B30" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>1135.4166666666667</v>
+        <v>852.08333333333337</v>
       </c>
       <c r="C30" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>1643000000</v>
+        <v>1513000000</v>
       </c>
       <c r="D30" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>19716000000</v>
+        <v>18156000000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
@@ -14130,32 +14264,66 @@
       </c>
       <c r="B31" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>2270.8333333333335</v>
+        <v>1704.1666666666667</v>
       </c>
       <c r="C31" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>3286000000</v>
+        <v>3026000000</v>
       </c>
       <c r="D31" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>39432000000</v>
+        <v>36312000000</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="B32" s="5">
         <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
-        <v>22708.333333333332</v>
+        <v>3408.3333333333335</v>
       </c>
       <c r="C32" s="12">
         <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
-        <v>32860000000</v>
+        <v>6052000000</v>
       </c>
       <c r="D32" s="12">
         <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
-        <v>394320000000</v>
+        <v>72624000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <v>500000</v>
+      </c>
+      <c r="B33" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>8520.8333333333339</v>
+      </c>
+      <c r="C33" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>15130000000</v>
+      </c>
+      <c r="D33" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>181560000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="B34" s="5">
+        <f>tbl_pricing_predict[[#This Row],[تعداد بیزینس]]*AVERAGE(tbl_pricing[درصد خرید])</f>
+        <v>17041.666666666668</v>
+      </c>
+      <c r="C34" s="12">
+        <f>d_customerAvgRevenue*tbl_pricing_predict[[#This Row],[تعداد بیزینس]]</f>
+        <v>30260000000</v>
+      </c>
+      <c r="D34" s="12">
+        <f>tbl_pricing_predict[[#This Row],[درآمد ماهیانه]]*12</f>
+        <v>363120000000</v>
       </c>
     </row>
   </sheetData>
